--- a/RGB_img_corpus_one/0.3.dataStadictist/Estadisticas_descarga5_RGB_Vector.xlsx
+++ b/RGB_img_corpus_one/0.3.dataStadictist/Estadisticas_descarga5_RGB_Vector.xlsx
@@ -407,7 +407,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -453,10 +453,10 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2">
-        <v>821</v>
+        <v>25499</v>
       </c>
       <c r="B2">
-        <v>205.25</v>
+        <v>254.99</v>
       </c>
       <c r="C2">
         <v>255</v>
@@ -465,22 +465,22 @@
         <v>255</v>
       </c>
       <c r="E2">
-        <v>9900.25</v>
+        <v>0.009999999999999967</v>
       </c>
       <c r="F2">
-        <v>99.5</v>
+        <v>0.09999999999999984</v>
       </c>
       <c r="G2">
-        <v>199</v>
+        <v>1</v>
       </c>
       <c r="H2">
-        <v>56</v>
+        <v>254</v>
       </c>
       <c r="I2">
         <v>255</v>
       </c>
       <c r="J2">
-        <v>205.25</v>
+        <v>255</v>
       </c>
       <c r="K2">
         <v>255</v>
@@ -491,37 +491,37 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3">
-        <v>1006</v>
+        <v>25493</v>
       </c>
       <c r="B3">
-        <v>251.5</v>
+        <v>254.93</v>
       </c>
       <c r="C3">
-        <v>252.5</v>
+        <v>255</v>
       </c>
       <c r="D3">
         <v>255</v>
       </c>
       <c r="E3">
-        <v>19</v>
+        <v>0.1263636363636365</v>
       </c>
       <c r="F3">
-        <v>4.358898943540674</v>
+        <v>0.3554766326548575</v>
       </c>
       <c r="G3">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="H3">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="I3">
         <v>255</v>
       </c>
       <c r="J3">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="K3">
-        <v>252.5</v>
+        <v>255</v>
       </c>
       <c r="L3">
         <v>255</v>
@@ -529,77 +529,3725 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4">
-        <v>776</v>
+        <v>25481</v>
       </c>
       <c r="B4">
-        <v>194</v>
+        <v>254.81</v>
       </c>
       <c r="C4">
-        <v>186.5</v>
+        <v>255</v>
       </c>
       <c r="D4">
-        <v>148</v>
+        <v>255</v>
       </c>
       <c r="E4">
-        <v>2416.666666666667</v>
+        <v>0.397878787878787</v>
       </c>
       <c r="F4">
-        <v>49.15960401250875</v>
+        <v>0.6307763374436196</v>
       </c>
       <c r="G4">
-        <v>107</v>
+        <v>3</v>
       </c>
       <c r="H4">
-        <v>148</v>
+        <v>252</v>
       </c>
       <c r="I4">
         <v>255</v>
       </c>
       <c r="J4">
-        <v>157.75</v>
+        <v>255</v>
       </c>
       <c r="K4">
-        <v>186.5</v>
+        <v>255</v>
       </c>
       <c r="L4">
-        <v>222.75</v>
+        <v>255</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5">
-        <v>877</v>
+        <v>25480</v>
       </c>
       <c r="B5">
-        <v>219.25</v>
+        <v>254.8</v>
       </c>
       <c r="C5">
-        <v>221.5</v>
+        <v>255</v>
       </c>
       <c r="D5">
         <v>255</v>
       </c>
       <c r="E5">
-        <v>1717.583333333333</v>
+        <v>0.484848484848483</v>
       </c>
       <c r="F5">
-        <v>41.44373696149194</v>
+        <v>0.69631062382279</v>
       </c>
       <c r="G5">
+        <v>3</v>
+      </c>
+      <c r="H5">
+        <v>252</v>
+      </c>
+      <c r="I5">
+        <v>255</v>
+      </c>
+      <c r="J5">
+        <v>255</v>
+      </c>
+      <c r="K5">
+        <v>255</v>
+      </c>
+      <c r="L5">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6">
+        <v>25495</v>
+      </c>
+      <c r="B6">
+        <v>254.95</v>
+      </c>
+      <c r="C6">
+        <v>255</v>
+      </c>
+      <c r="D6">
+        <v>255</v>
+      </c>
+      <c r="E6">
+        <v>0.04797979797979806</v>
+      </c>
+      <c r="F6">
+        <v>0.2190429135575905</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>254</v>
+      </c>
+      <c r="I6">
+        <v>255</v>
+      </c>
+      <c r="J6">
+        <v>255</v>
+      </c>
+      <c r="K6">
+        <v>255</v>
+      </c>
+      <c r="L6">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7">
+        <v>25487</v>
+      </c>
+      <c r="B7">
+        <v>254.87</v>
+      </c>
+      <c r="C7">
+        <v>255</v>
+      </c>
+      <c r="D7">
+        <v>255</v>
+      </c>
+      <c r="E7">
+        <v>0.2556565656565662</v>
+      </c>
+      <c r="F7">
+        <v>0.5056249258655729</v>
+      </c>
+      <c r="G7">
+        <v>3</v>
+      </c>
+      <c r="H7">
+        <v>252</v>
+      </c>
+      <c r="I7">
+        <v>255</v>
+      </c>
+      <c r="J7">
+        <v>255</v>
+      </c>
+      <c r="K7">
+        <v>255</v>
+      </c>
+      <c r="L7">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8">
+        <v>25453</v>
+      </c>
+      <c r="B8">
+        <v>254.53</v>
+      </c>
+      <c r="C8">
+        <v>255</v>
+      </c>
+      <c r="D8">
+        <v>255</v>
+      </c>
+      <c r="E8">
+        <v>1.827373737373738</v>
+      </c>
+      <c r="F8">
+        <v>1.351803882733638</v>
+      </c>
+      <c r="G8">
+        <v>6</v>
+      </c>
+      <c r="H8">
+        <v>249</v>
+      </c>
+      <c r="I8">
+        <v>255</v>
+      </c>
+      <c r="J8">
+        <v>255</v>
+      </c>
+      <c r="K8">
+        <v>255</v>
+      </c>
+      <c r="L8">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9">
+        <v>25386</v>
+      </c>
+      <c r="B9">
+        <v>253.86</v>
+      </c>
+      <c r="C9">
+        <v>255</v>
+      </c>
+      <c r="D9">
+        <v>255</v>
+      </c>
+      <c r="E9">
+        <v>12.66707070707076</v>
+      </c>
+      <c r="F9">
+        <v>3.559082846334257</v>
+      </c>
+      <c r="G9">
+        <v>17</v>
+      </c>
+      <c r="H9">
+        <v>238</v>
+      </c>
+      <c r="I9">
+        <v>255</v>
+      </c>
+      <c r="J9">
+        <v>255</v>
+      </c>
+      <c r="K9">
+        <v>255</v>
+      </c>
+      <c r="L9">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10">
+        <v>25179</v>
+      </c>
+      <c r="B10">
+        <v>251.79</v>
+      </c>
+      <c r="C10">
+        <v>255</v>
+      </c>
+      <c r="D10">
+        <v>255</v>
+      </c>
+      <c r="E10">
+        <v>119.3594949494946</v>
+      </c>
+      <c r="F10">
+        <v>10.92517711295769</v>
+      </c>
+      <c r="G10">
+        <v>61</v>
+      </c>
+      <c r="H10">
+        <v>194</v>
+      </c>
+      <c r="I10">
+        <v>255</v>
+      </c>
+      <c r="J10">
+        <v>255</v>
+      </c>
+      <c r="K10">
+        <v>255</v>
+      </c>
+      <c r="L10">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11">
+        <v>24423</v>
+      </c>
+      <c r="B11">
+        <v>244.23</v>
+      </c>
+      <c r="C11">
+        <v>255</v>
+      </c>
+      <c r="D11">
+        <v>255</v>
+      </c>
+      <c r="E11">
+        <v>1458.966767676774</v>
+      </c>
+      <c r="F11">
+        <v>38.19642349326406</v>
+      </c>
+      <c r="G11">
+        <v>188</v>
+      </c>
+      <c r="H11">
+        <v>67</v>
+      </c>
+      <c r="I11">
+        <v>255</v>
+      </c>
+      <c r="J11">
+        <v>255</v>
+      </c>
+      <c r="K11">
+        <v>255</v>
+      </c>
+      <c r="L11">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12">
+        <v>23927</v>
+      </c>
+      <c r="B12">
+        <v>239.27</v>
+      </c>
+      <c r="C12">
+        <v>255</v>
+      </c>
+      <c r="D12">
+        <v>255</v>
+      </c>
+      <c r="E12">
+        <v>2381.997070707063</v>
+      </c>
+      <c r="F12">
+        <v>48.8057073579214</v>
+      </c>
+      <c r="G12">
+        <v>194</v>
+      </c>
+      <c r="H12">
+        <v>61</v>
+      </c>
+      <c r="I12">
+        <v>255</v>
+      </c>
+      <c r="J12">
+        <v>255</v>
+      </c>
+      <c r="K12">
+        <v>255</v>
+      </c>
+      <c r="L12">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13">
+        <v>23458</v>
+      </c>
+      <c r="B13">
+        <v>234.58</v>
+      </c>
+      <c r="C13">
+        <v>255</v>
+      </c>
+      <c r="D13">
+        <v>255</v>
+      </c>
+      <c r="E13">
+        <v>3295.639999999993</v>
+      </c>
+      <c r="F13">
+        <v>57.40766499344833</v>
+      </c>
+      <c r="G13">
+        <v>204</v>
+      </c>
+      <c r="H13">
+        <v>51</v>
+      </c>
+      <c r="I13">
+        <v>255</v>
+      </c>
+      <c r="J13">
+        <v>255</v>
+      </c>
+      <c r="K13">
+        <v>255</v>
+      </c>
+      <c r="L13">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14">
+        <v>23139</v>
+      </c>
+      <c r="B14">
+        <v>231.39</v>
+      </c>
+      <c r="C14">
+        <v>255</v>
+      </c>
+      <c r="D14">
+        <v>255</v>
+      </c>
+      <c r="E14">
+        <v>4007.472626262613</v>
+      </c>
+      <c r="F14">
+        <v>63.30460193589889</v>
+      </c>
+      <c r="G14">
+        <v>221</v>
+      </c>
+      <c r="H14">
+        <v>34</v>
+      </c>
+      <c r="I14">
+        <v>255</v>
+      </c>
+      <c r="J14">
+        <v>255</v>
+      </c>
+      <c r="K14">
+        <v>255</v>
+      </c>
+      <c r="L14">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15">
+        <v>22946</v>
+      </c>
+      <c r="B15">
+        <v>229.46</v>
+      </c>
+      <c r="C15">
+        <v>255</v>
+      </c>
+      <c r="D15">
+        <v>255</v>
+      </c>
+      <c r="E15">
+        <v>4371.503434343433</v>
+      </c>
+      <c r="F15">
+        <v>66.11734594146556</v>
+      </c>
+      <c r="G15">
+        <v>219</v>
+      </c>
+      <c r="H15">
+        <v>36</v>
+      </c>
+      <c r="I15">
+        <v>255</v>
+      </c>
+      <c r="J15">
+        <v>255</v>
+      </c>
+      <c r="K15">
+        <v>255</v>
+      </c>
+      <c r="L15">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16">
+        <v>22766</v>
+      </c>
+      <c r="B16">
+        <v>227.66</v>
+      </c>
+      <c r="C16">
+        <v>255</v>
+      </c>
+      <c r="D16">
+        <v>255</v>
+      </c>
+      <c r="E16">
+        <v>4761.115555555559</v>
+      </c>
+      <c r="F16">
+        <v>69.00083735401736</v>
+      </c>
+      <c r="G16">
+        <v>224</v>
+      </c>
+      <c r="H16">
+        <v>31</v>
+      </c>
+      <c r="I16">
+        <v>255</v>
+      </c>
+      <c r="J16">
+        <v>255</v>
+      </c>
+      <c r="K16">
+        <v>255</v>
+      </c>
+      <c r="L16">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17">
+        <v>22642</v>
+      </c>
+      <c r="B17">
+        <v>226.42</v>
+      </c>
+      <c r="C17">
+        <v>255</v>
+      </c>
+      <c r="D17">
+        <v>255</v>
+      </c>
+      <c r="E17">
+        <v>4872.569292929298</v>
+      </c>
+      <c r="F17">
+        <v>69.80379139365782</v>
+      </c>
+      <c r="G17">
+        <v>226</v>
+      </c>
+      <c r="H17">
+        <v>29</v>
+      </c>
+      <c r="I17">
+        <v>255</v>
+      </c>
+      <c r="J17">
+        <v>255</v>
+      </c>
+      <c r="K17">
+        <v>255</v>
+      </c>
+      <c r="L17">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18">
+        <v>22505</v>
+      </c>
+      <c r="B18">
+        <v>225.05</v>
+      </c>
+      <c r="C18">
+        <v>255</v>
+      </c>
+      <c r="D18">
+        <v>255</v>
+      </c>
+      <c r="E18">
+        <v>5080.714646464648</v>
+      </c>
+      <c r="F18">
+        <v>71.2791319143594</v>
+      </c>
+      <c r="G18">
+        <v>238</v>
+      </c>
+      <c r="H18">
+        <v>17</v>
+      </c>
+      <c r="I18">
+        <v>255</v>
+      </c>
+      <c r="J18">
+        <v>253</v>
+      </c>
+      <c r="K18">
+        <v>255</v>
+      </c>
+      <c r="L18">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19">
+        <v>22220</v>
+      </c>
+      <c r="B19">
+        <v>222.2</v>
+      </c>
+      <c r="C19">
+        <v>255</v>
+      </c>
+      <c r="D19">
+        <v>255</v>
+      </c>
+      <c r="E19">
+        <v>5392.666666666672</v>
+      </c>
+      <c r="F19">
+        <v>73.43477831835997</v>
+      </c>
+      <c r="G19">
+        <v>232</v>
+      </c>
+      <c r="H19">
+        <v>23</v>
+      </c>
+      <c r="I19">
+        <v>255</v>
+      </c>
+      <c r="J19">
+        <v>250</v>
+      </c>
+      <c r="K19">
+        <v>255</v>
+      </c>
+      <c r="L19">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20">
+        <v>22278</v>
+      </c>
+      <c r="B20">
+        <v>222.78</v>
+      </c>
+      <c r="C20">
+        <v>255</v>
+      </c>
+      <c r="D20">
+        <v>255</v>
+      </c>
+      <c r="E20">
+        <v>5069.345050505043</v>
+      </c>
+      <c r="F20">
+        <v>71.1993332167166</v>
+      </c>
+      <c r="G20">
+        <v>220</v>
+      </c>
+      <c r="H20">
+        <v>35</v>
+      </c>
+      <c r="I20">
+        <v>255</v>
+      </c>
+      <c r="J20">
+        <v>251.5</v>
+      </c>
+      <c r="K20">
+        <v>255</v>
+      </c>
+      <c r="L20">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21">
+        <v>21928</v>
+      </c>
+      <c r="B21">
+        <v>219.28</v>
+      </c>
+      <c r="C21">
+        <v>255</v>
+      </c>
+      <c r="D21">
+        <v>255</v>
+      </c>
+      <c r="E21">
+        <v>5289.092525252537</v>
+      </c>
+      <c r="F21">
+        <v>72.72614746604233</v>
+      </c>
+      <c r="G21">
+        <v>223</v>
+      </c>
+      <c r="H21">
+        <v>32</v>
+      </c>
+      <c r="I21">
+        <v>255</v>
+      </c>
+      <c r="J21">
+        <v>248.75</v>
+      </c>
+      <c r="K21">
+        <v>255</v>
+      </c>
+      <c r="L21">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22">
+        <v>22234</v>
+      </c>
+      <c r="B22">
+        <v>222.34</v>
+      </c>
+      <c r="C22">
+        <v>255</v>
+      </c>
+      <c r="D22">
+        <v>255</v>
+      </c>
+      <c r="E22">
+        <v>5065.499393939402</v>
+      </c>
+      <c r="F22">
+        <v>71.17232182484565</v>
+      </c>
+      <c r="G22">
+        <v>241</v>
+      </c>
+      <c r="H22">
+        <v>14</v>
+      </c>
+      <c r="I22">
+        <v>255</v>
+      </c>
+      <c r="J22">
+        <v>252</v>
+      </c>
+      <c r="K22">
+        <v>255</v>
+      </c>
+      <c r="L22">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23">
+        <v>22704</v>
+      </c>
+      <c r="B23">
+        <v>227.04</v>
+      </c>
+      <c r="C23">
+        <v>255</v>
+      </c>
+      <c r="D23">
+        <v>255</v>
+      </c>
+      <c r="E23">
+        <v>4241.39232323233</v>
+      </c>
+      <c r="F23">
+        <v>65.12597272388591</v>
+      </c>
+      <c r="G23">
+        <v>229</v>
+      </c>
+      <c r="H23">
+        <v>26</v>
+      </c>
+      <c r="I23">
+        <v>255</v>
+      </c>
+      <c r="J23">
+        <v>251.75</v>
+      </c>
+      <c r="K23">
+        <v>255</v>
+      </c>
+      <c r="L23">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24">
+        <v>23171</v>
+      </c>
+      <c r="B24">
+        <v>231.71</v>
+      </c>
+      <c r="C24">
+        <v>255</v>
+      </c>
+      <c r="D24">
+        <v>255</v>
+      </c>
+      <c r="E24">
+        <v>3388.753434343434</v>
+      </c>
+      <c r="F24">
+        <v>58.21300056124434</v>
+      </c>
+      <c r="G24">
+        <v>226</v>
+      </c>
+      <c r="H24">
+        <v>29</v>
+      </c>
+      <c r="I24">
+        <v>255</v>
+      </c>
+      <c r="J24">
+        <v>248.75</v>
+      </c>
+      <c r="K24">
+        <v>255</v>
+      </c>
+      <c r="L24">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25">
+        <v>23614</v>
+      </c>
+      <c r="B25">
+        <v>236.14</v>
+      </c>
+      <c r="C25">
+        <v>255</v>
+      </c>
+      <c r="D25">
+        <v>255</v>
+      </c>
+      <c r="E25">
+        <v>2436.364040404039</v>
+      </c>
+      <c r="F25">
+        <v>49.35953849464193</v>
+      </c>
+      <c r="G25">
+        <v>218</v>
+      </c>
+      <c r="H25">
+        <v>37</v>
+      </c>
+      <c r="I25">
+        <v>255</v>
+      </c>
+      <c r="J25">
+        <v>245</v>
+      </c>
+      <c r="K25">
+        <v>255</v>
+      </c>
+      <c r="L25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26">
+        <v>24423</v>
+      </c>
+      <c r="B26">
+        <v>244.23</v>
+      </c>
+      <c r="C26">
+        <v>255</v>
+      </c>
+      <c r="D26">
+        <v>255</v>
+      </c>
+      <c r="E26">
+        <v>970.7243434343426</v>
+      </c>
+      <c r="F26">
+        <v>31.15644946771603</v>
+      </c>
+      <c r="G26">
+        <v>160</v>
+      </c>
+      <c r="H26">
+        <v>95</v>
+      </c>
+      <c r="I26">
+        <v>255</v>
+      </c>
+      <c r="J26">
+        <v>252</v>
+      </c>
+      <c r="K26">
+        <v>255</v>
+      </c>
+      <c r="L26">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27">
+        <v>24993</v>
+      </c>
+      <c r="B27">
+        <v>249.93</v>
+      </c>
+      <c r="C27">
+        <v>255</v>
+      </c>
+      <c r="D27">
+        <v>255</v>
+      </c>
+      <c r="E27">
+        <v>359.3788888888878</v>
+      </c>
+      <c r="F27">
+        <v>18.95729118014723</v>
+      </c>
+      <c r="G27">
+        <v>164</v>
+      </c>
+      <c r="H27">
+        <v>91</v>
+      </c>
+      <c r="I27">
+        <v>255</v>
+      </c>
+      <c r="J27">
+        <v>250</v>
+      </c>
+      <c r="K27">
+        <v>255</v>
+      </c>
+      <c r="L27">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28">
+        <v>24437</v>
+      </c>
+      <c r="B28">
+        <v>244.37</v>
+      </c>
+      <c r="C28">
+        <v>255</v>
+      </c>
+      <c r="D28">
+        <v>255</v>
+      </c>
+      <c r="E28">
+        <v>339.7910101010098</v>
+      </c>
+      <c r="F28">
+        <v>18.43342100916186</v>
+      </c>
+      <c r="G28">
+        <v>140</v>
+      </c>
+      <c r="H28">
+        <v>115</v>
+      </c>
+      <c r="I28">
+        <v>255</v>
+      </c>
+      <c r="J28">
+        <v>236.75</v>
+      </c>
+      <c r="K28">
+        <v>255</v>
+      </c>
+      <c r="L28">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29">
+        <v>24291</v>
+      </c>
+      <c r="B29">
+        <v>242.91</v>
+      </c>
+      <c r="C29">
+        <v>254</v>
+      </c>
+      <c r="D29">
+        <v>255</v>
+      </c>
+      <c r="E29">
+        <v>500.6685858585865</v>
+      </c>
+      <c r="F29">
+        <v>22.37562481493168</v>
+      </c>
+      <c r="G29">
+        <v>116</v>
+      </c>
+      <c r="H29">
+        <v>139</v>
+      </c>
+      <c r="I29">
+        <v>255</v>
+      </c>
+      <c r="J29">
+        <v>242.75</v>
+      </c>
+      <c r="K29">
+        <v>254</v>
+      </c>
+      <c r="L29">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30">
+        <v>24428</v>
+      </c>
+      <c r="B30">
+        <v>244.28</v>
+      </c>
+      <c r="C30">
+        <v>254</v>
+      </c>
+      <c r="D30">
+        <v>255</v>
+      </c>
+      <c r="E30">
+        <v>474.9511111111116</v>
+      </c>
+      <c r="F30">
+        <v>21.79337310081006</v>
+      </c>
+      <c r="G30">
+        <v>112</v>
+      </c>
+      <c r="H30">
+        <v>143</v>
+      </c>
+      <c r="I30">
+        <v>255</v>
+      </c>
+      <c r="J30">
+        <v>246</v>
+      </c>
+      <c r="K30">
+        <v>254</v>
+      </c>
+      <c r="L30">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31">
+        <v>24174</v>
+      </c>
+      <c r="B31">
+        <v>241.74</v>
+      </c>
+      <c r="C31">
+        <v>253</v>
+      </c>
+      <c r="D31">
+        <v>255</v>
+      </c>
+      <c r="E31">
+        <v>575.6084848484844</v>
+      </c>
+      <c r="F31">
+        <v>23.9918420478396</v>
+      </c>
+      <c r="G31">
+        <v>114</v>
+      </c>
+      <c r="H31">
+        <v>141</v>
+      </c>
+      <c r="I31">
+        <v>255</v>
+      </c>
+      <c r="J31">
+        <v>242</v>
+      </c>
+      <c r="K31">
+        <v>253</v>
+      </c>
+      <c r="L31">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32">
+        <v>24108</v>
+      </c>
+      <c r="B32">
+        <v>241.08</v>
+      </c>
+      <c r="C32">
+        <v>252.5</v>
+      </c>
+      <c r="D32">
+        <v>255</v>
+      </c>
+      <c r="E32">
+        <v>537.5288888888892</v>
+      </c>
+      <c r="F32">
+        <v>23.18466926416871</v>
+      </c>
+      <c r="G32">
+        <v>107</v>
+      </c>
+      <c r="H32">
+        <v>148</v>
+      </c>
+      <c r="I32">
+        <v>255</v>
+      </c>
+      <c r="J32">
+        <v>242</v>
+      </c>
+      <c r="K32">
+        <v>252.5</v>
+      </c>
+      <c r="L32">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33">
+        <v>24363</v>
+      </c>
+      <c r="B33">
+        <v>243.63</v>
+      </c>
+      <c r="C33">
+        <v>251</v>
+      </c>
+      <c r="D33">
+        <v>255</v>
+      </c>
+      <c r="E33">
+        <v>289.1041414141416</v>
+      </c>
+      <c r="F33">
+        <v>17.00306270688142</v>
+      </c>
+      <c r="G33">
+        <v>93</v>
+      </c>
+      <c r="H33">
+        <v>162</v>
+      </c>
+      <c r="I33">
+        <v>255</v>
+      </c>
+      <c r="J33">
+        <v>238</v>
+      </c>
+      <c r="K33">
+        <v>251</v>
+      </c>
+      <c r="L33">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34">
+        <v>24380</v>
+      </c>
+      <c r="B34">
+        <v>243.8</v>
+      </c>
+      <c r="C34">
+        <v>251</v>
+      </c>
+      <c r="D34">
+        <v>255</v>
+      </c>
+      <c r="E34">
+        <v>189.6565656565655</v>
+      </c>
+      <c r="F34">
+        <v>13.77158544455087</v>
+      </c>
+      <c r="G34">
+        <v>66</v>
+      </c>
+      <c r="H34">
+        <v>189</v>
+      </c>
+      <c r="I34">
+        <v>255</v>
+      </c>
+      <c r="J34">
+        <v>233</v>
+      </c>
+      <c r="K34">
+        <v>251</v>
+      </c>
+      <c r="L34">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35">
+        <v>24300</v>
+      </c>
+      <c r="B35">
+        <v>243</v>
+      </c>
+      <c r="C35">
+        <v>252.5</v>
+      </c>
+      <c r="D35">
+        <v>255</v>
+      </c>
+      <c r="E35">
+        <v>250.4848484848485</v>
+      </c>
+      <c r="F35">
+        <v>15.82671312954299</v>
+      </c>
+      <c r="G35">
+        <v>51</v>
+      </c>
+      <c r="H35">
+        <v>204</v>
+      </c>
+      <c r="I35">
+        <v>255</v>
+      </c>
+      <c r="J35">
+        <v>235.75</v>
+      </c>
+      <c r="K35">
+        <v>252.5</v>
+      </c>
+      <c r="L35">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36">
+        <v>23895</v>
+      </c>
+      <c r="B36">
+        <v>238.95</v>
+      </c>
+      <c r="C36">
+        <v>252</v>
+      </c>
+      <c r="D36">
+        <v>255</v>
+      </c>
+      <c r="E36">
+        <v>412.8156565656566</v>
+      </c>
+      <c r="F36">
+        <v>20.31786545298636</v>
+      </c>
+      <c r="G36">
+        <v>59</v>
+      </c>
+      <c r="H36">
+        <v>196</v>
+      </c>
+      <c r="I36">
+        <v>255</v>
+      </c>
+      <c r="J36">
+        <v>221.75</v>
+      </c>
+      <c r="K36">
+        <v>252</v>
+      </c>
+      <c r="L36">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37">
+        <v>23594</v>
+      </c>
+      <c r="B37">
+        <v>235.94</v>
+      </c>
+      <c r="C37">
+        <v>249.5</v>
+      </c>
+      <c r="D37">
+        <v>255</v>
+      </c>
+      <c r="E37">
+        <v>458.4206060606066</v>
+      </c>
+      <c r="F37">
+        <v>21.41075911920468</v>
+      </c>
+      <c r="G37">
+        <v>63</v>
+      </c>
+      <c r="H37">
+        <v>192</v>
+      </c>
+      <c r="I37">
+        <v>255</v>
+      </c>
+      <c r="J37">
+        <v>214.5</v>
+      </c>
+      <c r="K37">
+        <v>249.5</v>
+      </c>
+      <c r="L37">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38">
+        <v>23516</v>
+      </c>
+      <c r="B38">
+        <v>235.16</v>
+      </c>
+      <c r="C38">
+        <v>240.5</v>
+      </c>
+      <c r="D38">
+        <v>255</v>
+      </c>
+      <c r="E38">
+        <v>433.4286868686867</v>
+      </c>
+      <c r="F38">
+        <v>20.81895018651725</v>
+      </c>
+      <c r="G38">
+        <v>63</v>
+      </c>
+      <c r="H38">
+        <v>192</v>
+      </c>
+      <c r="I38">
+        <v>255</v>
+      </c>
+      <c r="J38">
+        <v>216</v>
+      </c>
+      <c r="K38">
+        <v>240.5</v>
+      </c>
+      <c r="L38">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39">
+        <v>23574</v>
+      </c>
+      <c r="B39">
+        <v>235.74</v>
+      </c>
+      <c r="C39">
+        <v>247</v>
+      </c>
+      <c r="D39">
+        <v>255</v>
+      </c>
+      <c r="E39">
+        <v>450.8408080808082</v>
+      </c>
+      <c r="F39">
+        <v>21.23301222344131</v>
+      </c>
+      <c r="G39">
+        <v>62</v>
+      </c>
+      <c r="H39">
+        <v>193</v>
+      </c>
+      <c r="I39">
+        <v>255</v>
+      </c>
+      <c r="J39">
+        <v>216.75</v>
+      </c>
+      <c r="K39">
+        <v>247</v>
+      </c>
+      <c r="L39">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40">
+        <v>23694</v>
+      </c>
+      <c r="B40">
+        <v>236.94</v>
+      </c>
+      <c r="C40">
+        <v>246</v>
+      </c>
+      <c r="D40">
+        <v>255</v>
+      </c>
+      <c r="E40">
+        <v>427.511515151515</v>
+      </c>
+      <c r="F40">
+        <v>20.67635159189152</v>
+      </c>
+      <c r="G40">
+        <v>72</v>
+      </c>
+      <c r="H40">
+        <v>183</v>
+      </c>
+      <c r="I40">
+        <v>255</v>
+      </c>
+      <c r="J40">
+        <v>220.5</v>
+      </c>
+      <c r="K40">
+        <v>246</v>
+      </c>
+      <c r="L40">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="A41">
+        <v>24013</v>
+      </c>
+      <c r="B41">
+        <v>240.13</v>
+      </c>
+      <c r="C41">
+        <v>252.5</v>
+      </c>
+      <c r="D41">
+        <v>255</v>
+      </c>
+      <c r="E41">
+        <v>451.5081818181816</v>
+      </c>
+      <c r="F41">
+        <v>21.24872188669666</v>
+      </c>
+      <c r="G41">
+        <v>78</v>
+      </c>
+      <c r="H41">
+        <v>177</v>
+      </c>
+      <c r="I41">
+        <v>255</v>
+      </c>
+      <c r="J41">
+        <v>232.75</v>
+      </c>
+      <c r="K41">
+        <v>252.5</v>
+      </c>
+      <c r="L41">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="A42">
+        <v>24007</v>
+      </c>
+      <c r="B42">
+        <v>240.07</v>
+      </c>
+      <c r="C42">
+        <v>252.5</v>
+      </c>
+      <c r="D42">
+        <v>255</v>
+      </c>
+      <c r="E42">
+        <v>501.378888888889</v>
+      </c>
+      <c r="F42">
+        <v>22.39149143958234</v>
+      </c>
+      <c r="G42">
+        <v>89</v>
+      </c>
+      <c r="H42">
+        <v>166</v>
+      </c>
+      <c r="I42">
+        <v>255</v>
+      </c>
+      <c r="J42">
+        <v>232.5</v>
+      </c>
+      <c r="K42">
+        <v>252.5</v>
+      </c>
+      <c r="L42">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="A43">
+        <v>24032</v>
+      </c>
+      <c r="B43">
+        <v>240.32</v>
+      </c>
+      <c r="C43">
+        <v>253</v>
+      </c>
+      <c r="D43">
+        <v>255</v>
+      </c>
+      <c r="E43">
+        <v>541.6743434343432</v>
+      </c>
+      <c r="F43">
+        <v>23.27389832912276</v>
+      </c>
+      <c r="G43">
+        <v>95</v>
+      </c>
+      <c r="H43">
+        <v>160</v>
+      </c>
+      <c r="I43">
+        <v>255</v>
+      </c>
+      <c r="J43">
+        <v>234.25</v>
+      </c>
+      <c r="K43">
+        <v>253</v>
+      </c>
+      <c r="L43">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="A44">
+        <v>23998</v>
+      </c>
+      <c r="B44">
+        <v>239.98</v>
+      </c>
+      <c r="C44">
+        <v>250.5</v>
+      </c>
+      <c r="D44">
+        <v>255</v>
+      </c>
+      <c r="E44">
+        <v>541.6157575757579</v>
+      </c>
+      <c r="F44">
+        <v>23.27263967786546</v>
+      </c>
+      <c r="G44">
+        <v>90</v>
+      </c>
+      <c r="H44">
+        <v>165</v>
+      </c>
+      <c r="I44">
+        <v>255</v>
+      </c>
+      <c r="J44">
+        <v>237.5</v>
+      </c>
+      <c r="K44">
+        <v>250.5</v>
+      </c>
+      <c r="L44">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="A45">
+        <v>24026</v>
+      </c>
+      <c r="B45">
+        <v>240.26</v>
+      </c>
+      <c r="C45">
+        <v>251.5</v>
+      </c>
+      <c r="D45">
+        <v>255</v>
+      </c>
+      <c r="E45">
+        <v>497.8509090909089</v>
+      </c>
+      <c r="F45">
+        <v>22.31257289267441</v>
+      </c>
+      <c r="G45">
+        <v>84</v>
+      </c>
+      <c r="H45">
+        <v>171</v>
+      </c>
+      <c r="I45">
+        <v>255</v>
+      </c>
+      <c r="J45">
+        <v>235.5</v>
+      </c>
+      <c r="K45">
+        <v>251.5</v>
+      </c>
+      <c r="L45">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
+      <c r="A46">
+        <v>24013</v>
+      </c>
+      <c r="B46">
+        <v>240.13</v>
+      </c>
+      <c r="C46">
+        <v>251.5</v>
+      </c>
+      <c r="D46">
+        <v>255</v>
+      </c>
+      <c r="E46">
+        <v>493.6900000000001</v>
+      </c>
+      <c r="F46">
+        <v>22.21913589678951</v>
+      </c>
+      <c r="G46">
+        <v>83</v>
+      </c>
+      <c r="H46">
+        <v>172</v>
+      </c>
+      <c r="I46">
+        <v>255</v>
+      </c>
+      <c r="J46">
+        <v>235.5</v>
+      </c>
+      <c r="K46">
+        <v>251.5</v>
+      </c>
+      <c r="L46">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="A47">
+        <v>23944</v>
+      </c>
+      <c r="B47">
+        <v>239.44</v>
+      </c>
+      <c r="C47">
+        <v>250</v>
+      </c>
+      <c r="D47">
+        <v>255</v>
+      </c>
+      <c r="E47">
+        <v>523.4004040404034</v>
+      </c>
+      <c r="F47">
+        <v>22.87794580027681</v>
+      </c>
+      <c r="G47">
+        <v>89</v>
+      </c>
+      <c r="H47">
+        <v>166</v>
+      </c>
+      <c r="I47">
+        <v>255</v>
+      </c>
+      <c r="J47">
+        <v>232.5</v>
+      </c>
+      <c r="K47">
+        <v>250</v>
+      </c>
+      <c r="L47">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
+      <c r="A48">
+        <v>23917</v>
+      </c>
+      <c r="B48">
+        <v>239.17</v>
+      </c>
+      <c r="C48">
+        <v>250.5</v>
+      </c>
+      <c r="D48">
+        <v>255</v>
+      </c>
+      <c r="E48">
+        <v>551.4960606060612</v>
+      </c>
+      <c r="F48">
+        <v>23.48395325761958</v>
+      </c>
+      <c r="G48">
+        <v>106</v>
+      </c>
+      <c r="H48">
+        <v>149</v>
+      </c>
+      <c r="I48">
+        <v>255</v>
+      </c>
+      <c r="J48">
+        <v>230.5</v>
+      </c>
+      <c r="K48">
+        <v>250.5</v>
+      </c>
+      <c r="L48">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
+      <c r="A49">
+        <v>23899</v>
+      </c>
+      <c r="B49">
+        <v>238.99</v>
+      </c>
+      <c r="C49">
+        <v>251.5</v>
+      </c>
+      <c r="D49">
+        <v>255</v>
+      </c>
+      <c r="E49">
+        <v>557.2423232323227</v>
+      </c>
+      <c r="F49">
+        <v>23.6059806666091</v>
+      </c>
+      <c r="G49">
+        <v>114</v>
+      </c>
+      <c r="H49">
+        <v>141</v>
+      </c>
+      <c r="I49">
+        <v>255</v>
+      </c>
+      <c r="J49">
+        <v>227.75</v>
+      </c>
+      <c r="K49">
+        <v>251.5</v>
+      </c>
+      <c r="L49">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
+      <c r="A50">
+        <v>23882</v>
+      </c>
+      <c r="B50">
+        <v>238.82</v>
+      </c>
+      <c r="C50">
+        <v>251.5</v>
+      </c>
+      <c r="D50">
+        <v>255</v>
+      </c>
+      <c r="E50">
+        <v>550.1086868686863</v>
+      </c>
+      <c r="F50">
+        <v>23.45439589647719</v>
+      </c>
+      <c r="G50">
+        <v>113</v>
+      </c>
+      <c r="H50">
+        <v>142</v>
+      </c>
+      <c r="I50">
+        <v>255</v>
+      </c>
+      <c r="J50">
+        <v>227.75</v>
+      </c>
+      <c r="K50">
+        <v>251.5</v>
+      </c>
+      <c r="L50">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
+      <c r="A51">
+        <v>23811</v>
+      </c>
+      <c r="B51">
+        <v>238.11</v>
+      </c>
+      <c r="C51">
+        <v>250</v>
+      </c>
+      <c r="D51">
+        <v>255</v>
+      </c>
+      <c r="E51">
+        <v>562.9473737373741</v>
+      </c>
+      <c r="F51">
+        <v>23.72651204322654</v>
+      </c>
+      <c r="G51">
+        <v>114</v>
+      </c>
+      <c r="H51">
+        <v>141</v>
+      </c>
+      <c r="I51">
+        <v>255</v>
+      </c>
+      <c r="J51">
+        <v>227.5</v>
+      </c>
+      <c r="K51">
+        <v>250</v>
+      </c>
+      <c r="L51">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
+      <c r="A52">
+        <v>23679</v>
+      </c>
+      <c r="B52">
+        <v>236.79</v>
+      </c>
+      <c r="C52">
+        <v>248.5</v>
+      </c>
+      <c r="D52">
+        <v>255</v>
+      </c>
+      <c r="E52">
+        <v>575.7231313131308</v>
+      </c>
+      <c r="F52">
+        <v>23.99423120904545</v>
+      </c>
+      <c r="G52">
+        <v>107</v>
+      </c>
+      <c r="H52">
+        <v>148</v>
+      </c>
+      <c r="I52">
+        <v>255</v>
+      </c>
+      <c r="J52">
+        <v>225.75</v>
+      </c>
+      <c r="K52">
+        <v>248.5</v>
+      </c>
+      <c r="L52">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
+      <c r="A53">
+        <v>23458</v>
+      </c>
+      <c r="B53">
+        <v>234.58</v>
+      </c>
+      <c r="C53">
+        <v>242.5</v>
+      </c>
+      <c r="D53">
+        <v>255</v>
+      </c>
+      <c r="E53">
+        <v>584.1450505050504</v>
+      </c>
+      <c r="F53">
+        <v>24.16909287716546</v>
+      </c>
+      <c r="G53">
+        <v>98</v>
+      </c>
+      <c r="H53">
+        <v>157</v>
+      </c>
+      <c r="I53">
+        <v>255</v>
+      </c>
+      <c r="J53">
+        <v>221.75</v>
+      </c>
+      <c r="K53">
+        <v>242.5</v>
+      </c>
+      <c r="L53">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
+      <c r="A54">
+        <v>23255</v>
+      </c>
+      <c r="B54">
+        <v>232.55</v>
+      </c>
+      <c r="C54">
+        <v>237.5</v>
+      </c>
+      <c r="D54">
+        <v>255</v>
+      </c>
+      <c r="E54">
+        <v>604.876262626263</v>
+      </c>
+      <c r="F54">
+        <v>24.59423230406395</v>
+      </c>
+      <c r="G54">
+        <v>93</v>
+      </c>
+      <c r="H54">
+        <v>162</v>
+      </c>
+      <c r="I54">
+        <v>255</v>
+      </c>
+      <c r="J54">
+        <v>218</v>
+      </c>
+      <c r="K54">
+        <v>237.5</v>
+      </c>
+      <c r="L54">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
+      <c r="A55">
+        <v>23156</v>
+      </c>
+      <c r="B55">
+        <v>231.56</v>
+      </c>
+      <c r="C55">
+        <v>236.5</v>
+      </c>
+      <c r="D55">
+        <v>255</v>
+      </c>
+      <c r="E55">
+        <v>634.3498989898983</v>
+      </c>
+      <c r="F55">
+        <v>25.18630379769724</v>
+      </c>
+      <c r="G55">
+        <v>89</v>
+      </c>
+      <c r="H55">
+        <v>166</v>
+      </c>
+      <c r="I55">
+        <v>255</v>
+      </c>
+      <c r="J55">
+        <v>216</v>
+      </c>
+      <c r="K55">
+        <v>236.5</v>
+      </c>
+      <c r="L55">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
+      <c r="A56">
+        <v>23038</v>
+      </c>
+      <c r="B56">
+        <v>230.38</v>
+      </c>
+      <c r="C56">
+        <v>236.5</v>
+      </c>
+      <c r="D56">
+        <v>255</v>
+      </c>
+      <c r="E56">
+        <v>705.3288888888882</v>
+      </c>
+      <c r="F56">
+        <v>26.5580287086389</v>
+      </c>
+      <c r="G56">
+        <v>97</v>
+      </c>
+      <c r="H56">
+        <v>158</v>
+      </c>
+      <c r="I56">
+        <v>255</v>
+      </c>
+      <c r="J56">
+        <v>212.5</v>
+      </c>
+      <c r="K56">
+        <v>236.5</v>
+      </c>
+      <c r="L56">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
+      <c r="A57">
+        <v>23079</v>
+      </c>
+      <c r="B57">
+        <v>230.79</v>
+      </c>
+      <c r="C57">
+        <v>234.5</v>
+      </c>
+      <c r="D57">
+        <v>255</v>
+      </c>
+      <c r="E57">
+        <v>667.9251515151515</v>
+      </c>
+      <c r="F57">
+        <v>25.84424793866425</v>
+      </c>
+      <c r="G57">
+        <v>88</v>
+      </c>
+      <c r="H57">
+        <v>167</v>
+      </c>
+      <c r="I57">
+        <v>255</v>
+      </c>
+      <c r="J57">
+        <v>213.75</v>
+      </c>
+      <c r="K57">
+        <v>234.5</v>
+      </c>
+      <c r="L57">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
+      <c r="A58">
+        <v>23079</v>
+      </c>
+      <c r="B58">
+        <v>230.79</v>
+      </c>
+      <c r="C58">
+        <v>235</v>
+      </c>
+      <c r="D58">
+        <v>255</v>
+      </c>
+      <c r="E58">
+        <v>667.2988888888889</v>
+      </c>
+      <c r="F58">
+        <v>25.83212900418564</v>
+      </c>
+      <c r="G58">
+        <v>93</v>
+      </c>
+      <c r="H58">
+        <v>162</v>
+      </c>
+      <c r="I58">
+        <v>255</v>
+      </c>
+      <c r="J58">
+        <v>211.75</v>
+      </c>
+      <c r="K58">
+        <v>235</v>
+      </c>
+      <c r="L58">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
+      <c r="A59">
+        <v>22971</v>
+      </c>
+      <c r="B59">
+        <v>229.71</v>
+      </c>
+      <c r="C59">
+        <v>233.5</v>
+      </c>
+      <c r="D59">
+        <v>255</v>
+      </c>
+      <c r="E59">
+        <v>718.1877777777781</v>
+      </c>
+      <c r="F59">
+        <v>26.79902568709874</v>
+      </c>
+      <c r="G59">
+        <v>107</v>
+      </c>
+      <c r="H59">
+        <v>148</v>
+      </c>
+      <c r="I59">
+        <v>255</v>
+      </c>
+      <c r="J59">
+        <v>210.75</v>
+      </c>
+      <c r="K59">
+        <v>233.5</v>
+      </c>
+      <c r="L59">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
+      <c r="A60">
+        <v>22816</v>
+      </c>
+      <c r="B60">
+        <v>228.16</v>
+      </c>
+      <c r="C60">
+        <v>231</v>
+      </c>
+      <c r="D60">
+        <v>255</v>
+      </c>
+      <c r="E60">
+        <v>796.8024242424233</v>
+      </c>
+      <c r="F60">
+        <v>28.22768896389542</v>
+      </c>
+      <c r="G60">
+        <v>112</v>
+      </c>
+      <c r="H60">
+        <v>143</v>
+      </c>
+      <c r="I60">
+        <v>255</v>
+      </c>
+      <c r="J60">
+        <v>208</v>
+      </c>
+      <c r="K60">
+        <v>231</v>
+      </c>
+      <c r="L60">
+        <v>253.25</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
+      <c r="A61">
+        <v>22564</v>
+      </c>
+      <c r="B61">
+        <v>225.64</v>
+      </c>
+      <c r="C61">
+        <v>229</v>
+      </c>
+      <c r="D61">
+        <v>255</v>
+      </c>
+      <c r="E61">
+        <v>963.2832323232328</v>
+      </c>
+      <c r="F61">
+        <v>31.03680447989504</v>
+      </c>
+      <c r="G61">
+        <v>121</v>
+      </c>
+      <c r="H61">
+        <v>134</v>
+      </c>
+      <c r="I61">
+        <v>255</v>
+      </c>
+      <c r="J61">
+        <v>206.5</v>
+      </c>
+      <c r="K61">
+        <v>229</v>
+      </c>
+      <c r="L61">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12">
+      <c r="A62">
+        <v>22104</v>
+      </c>
+      <c r="B62">
+        <v>221.04</v>
+      </c>
+      <c r="C62">
+        <v>228.5</v>
+      </c>
+      <c r="D62">
+        <v>255</v>
+      </c>
+      <c r="E62">
+        <v>1070.786262626263</v>
+      </c>
+      <c r="F62">
+        <v>32.72287063547853</v>
+      </c>
+      <c r="G62">
+        <v>117</v>
+      </c>
+      <c r="H62">
+        <v>138</v>
+      </c>
+      <c r="I62">
+        <v>255</v>
+      </c>
+      <c r="J62">
+        <v>199.75</v>
+      </c>
+      <c r="K62">
+        <v>228.5</v>
+      </c>
+      <c r="L62">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12">
+      <c r="A63">
+        <v>19752</v>
+      </c>
+      <c r="B63">
+        <v>197.52</v>
+      </c>
+      <c r="C63">
+        <v>203</v>
+      </c>
+      <c r="D63">
+        <v>255</v>
+      </c>
+      <c r="E63">
+        <v>2100.817777777778</v>
+      </c>
+      <c r="F63">
+        <v>45.83467876813121</v>
+      </c>
+      <c r="G63">
+        <v>150</v>
+      </c>
+      <c r="H63">
+        <v>105</v>
+      </c>
+      <c r="I63">
+        <v>255</v>
+      </c>
+      <c r="J63">
+        <v>162</v>
+      </c>
+      <c r="K63">
+        <v>203</v>
+      </c>
+      <c r="L63">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12">
+      <c r="A64">
+        <v>19112</v>
+      </c>
+      <c r="B64">
+        <v>191.12</v>
+      </c>
+      <c r="C64">
+        <v>201</v>
+      </c>
+      <c r="D64">
+        <v>255</v>
+      </c>
+      <c r="E64">
+        <v>2854.308686868686</v>
+      </c>
+      <c r="F64">
+        <v>53.42573056934913</v>
+      </c>
+      <c r="G64">
+        <v>186</v>
+      </c>
+      <c r="H64">
+        <v>69</v>
+      </c>
+      <c r="I64">
+        <v>255</v>
+      </c>
+      <c r="J64">
+        <v>147.75</v>
+      </c>
+      <c r="K64">
+        <v>201</v>
+      </c>
+      <c r="L64">
+        <v>232.25</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12">
+      <c r="A65">
+        <v>19120</v>
+      </c>
+      <c r="B65">
+        <v>191.2</v>
+      </c>
+      <c r="C65">
+        <v>200</v>
+      </c>
+      <c r="D65">
+        <v>255</v>
+      </c>
+      <c r="E65">
+        <v>2802.363636363636</v>
+      </c>
+      <c r="F65">
+        <v>52.93735577419442</v>
+      </c>
+      <c r="G65">
+        <v>188</v>
+      </c>
+      <c r="H65">
+        <v>67</v>
+      </c>
+      <c r="I65">
+        <v>255</v>
+      </c>
+      <c r="J65">
+        <v>149</v>
+      </c>
+      <c r="K65">
+        <v>200</v>
+      </c>
+      <c r="L65">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12">
+      <c r="A66">
+        <v>20164</v>
+      </c>
+      <c r="B66">
+        <v>201.64</v>
+      </c>
+      <c r="C66">
+        <v>207</v>
+      </c>
+      <c r="D66">
+        <v>255</v>
+      </c>
+      <c r="E66">
+        <v>1822.75797979798</v>
+      </c>
+      <c r="F66">
+        <v>42.69376980073299</v>
+      </c>
+      <c r="G66">
+        <v>174</v>
+      </c>
+      <c r="H66">
+        <v>81</v>
+      </c>
+      <c r="I66">
+        <v>255</v>
+      </c>
+      <c r="J66">
+        <v>166</v>
+      </c>
+      <c r="K66">
+        <v>207</v>
+      </c>
+      <c r="L66">
+        <v>240.25</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12">
+      <c r="A67">
+        <v>19746</v>
+      </c>
+      <c r="B67">
+        <v>197.46</v>
+      </c>
+      <c r="C67">
+        <v>207</v>
+      </c>
+      <c r="D67">
+        <v>255</v>
+      </c>
+      <c r="E67">
+        <v>2091.200404040404</v>
+      </c>
+      <c r="F67">
+        <v>45.72964469619684</v>
+      </c>
+      <c r="G67">
+        <v>172</v>
+      </c>
+      <c r="H67">
+        <v>83</v>
+      </c>
+      <c r="I67">
+        <v>255</v>
+      </c>
+      <c r="J67">
+        <v>159.25</v>
+      </c>
+      <c r="K67">
+        <v>207</v>
+      </c>
+      <c r="L67">
+        <v>238.5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12">
+      <c r="A68">
+        <v>19276</v>
+      </c>
+      <c r="B68">
+        <v>192.76</v>
+      </c>
+      <c r="C68">
+        <v>203.5</v>
+      </c>
+      <c r="D68">
+        <v>255</v>
+      </c>
+      <c r="E68">
+        <v>2742.487272727273</v>
+      </c>
+      <c r="F68">
+        <v>52.36876237536336</v>
+      </c>
+      <c r="G68">
+        <v>218</v>
+      </c>
+      <c r="H68">
+        <v>37</v>
+      </c>
+      <c r="I68">
+        <v>255</v>
+      </c>
+      <c r="J68">
+        <v>155.75</v>
+      </c>
+      <c r="K68">
+        <v>203.5</v>
+      </c>
+      <c r="L68">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12">
+      <c r="A69">
+        <v>18817</v>
+      </c>
+      <c r="B69">
+        <v>188.17</v>
+      </c>
+      <c r="C69">
+        <v>196</v>
+      </c>
+      <c r="D69">
+        <v>255</v>
+      </c>
+      <c r="E69">
+        <v>3056.708181818181</v>
+      </c>
+      <c r="F69">
+        <v>55.28750475304687</v>
+      </c>
+      <c r="G69">
+        <v>201</v>
+      </c>
+      <c r="H69">
+        <v>54</v>
+      </c>
+      <c r="I69">
+        <v>255</v>
+      </c>
+      <c r="J69">
+        <v>150.75</v>
+      </c>
+      <c r="K69">
+        <v>196</v>
+      </c>
+      <c r="L69">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12">
+      <c r="A70">
+        <v>19208</v>
+      </c>
+      <c r="B70">
+        <v>192.08</v>
+      </c>
+      <c r="C70">
+        <v>194.5</v>
+      </c>
+      <c r="D70">
+        <v>255</v>
+      </c>
+      <c r="E70">
+        <v>2629.549090909091</v>
+      </c>
+      <c r="F70">
+        <v>51.27912919413795</v>
+      </c>
+      <c r="G70">
+        <v>213</v>
+      </c>
+      <c r="H70">
+        <v>42</v>
+      </c>
+      <c r="I70">
+        <v>255</v>
+      </c>
+      <c r="J70">
+        <v>158.5</v>
+      </c>
+      <c r="K70">
+        <v>194.5</v>
+      </c>
+      <c r="L70">
+        <v>247.75</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12">
+      <c r="A71">
+        <v>20326</v>
+      </c>
+      <c r="B71">
+        <v>203.26</v>
+      </c>
+      <c r="C71">
+        <v>206.5</v>
+      </c>
+      <c r="D71">
+        <v>255</v>
+      </c>
+      <c r="E71">
+        <v>1652.982222222223</v>
+      </c>
+      <c r="F71">
+        <v>40.65688406927199</v>
+      </c>
+      <c r="G71">
+        <v>183</v>
+      </c>
+      <c r="H71">
+        <v>72</v>
+      </c>
+      <c r="I71">
+        <v>255</v>
+      </c>
+      <c r="J71">
+        <v>174.5</v>
+      </c>
+      <c r="K71">
+        <v>206.5</v>
+      </c>
+      <c r="L71">
+        <v>245.5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12">
+      <c r="A72">
+        <v>19173</v>
+      </c>
+      <c r="B72">
+        <v>191.73</v>
+      </c>
+      <c r="C72">
+        <v>198</v>
+      </c>
+      <c r="D72">
+        <v>255</v>
+      </c>
+      <c r="E72">
+        <v>2677.613232323233</v>
+      </c>
+      <c r="F72">
+        <v>51.74565906743514</v>
+      </c>
+      <c r="G72">
+        <v>198</v>
+      </c>
+      <c r="H72">
+        <v>57</v>
+      </c>
+      <c r="I72">
+        <v>255</v>
+      </c>
+      <c r="J72">
+        <v>152.75</v>
+      </c>
+      <c r="K72">
+        <v>198</v>
+      </c>
+      <c r="L72">
+        <v>247.25</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12">
+      <c r="A73">
+        <v>19107</v>
+      </c>
+      <c r="B73">
+        <v>191.07</v>
+      </c>
+      <c r="C73">
+        <v>195</v>
+      </c>
+      <c r="D73">
+        <v>255</v>
+      </c>
+      <c r="E73">
+        <v>2666.833434343434</v>
+      </c>
+      <c r="F73">
+        <v>51.64139264527473</v>
+      </c>
+      <c r="G73">
+        <v>191</v>
+      </c>
+      <c r="H73">
+        <v>64</v>
+      </c>
+      <c r="I73">
+        <v>255</v>
+      </c>
+      <c r="J73">
+        <v>151.75</v>
+      </c>
+      <c r="K73">
+        <v>195</v>
+      </c>
+      <c r="L73">
+        <v>250.25</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12">
+      <c r="A74">
+        <v>20969</v>
+      </c>
+      <c r="B74">
+        <v>209.69</v>
+      </c>
+      <c r="C74">
+        <v>209</v>
+      </c>
+      <c r="D74">
+        <v>255</v>
+      </c>
+      <c r="E74">
+        <v>1302.397878787879</v>
+      </c>
+      <c r="F74">
+        <v>36.08875003083204</v>
+      </c>
+      <c r="G74">
+        <v>142</v>
+      </c>
+      <c r="H74">
+        <v>113</v>
+      </c>
+      <c r="I74">
+        <v>255</v>
+      </c>
+      <c r="J74">
+        <v>196.75</v>
+      </c>
+      <c r="K74">
+        <v>209</v>
+      </c>
+      <c r="L74">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12">
+      <c r="A75">
+        <v>22614</v>
+      </c>
+      <c r="B75">
+        <v>226.14</v>
+      </c>
+      <c r="C75">
+        <v>251.5</v>
+      </c>
+      <c r="D75">
+        <v>255</v>
+      </c>
+      <c r="E75">
+        <v>1065.293333333334</v>
+      </c>
+      <c r="F75">
+        <v>32.63883167843687</v>
+      </c>
+      <c r="G75">
+        <v>111</v>
+      </c>
+      <c r="H75">
+        <v>144</v>
+      </c>
+      <c r="I75">
+        <v>255</v>
+      </c>
+      <c r="J75">
+        <v>197.5</v>
+      </c>
+      <c r="K75">
+        <v>251.5</v>
+      </c>
+      <c r="L75">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12">
+      <c r="A76">
+        <v>22784</v>
+      </c>
+      <c r="B76">
+        <v>227.84</v>
+      </c>
+      <c r="C76">
+        <v>251</v>
+      </c>
+      <c r="D76">
+        <v>255</v>
+      </c>
+      <c r="E76">
+        <v>920.4589898989886</v>
+      </c>
+      <c r="F76">
+        <v>30.33906705716227</v>
+      </c>
+      <c r="G76">
+        <v>106</v>
+      </c>
+      <c r="H76">
+        <v>149</v>
+      </c>
+      <c r="I76">
+        <v>255</v>
+      </c>
+      <c r="J76">
+        <v>199.75</v>
+      </c>
+      <c r="K76">
+        <v>251</v>
+      </c>
+      <c r="L76">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12">
+      <c r="A77">
+        <v>22834</v>
+      </c>
+      <c r="B77">
+        <v>228.34</v>
+      </c>
+      <c r="C77">
+        <v>252</v>
+      </c>
+      <c r="D77">
+        <v>255</v>
+      </c>
+      <c r="E77">
+        <v>944.7721212121219</v>
+      </c>
+      <c r="F77">
+        <v>30.73714562564523</v>
+      </c>
+      <c r="G77">
+        <v>97</v>
+      </c>
+      <c r="H77">
+        <v>158</v>
+      </c>
+      <c r="I77">
+        <v>255</v>
+      </c>
+      <c r="J77">
+        <v>202.75</v>
+      </c>
+      <c r="K77">
+        <v>252</v>
+      </c>
+      <c r="L77">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12">
+      <c r="A78">
+        <v>22818</v>
+      </c>
+      <c r="B78">
+        <v>228.18</v>
+      </c>
+      <c r="C78">
+        <v>255</v>
+      </c>
+      <c r="D78">
+        <v>255</v>
+      </c>
+      <c r="E78">
+        <v>1023.037979797978</v>
+      </c>
+      <c r="F78">
+        <v>31.98496490224709</v>
+      </c>
+      <c r="G78">
+        <v>101</v>
+      </c>
+      <c r="H78">
+        <v>154</v>
+      </c>
+      <c r="I78">
+        <v>255</v>
+      </c>
+      <c r="J78">
+        <v>197</v>
+      </c>
+      <c r="K78">
+        <v>255</v>
+      </c>
+      <c r="L78">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12">
+      <c r="A79">
+        <v>22784</v>
+      </c>
+      <c r="B79">
+        <v>227.84</v>
+      </c>
+      <c r="C79">
+        <v>255</v>
+      </c>
+      <c r="D79">
+        <v>255</v>
+      </c>
+      <c r="E79">
+        <v>1115.145858585857</v>
+      </c>
+      <c r="F79">
+        <v>33.3937997027271</v>
+      </c>
+      <c r="G79">
+        <v>93</v>
+      </c>
+      <c r="H79">
+        <v>162</v>
+      </c>
+      <c r="I79">
+        <v>255</v>
+      </c>
+      <c r="J79">
+        <v>193</v>
+      </c>
+      <c r="K79">
+        <v>255</v>
+      </c>
+      <c r="L79">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12">
+      <c r="A80">
+        <v>22792</v>
+      </c>
+      <c r="B80">
+        <v>227.92</v>
+      </c>
+      <c r="C80">
+        <v>255</v>
+      </c>
+      <c r="D80">
+        <v>255</v>
+      </c>
+      <c r="E80">
+        <v>1139.488484848486</v>
+      </c>
+      <c r="F80">
+        <v>33.75631029672061</v>
+      </c>
+      <c r="G80">
+        <v>92</v>
+      </c>
+      <c r="H80">
+        <v>163</v>
+      </c>
+      <c r="I80">
+        <v>255</v>
+      </c>
+      <c r="J80">
+        <v>194.75</v>
+      </c>
+      <c r="K80">
+        <v>255</v>
+      </c>
+      <c r="L80">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12">
+      <c r="A81">
+        <v>22842</v>
+      </c>
+      <c r="B81">
+        <v>228.42</v>
+      </c>
+      <c r="C81">
+        <v>255</v>
+      </c>
+      <c r="D81">
+        <v>255</v>
+      </c>
+      <c r="E81">
+        <v>1144.448080808081</v>
+      </c>
+      <c r="F81">
+        <v>33.82969229549807</v>
+      </c>
+      <c r="G81">
+        <v>96</v>
+      </c>
+      <c r="H81">
+        <v>159</v>
+      </c>
+      <c r="I81">
+        <v>255</v>
+      </c>
+      <c r="J81">
+        <v>192</v>
+      </c>
+      <c r="K81">
+        <v>255</v>
+      </c>
+      <c r="L81">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12">
+      <c r="A82">
+        <v>22820</v>
+      </c>
+      <c r="B82">
+        <v>228.2</v>
+      </c>
+      <c r="C82">
+        <v>255</v>
+      </c>
+      <c r="D82">
+        <v>255</v>
+      </c>
+      <c r="E82">
+        <v>1180.929292929294</v>
+      </c>
+      <c r="F82">
+        <v>34.36465179409351</v>
+      </c>
+      <c r="G82">
+        <v>98</v>
+      </c>
+      <c r="H82">
+        <v>157</v>
+      </c>
+      <c r="I82">
+        <v>255</v>
+      </c>
+      <c r="J82">
+        <v>188.75</v>
+      </c>
+      <c r="K82">
+        <v>255</v>
+      </c>
+      <c r="L82">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12">
+      <c r="A83">
+        <v>22858</v>
+      </c>
+      <c r="B83">
+        <v>228.58</v>
+      </c>
+      <c r="C83">
+        <v>255</v>
+      </c>
+      <c r="D83">
+        <v>255</v>
+      </c>
+      <c r="E83">
+        <v>1272.831919191917</v>
+      </c>
+      <c r="F83">
+        <v>35.67677002184919</v>
+      </c>
+      <c r="G83">
+        <v>98</v>
+      </c>
+      <c r="H83">
+        <v>157</v>
+      </c>
+      <c r="I83">
+        <v>255</v>
+      </c>
+      <c r="J83">
+        <v>185.75</v>
+      </c>
+      <c r="K83">
+        <v>255</v>
+      </c>
+      <c r="L83">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12">
+      <c r="A84">
+        <v>22826</v>
+      </c>
+      <c r="B84">
+        <v>228.26</v>
+      </c>
+      <c r="C84">
+        <v>255</v>
+      </c>
+      <c r="D84">
+        <v>255</v>
+      </c>
+      <c r="E84">
+        <v>1357.85090909091</v>
+      </c>
+      <c r="F84">
+        <v>36.84902860444098</v>
+      </c>
+      <c r="G84">
+        <v>103</v>
+      </c>
+      <c r="H84">
+        <v>152</v>
+      </c>
+      <c r="I84">
+        <v>255</v>
+      </c>
+      <c r="J84">
+        <v>183</v>
+      </c>
+      <c r="K84">
+        <v>255</v>
+      </c>
+      <c r="L84">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12">
+      <c r="A85">
+        <v>22782</v>
+      </c>
+      <c r="B85">
+        <v>227.82</v>
+      </c>
+      <c r="C85">
+        <v>255</v>
+      </c>
+      <c r="D85">
+        <v>255</v>
+      </c>
+      <c r="E85">
+        <v>1531.644040404039</v>
+      </c>
+      <c r="F85">
+        <v>39.13622414597555</v>
+      </c>
+      <c r="G85">
+        <v>113</v>
+      </c>
+      <c r="H85">
+        <v>142</v>
+      </c>
+      <c r="I85">
+        <v>255</v>
+      </c>
+      <c r="J85">
+        <v>178</v>
+      </c>
+      <c r="K85">
+        <v>255</v>
+      </c>
+      <c r="L85">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12">
+      <c r="A86">
+        <v>22814</v>
+      </c>
+      <c r="B86">
+        <v>228.14</v>
+      </c>
+      <c r="C86">
+        <v>255</v>
+      </c>
+      <c r="D86">
+        <v>255</v>
+      </c>
+      <c r="E86">
+        <v>1640.889292929293</v>
+      </c>
+      <c r="F86">
+        <v>40.50789173641715</v>
+      </c>
+      <c r="G86">
+        <v>109</v>
+      </c>
+      <c r="H86">
+        <v>146</v>
+      </c>
+      <c r="I86">
+        <v>255</v>
+      </c>
+      <c r="J86">
+        <v>175</v>
+      </c>
+      <c r="K86">
+        <v>255</v>
+      </c>
+      <c r="L86">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12">
+      <c r="A87">
+        <v>22732</v>
+      </c>
+      <c r="B87">
+        <v>227.32</v>
+      </c>
+      <c r="C87">
+        <v>255</v>
+      </c>
+      <c r="D87">
+        <v>255</v>
+      </c>
+      <c r="E87">
+        <v>1761.755151515149</v>
+      </c>
+      <c r="F87">
+        <v>41.97326710556553</v>
+      </c>
+      <c r="G87">
+        <v>123</v>
+      </c>
+      <c r="H87">
+        <v>132</v>
+      </c>
+      <c r="I87">
+        <v>255</v>
+      </c>
+      <c r="J87">
+        <v>174.75</v>
+      </c>
+      <c r="K87">
+        <v>255</v>
+      </c>
+      <c r="L87">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12">
+      <c r="A88">
+        <v>22220</v>
+      </c>
+      <c r="B88">
+        <v>222.2</v>
+      </c>
+      <c r="C88">
+        <v>255</v>
+      </c>
+      <c r="D88">
+        <v>255</v>
+      </c>
+      <c r="E88">
+        <v>2293.636363636362</v>
+      </c>
+      <c r="F88">
+        <v>47.89192378299666</v>
+      </c>
+      <c r="G88">
+        <v>139</v>
+      </c>
+      <c r="H88">
+        <v>116</v>
+      </c>
+      <c r="I88">
+        <v>255</v>
+      </c>
+      <c r="J88">
+        <v>184.5</v>
+      </c>
+      <c r="K88">
+        <v>255</v>
+      </c>
+      <c r="L88">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12">
+      <c r="A89">
+        <v>21821</v>
+      </c>
+      <c r="B89">
+        <v>218.21</v>
+      </c>
+      <c r="C89">
+        <v>255</v>
+      </c>
+      <c r="D89">
+        <v>255</v>
+      </c>
+      <c r="E89">
+        <v>2976.753434343439</v>
+      </c>
+      <c r="F89">
+        <v>54.55963191172975</v>
+      </c>
+      <c r="G89">
+        <v>167</v>
+      </c>
+      <c r="H89">
+        <v>88</v>
+      </c>
+      <c r="I89">
+        <v>255</v>
+      </c>
+      <c r="J89">
+        <v>185.75</v>
+      </c>
+      <c r="K89">
+        <v>255</v>
+      </c>
+      <c r="L89">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12">
+      <c r="A90">
+        <v>21988</v>
+      </c>
+      <c r="B90">
+        <v>219.88</v>
+      </c>
+      <c r="C90">
+        <v>255</v>
+      </c>
+      <c r="D90">
+        <v>255</v>
+      </c>
+      <c r="E90">
+        <v>2672.389494949496</v>
+      </c>
+      <c r="F90">
+        <v>51.69515929900493</v>
+      </c>
+      <c r="G90">
+        <v>146</v>
+      </c>
+      <c r="H90">
+        <v>109</v>
+      </c>
+      <c r="I90">
+        <v>255</v>
+      </c>
+      <c r="J90">
+        <v>194.75</v>
+      </c>
+      <c r="K90">
+        <v>255</v>
+      </c>
+      <c r="L90">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12">
+      <c r="A91">
+        <v>22511</v>
+      </c>
+      <c r="B91">
+        <v>225.11</v>
+      </c>
+      <c r="C91">
+        <v>255</v>
+      </c>
+      <c r="D91">
+        <v>255</v>
+      </c>
+      <c r="E91">
+        <v>1936.199898989895</v>
+      </c>
+      <c r="F91">
+        <v>44.00227152079646</v>
+      </c>
+      <c r="G91">
+        <v>123</v>
+      </c>
+      <c r="H91">
+        <v>132</v>
+      </c>
+      <c r="I91">
+        <v>255</v>
+      </c>
+      <c r="J91">
+        <v>196.5</v>
+      </c>
+      <c r="K91">
+        <v>255</v>
+      </c>
+      <c r="L91">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12">
+      <c r="A92">
+        <v>23224</v>
+      </c>
+      <c r="B92">
+        <v>232.24</v>
+      </c>
+      <c r="C92">
+        <v>255</v>
+      </c>
+      <c r="D92">
+        <v>255</v>
+      </c>
+      <c r="E92">
+        <v>1181.376161616163</v>
+      </c>
+      <c r="F92">
+        <v>34.37115304461233</v>
+      </c>
+      <c r="G92">
+        <v>99</v>
+      </c>
+      <c r="H92">
+        <v>156</v>
+      </c>
+      <c r="I92">
+        <v>255</v>
+      </c>
+      <c r="J92">
+        <v>207.5</v>
+      </c>
+      <c r="K92">
+        <v>255</v>
+      </c>
+      <c r="L92">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12">
+      <c r="A93">
+        <v>23981</v>
+      </c>
+      <c r="B93">
+        <v>239.81</v>
+      </c>
+      <c r="C93">
+        <v>255</v>
+      </c>
+      <c r="D93">
+        <v>255</v>
+      </c>
+      <c r="E93">
+        <v>525.125151515152</v>
+      </c>
+      <c r="F93">
+        <v>22.91560934199988</v>
+      </c>
+      <c r="G93">
+        <v>63</v>
+      </c>
+      <c r="H93">
+        <v>192</v>
+      </c>
+      <c r="I93">
+        <v>255</v>
+      </c>
+      <c r="J93">
+        <v>218.75</v>
+      </c>
+      <c r="K93">
+        <v>255</v>
+      </c>
+      <c r="L93">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12">
+      <c r="A94">
+        <v>24540</v>
+      </c>
+      <c r="B94">
+        <v>245.4</v>
+      </c>
+      <c r="C94">
+        <v>254</v>
+      </c>
+      <c r="D94">
+        <v>255</v>
+      </c>
+      <c r="E94">
+        <v>218.3030303030303</v>
+      </c>
+      <c r="F94">
+        <v>14.77508139750947</v>
+      </c>
+      <c r="G94">
+        <v>42</v>
+      </c>
+      <c r="H94">
+        <v>213</v>
+      </c>
+      <c r="I94">
+        <v>255</v>
+      </c>
+      <c r="J94">
+        <v>239</v>
+      </c>
+      <c r="K94">
+        <v>254</v>
+      </c>
+      <c r="L94">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12">
+      <c r="A95">
+        <v>25132</v>
+      </c>
+      <c r="B95">
+        <v>251.32</v>
+      </c>
+      <c r="C95">
+        <v>255</v>
+      </c>
+      <c r="D95">
+        <v>255</v>
+      </c>
+      <c r="E95">
+        <v>29.18949494949502</v>
+      </c>
+      <c r="F95">
+        <v>5.402730323595193</v>
+      </c>
+      <c r="G95">
+        <v>18</v>
+      </c>
+      <c r="H95">
+        <v>237</v>
+      </c>
+      <c r="I95">
+        <v>255</v>
+      </c>
+      <c r="J95">
+        <v>250</v>
+      </c>
+      <c r="K95">
+        <v>255</v>
+      </c>
+      <c r="L95">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12">
+      <c r="A96">
+        <v>25314</v>
+      </c>
+      <c r="B96">
+        <v>253.14</v>
+      </c>
+      <c r="C96">
+        <v>254</v>
+      </c>
+      <c r="D96">
+        <v>255</v>
+      </c>
+      <c r="E96">
+        <v>4.404444444444435</v>
+      </c>
+      <c r="F96">
+        <v>2.09867683182629</v>
+      </c>
+      <c r="G96">
+        <v>7</v>
+      </c>
+      <c r="H96">
+        <v>248</v>
+      </c>
+      <c r="I96">
+        <v>255</v>
+      </c>
+      <c r="J96">
+        <v>251</v>
+      </c>
+      <c r="K96">
+        <v>254</v>
+      </c>
+      <c r="L96">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12">
+      <c r="A97">
+        <v>25241</v>
+      </c>
+      <c r="B97">
+        <v>252.41</v>
+      </c>
+      <c r="C97">
+        <v>255</v>
+      </c>
+      <c r="D97">
+        <v>255</v>
+      </c>
+      <c r="E97">
+        <v>17.21404040404044</v>
+      </c>
+      <c r="F97">
+        <v>4.148980646380559</v>
+      </c>
+      <c r="G97">
+        <v>19</v>
+      </c>
+      <c r="H97">
+        <v>236</v>
+      </c>
+      <c r="I97">
+        <v>255</v>
+      </c>
+      <c r="J97">
+        <v>251</v>
+      </c>
+      <c r="K97">
+        <v>255</v>
+      </c>
+      <c r="L97">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12">
+      <c r="A98">
+        <v>24672</v>
+      </c>
+      <c r="B98">
+        <v>246.72</v>
+      </c>
+      <c r="C98">
+        <v>254</v>
+      </c>
+      <c r="D98">
+        <v>255</v>
+      </c>
+      <c r="E98">
+        <v>349.0319191919201</v>
+      </c>
+      <c r="F98">
+        <v>18.68239597032244</v>
+      </c>
+      <c r="G98">
+        <v>68</v>
+      </c>
+      <c r="H98">
+        <v>187</v>
+      </c>
+      <c r="I98">
+        <v>255</v>
+      </c>
+      <c r="J98">
+        <v>252</v>
+      </c>
+      <c r="K98">
+        <v>254</v>
+      </c>
+      <c r="L98">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12">
+      <c r="A99">
+        <v>24809</v>
+      </c>
+      <c r="B99">
+        <v>248.09</v>
+      </c>
+      <c r="C99">
+        <v>254</v>
+      </c>
+      <c r="D99">
+        <v>255</v>
+      </c>
+      <c r="E99">
+        <v>262.1635353535361</v>
+      </c>
+      <c r="F99">
+        <v>16.19146489214414</v>
+      </c>
+      <c r="G99">
         <v>76</v>
       </c>
-      <c r="H5">
+      <c r="H99">
         <v>179</v>
       </c>
-      <c r="I5">
-        <v>255</v>
-      </c>
-      <c r="J5">
-        <v>185.75</v>
-      </c>
-      <c r="K5">
-        <v>221.5</v>
-      </c>
-      <c r="L5">
+      <c r="I99">
+        <v>255</v>
+      </c>
+      <c r="J99">
+        <v>253</v>
+      </c>
+      <c r="K99">
+        <v>254</v>
+      </c>
+      <c r="L99">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12">
+      <c r="A100">
+        <v>24696</v>
+      </c>
+      <c r="B100">
+        <v>246.96</v>
+      </c>
+      <c r="C100">
+        <v>254</v>
+      </c>
+      <c r="D100">
+        <v>255</v>
+      </c>
+      <c r="E100">
+        <v>355.4125252525258</v>
+      </c>
+      <c r="F100">
+        <v>18.85238778649871</v>
+      </c>
+      <c r="G100">
+        <v>61</v>
+      </c>
+      <c r="H100">
+        <v>194</v>
+      </c>
+      <c r="I100">
+        <v>255</v>
+      </c>
+      <c r="J100">
+        <v>253</v>
+      </c>
+      <c r="K100">
+        <v>254</v>
+      </c>
+      <c r="L100">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12">
+      <c r="A101">
+        <v>25371</v>
+      </c>
+      <c r="B101">
+        <v>253.71</v>
+      </c>
+      <c r="C101">
+        <v>254</v>
+      </c>
+      <c r="D101">
+        <v>255</v>
+      </c>
+      <c r="E101">
+        <v>4.349393939393924</v>
+      </c>
+      <c r="F101">
+        <v>2.085520064490851</v>
+      </c>
+      <c r="G101">
+        <v>8</v>
+      </c>
+      <c r="H101">
+        <v>247</v>
+      </c>
+      <c r="I101">
+        <v>255</v>
+      </c>
+      <c r="J101">
+        <v>254</v>
+      </c>
+      <c r="K101">
+        <v>254</v>
+      </c>
+      <c r="L101">
         <v>255</v>
       </c>
     </row>

--- a/RGB_img_corpus_one/0.3.dataStadictist/Estadisticas_descarga5_RGB_Vector.xlsx
+++ b/RGB_img_corpus_one/0.3.dataStadictist/Estadisticas_descarga5_RGB_Vector.xlsx
@@ -407,7 +407,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L101"/>
+  <dimension ref="A1:L201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -453,10 +453,10 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2">
-        <v>25499</v>
+        <v>50999</v>
       </c>
       <c r="B2">
-        <v>254.99</v>
+        <v>254.995</v>
       </c>
       <c r="C2">
         <v>255</v>
@@ -465,10 +465,10 @@
         <v>255</v>
       </c>
       <c r="E2">
-        <v>0.009999999999999967</v>
+        <v>0.004999999999999992</v>
       </c>
       <c r="F2">
-        <v>0.09999999999999984</v>
+        <v>0.0707106781186547</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -491,10 +491,10 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3">
-        <v>25493</v>
+        <v>50998</v>
       </c>
       <c r="B3">
-        <v>254.93</v>
+        <v>254.99</v>
       </c>
       <c r="C3">
         <v>255</v>
@@ -503,16 +503,16 @@
         <v>255</v>
       </c>
       <c r="E3">
-        <v>0.1263636363636365</v>
+        <v>0.00994974874371856</v>
       </c>
       <c r="F3">
-        <v>0.3554766326548575</v>
+        <v>0.09974842727441151</v>
       </c>
       <c r="G3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H3">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="I3">
         <v>255</v>
@@ -529,10 +529,10 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4">
-        <v>25481</v>
+        <v>50989</v>
       </c>
       <c r="B4">
-        <v>254.81</v>
+        <v>254.945</v>
       </c>
       <c r="C4">
         <v>255</v>
@@ -541,16 +541,16 @@
         <v>255</v>
       </c>
       <c r="E4">
-        <v>0.397878787878787</v>
+        <v>0.07233668341708555</v>
       </c>
       <c r="F4">
-        <v>0.6307763374436196</v>
+        <v>0.268954798092701</v>
       </c>
       <c r="G4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H4">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I4">
         <v>255</v>
@@ -567,10 +567,10 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5">
-        <v>25480</v>
+        <v>50984</v>
       </c>
       <c r="B5">
-        <v>254.8</v>
+        <v>254.92</v>
       </c>
       <c r="C5">
         <v>255</v>
@@ -579,10 +579,10 @@
         <v>255</v>
       </c>
       <c r="E5">
-        <v>0.484848484848483</v>
+        <v>0.1443216080402015</v>
       </c>
       <c r="F5">
-        <v>0.69631062382279</v>
+        <v>0.3798968386815051</v>
       </c>
       <c r="G5">
         <v>3</v>
@@ -605,10 +605,10 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6">
-        <v>25495</v>
+        <v>50964</v>
       </c>
       <c r="B6">
-        <v>254.95</v>
+        <v>254.82</v>
       </c>
       <c r="C6">
         <v>255</v>
@@ -617,16 +617,16 @@
         <v>255</v>
       </c>
       <c r="E6">
-        <v>0.04797979797979806</v>
+        <v>0.4096482412060263</v>
       </c>
       <c r="F6">
-        <v>0.2190429135575905</v>
+        <v>0.6400376873325713</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H6">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="I6">
         <v>255</v>
@@ -643,10 +643,10 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7">
-        <v>25487</v>
+        <v>50959</v>
       </c>
       <c r="B7">
-        <v>254.87</v>
+        <v>254.795</v>
       </c>
       <c r="C7">
         <v>255</v>
@@ -655,16 +655,16 @@
         <v>255</v>
       </c>
       <c r="E7">
-        <v>0.2556565656565662</v>
+        <v>0.5256030150753794</v>
       </c>
       <c r="F7">
-        <v>0.5056249258655729</v>
+        <v>0.7249848378244744</v>
       </c>
       <c r="G7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H7">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I7">
         <v>255</v>
@@ -681,10 +681,10 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8">
-        <v>25453</v>
+        <v>50956</v>
       </c>
       <c r="B8">
-        <v>254.53</v>
+        <v>254.78</v>
       </c>
       <c r="C8">
         <v>255</v>
@@ -693,16 +693,16 @@
         <v>255</v>
       </c>
       <c r="E8">
-        <v>1.827373737373738</v>
+        <v>0.6146733668341717</v>
       </c>
       <c r="F8">
-        <v>1.351803882733638</v>
+        <v>0.7840110757088651</v>
       </c>
       <c r="G8">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H8">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="I8">
         <v>255</v>
@@ -719,10 +719,10 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9">
-        <v>25386</v>
+        <v>50966</v>
       </c>
       <c r="B9">
-        <v>253.86</v>
+        <v>254.83</v>
       </c>
       <c r="C9">
         <v>255</v>
@@ -731,16 +731,16 @@
         <v>255</v>
       </c>
       <c r="E9">
-        <v>12.66707070707076</v>
+        <v>0.4533668341708527</v>
       </c>
       <c r="F9">
-        <v>3.559082846334257</v>
+        <v>0.6733252068435079</v>
       </c>
       <c r="G9">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="H9">
-        <v>238</v>
+        <v>252</v>
       </c>
       <c r="I9">
         <v>255</v>
@@ -757,10 +757,10 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10">
-        <v>25179</v>
+        <v>50980</v>
       </c>
       <c r="B10">
-        <v>251.79</v>
+        <v>254.9</v>
       </c>
       <c r="C10">
         <v>255</v>
@@ -769,16 +769,16 @@
         <v>255</v>
       </c>
       <c r="E10">
-        <v>119.3594949494946</v>
+        <v>0.160804020100502</v>
       </c>
       <c r="F10">
-        <v>10.92517711295769</v>
+        <v>0.4010037656936678</v>
       </c>
       <c r="G10">
-        <v>61</v>
+        <v>2</v>
       </c>
       <c r="H10">
-        <v>194</v>
+        <v>253</v>
       </c>
       <c r="I10">
         <v>255</v>
@@ -795,10 +795,10 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11">
-        <v>24423</v>
+        <v>50987</v>
       </c>
       <c r="B11">
-        <v>244.23</v>
+        <v>254.935</v>
       </c>
       <c r="C11">
         <v>255</v>
@@ -807,16 +807,16 @@
         <v>255</v>
       </c>
       <c r="E11">
-        <v>1458.966767676774</v>
+        <v>0.06108040201005039</v>
       </c>
       <c r="F11">
-        <v>38.19642349326406</v>
+        <v>0.2471444962163843</v>
       </c>
       <c r="G11">
-        <v>188</v>
+        <v>1</v>
       </c>
       <c r="H11">
-        <v>67</v>
+        <v>254</v>
       </c>
       <c r="I11">
         <v>255</v>
@@ -833,10 +833,10 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12">
-        <v>23927</v>
+        <v>50980</v>
       </c>
       <c r="B12">
-        <v>239.27</v>
+        <v>254.9</v>
       </c>
       <c r="C12">
         <v>255</v>
@@ -845,16 +845,16 @@
         <v>255</v>
       </c>
       <c r="E12">
-        <v>2381.997070707063</v>
+        <v>0.1507537688442206</v>
       </c>
       <c r="F12">
-        <v>48.8057073579214</v>
+        <v>0.388270226574509</v>
       </c>
       <c r="G12">
-        <v>194</v>
+        <v>2</v>
       </c>
       <c r="H12">
-        <v>61</v>
+        <v>253</v>
       </c>
       <c r="I12">
         <v>255</v>
@@ -871,10 +871,10 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13">
-        <v>23458</v>
+        <v>50961</v>
       </c>
       <c r="B13">
-        <v>234.58</v>
+        <v>254.805</v>
       </c>
       <c r="C13">
         <v>255</v>
@@ -883,16 +883,16 @@
         <v>255</v>
       </c>
       <c r="E13">
-        <v>3295.639999999993</v>
+        <v>0.5999748743718553</v>
       </c>
       <c r="F13">
-        <v>57.40766499344833</v>
+        <v>0.77458045054846</v>
       </c>
       <c r="G13">
-        <v>204</v>
+        <v>5</v>
       </c>
       <c r="H13">
-        <v>51</v>
+        <v>250</v>
       </c>
       <c r="I13">
         <v>255</v>
@@ -909,10 +909,10 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14">
-        <v>23139</v>
+        <v>50929</v>
       </c>
       <c r="B14">
-        <v>231.39</v>
+        <v>254.645</v>
       </c>
       <c r="C14">
         <v>255</v>
@@ -921,16 +921,16 @@
         <v>255</v>
       </c>
       <c r="E14">
-        <v>4007.472626262613</v>
+        <v>1.134648241206034</v>
       </c>
       <c r="F14">
-        <v>63.30460193589889</v>
+        <v>1.065198686258124</v>
       </c>
       <c r="G14">
-        <v>221</v>
+        <v>5</v>
       </c>
       <c r="H14">
-        <v>34</v>
+        <v>250</v>
       </c>
       <c r="I14">
         <v>255</v>
@@ -947,10 +947,10 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15">
-        <v>22946</v>
+        <v>50879</v>
       </c>
       <c r="B15">
-        <v>229.46</v>
+        <v>254.395</v>
       </c>
       <c r="C15">
         <v>255</v>
@@ -959,16 +959,16 @@
         <v>255</v>
       </c>
       <c r="E15">
-        <v>4371.503434343433</v>
+        <v>3.315552763819122</v>
       </c>
       <c r="F15">
-        <v>66.11734594146556</v>
+        <v>1.82086593790403</v>
       </c>
       <c r="G15">
-        <v>219</v>
+        <v>11</v>
       </c>
       <c r="H15">
-        <v>36</v>
+        <v>244</v>
       </c>
       <c r="I15">
         <v>255</v>
@@ -985,10 +985,10 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16">
-        <v>22766</v>
+        <v>50816</v>
       </c>
       <c r="B16">
-        <v>227.66</v>
+        <v>254.08</v>
       </c>
       <c r="C16">
         <v>255</v>
@@ -997,16 +997,16 @@
         <v>255</v>
       </c>
       <c r="E16">
-        <v>4761.115555555559</v>
+        <v>8.516180904522571</v>
       </c>
       <c r="F16">
-        <v>69.00083735401736</v>
+        <v>2.918249630261704</v>
       </c>
       <c r="G16">
-        <v>224</v>
+        <v>19</v>
       </c>
       <c r="H16">
-        <v>31</v>
+        <v>236</v>
       </c>
       <c r="I16">
         <v>255</v>
@@ -1023,10 +1023,10 @@
     </row>
     <row r="17" spans="1:12">
       <c r="A17">
-        <v>22642</v>
+        <v>50732</v>
       </c>
       <c r="B17">
-        <v>226.42</v>
+        <v>253.66</v>
       </c>
       <c r="C17">
         <v>255</v>
@@ -1035,16 +1035,16 @@
         <v>255</v>
       </c>
       <c r="E17">
-        <v>4872.569292929298</v>
+        <v>17.83356783919593</v>
       </c>
       <c r="F17">
-        <v>69.80379139365782</v>
+        <v>4.22298091863981</v>
       </c>
       <c r="G17">
-        <v>226</v>
+        <v>21</v>
       </c>
       <c r="H17">
-        <v>29</v>
+        <v>234</v>
       </c>
       <c r="I17">
         <v>255</v>
@@ -1061,10 +1061,10 @@
     </row>
     <row r="18" spans="1:12">
       <c r="A18">
-        <v>22505</v>
+        <v>50529</v>
       </c>
       <c r="B18">
-        <v>225.05</v>
+        <v>252.645</v>
       </c>
       <c r="C18">
         <v>255</v>
@@ -1073,22 +1073,22 @@
         <v>255</v>
       </c>
       <c r="E18">
-        <v>5080.714646464648</v>
+        <v>56.49143216080385</v>
       </c>
       <c r="F18">
-        <v>71.2791319143594</v>
+        <v>7.516078243392883</v>
       </c>
       <c r="G18">
-        <v>238</v>
+        <v>39</v>
       </c>
       <c r="H18">
-        <v>17</v>
+        <v>216</v>
       </c>
       <c r="I18">
         <v>255</v>
       </c>
       <c r="J18">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="K18">
         <v>255</v>
@@ -1099,10 +1099,10 @@
     </row>
     <row r="19" spans="1:12">
       <c r="A19">
-        <v>22220</v>
+        <v>49925</v>
       </c>
       <c r="B19">
-        <v>222.2</v>
+        <v>249.625</v>
       </c>
       <c r="C19">
         <v>255</v>
@@ -1111,22 +1111,22 @@
         <v>255</v>
       </c>
       <c r="E19">
-        <v>5392.666666666672</v>
+        <v>393.6325376884422</v>
       </c>
       <c r="F19">
-        <v>73.43477831835997</v>
+        <v>19.84017484016817</v>
       </c>
       <c r="G19">
-        <v>232</v>
+        <v>114</v>
       </c>
       <c r="H19">
-        <v>23</v>
+        <v>141</v>
       </c>
       <c r="I19">
         <v>255</v>
       </c>
       <c r="J19">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="K19">
         <v>255</v>
@@ -1137,10 +1137,10 @@
     </row>
     <row r="20" spans="1:12">
       <c r="A20">
-        <v>22278</v>
+        <v>49144</v>
       </c>
       <c r="B20">
-        <v>222.78</v>
+        <v>245.72</v>
       </c>
       <c r="C20">
         <v>255</v>
@@ -1149,22 +1149,22 @@
         <v>255</v>
       </c>
       <c r="E20">
-        <v>5069.345050505043</v>
+        <v>1205.227738693471</v>
       </c>
       <c r="F20">
-        <v>71.1993332167166</v>
+        <v>34.71639005849357</v>
       </c>
       <c r="G20">
-        <v>220</v>
+        <v>194</v>
       </c>
       <c r="H20">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="I20">
         <v>255</v>
       </c>
       <c r="J20">
-        <v>251.5</v>
+        <v>255</v>
       </c>
       <c r="K20">
         <v>255</v>
@@ -1175,10 +1175,10 @@
     </row>
     <row r="21" spans="1:12">
       <c r="A21">
-        <v>21928</v>
+        <v>48564</v>
       </c>
       <c r="B21">
-        <v>219.28</v>
+        <v>242.82</v>
       </c>
       <c r="C21">
         <v>255</v>
@@ -1187,22 +1187,22 @@
         <v>255</v>
       </c>
       <c r="E21">
-        <v>5289.092525252537</v>
+        <v>1766.459899497474</v>
       </c>
       <c r="F21">
-        <v>72.72614746604233</v>
+        <v>42.02927431561808</v>
       </c>
       <c r="G21">
-        <v>223</v>
+        <v>200</v>
       </c>
       <c r="H21">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="I21">
         <v>255</v>
       </c>
       <c r="J21">
-        <v>248.75</v>
+        <v>255</v>
       </c>
       <c r="K21">
         <v>255</v>
@@ -1213,10 +1213,10 @@
     </row>
     <row r="22" spans="1:12">
       <c r="A22">
-        <v>22234</v>
+        <v>48074</v>
       </c>
       <c r="B22">
-        <v>222.34</v>
+        <v>240.37</v>
       </c>
       <c r="C22">
         <v>255</v>
@@ -1225,22 +1225,22 @@
         <v>255</v>
       </c>
       <c r="E22">
-        <v>5065.499393939402</v>
+        <v>2141.490552763823</v>
       </c>
       <c r="F22">
-        <v>71.17232182484565</v>
+        <v>46.27624177441187</v>
       </c>
       <c r="G22">
-        <v>241</v>
+        <v>191</v>
       </c>
       <c r="H22">
-        <v>14</v>
+        <v>64</v>
       </c>
       <c r="I22">
         <v>255</v>
       </c>
       <c r="J22">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="K22">
         <v>255</v>
@@ -1251,10 +1251,10 @@
     </row>
     <row r="23" spans="1:12">
       <c r="A23">
-        <v>22704</v>
+        <v>47598</v>
       </c>
       <c r="B23">
-        <v>227.04</v>
+        <v>237.99</v>
       </c>
       <c r="C23">
         <v>255</v>
@@ -1263,22 +1263,22 @@
         <v>255</v>
       </c>
       <c r="E23">
-        <v>4241.39232323233</v>
+        <v>2581.949648241193</v>
       </c>
       <c r="F23">
-        <v>65.12597272388591</v>
+        <v>50.81288860359341</v>
       </c>
       <c r="G23">
-        <v>229</v>
+        <v>195</v>
       </c>
       <c r="H23">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="I23">
         <v>255</v>
       </c>
       <c r="J23">
-        <v>251.75</v>
+        <v>255</v>
       </c>
       <c r="K23">
         <v>255</v>
@@ -1289,10 +1289,10 @@
     </row>
     <row r="24" spans="1:12">
       <c r="A24">
-        <v>23171</v>
+        <v>47132</v>
       </c>
       <c r="B24">
-        <v>231.71</v>
+        <v>235.66</v>
       </c>
       <c r="C24">
         <v>255</v>
@@ -1301,22 +1301,22 @@
         <v>255</v>
       </c>
       <c r="E24">
-        <v>3388.753434343434</v>
+        <v>3068.516984924594</v>
       </c>
       <c r="F24">
-        <v>58.21300056124434</v>
+        <v>55.39419631084645</v>
       </c>
       <c r="G24">
-        <v>226</v>
+        <v>206</v>
       </c>
       <c r="H24">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="I24">
         <v>255</v>
       </c>
       <c r="J24">
-        <v>248.75</v>
+        <v>255</v>
       </c>
       <c r="K24">
         <v>255</v>
@@ -1327,10 +1327,10 @@
     </row>
     <row r="25" spans="1:12">
       <c r="A25">
-        <v>23614</v>
+        <v>46712</v>
       </c>
       <c r="B25">
-        <v>236.14</v>
+        <v>233.56</v>
       </c>
       <c r="C25">
         <v>255</v>
@@ -1339,22 +1339,22 @@
         <v>255</v>
       </c>
       <c r="E25">
-        <v>2436.364040404039</v>
+        <v>3550.93105527637</v>
       </c>
       <c r="F25">
-        <v>49.35953849464193</v>
+        <v>59.58968916915384</v>
       </c>
       <c r="G25">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="H25">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="I25">
         <v>255</v>
       </c>
       <c r="J25">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="K25">
         <v>255</v>
@@ -1365,10 +1365,10 @@
     </row>
     <row r="26" spans="1:12">
       <c r="A26">
-        <v>24423</v>
+        <v>46434</v>
       </c>
       <c r="B26">
-        <v>244.23</v>
+        <v>232.17</v>
       </c>
       <c r="C26">
         <v>255</v>
@@ -1377,22 +1377,22 @@
         <v>255</v>
       </c>
       <c r="E26">
-        <v>970.7243434343426</v>
+        <v>3818.101608040185</v>
       </c>
       <c r="F26">
-        <v>31.15644946771603</v>
+        <v>61.79078902263819</v>
       </c>
       <c r="G26">
-        <v>160</v>
+        <v>216</v>
       </c>
       <c r="H26">
-        <v>95</v>
+        <v>39</v>
       </c>
       <c r="I26">
         <v>255</v>
       </c>
       <c r="J26">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="K26">
         <v>255</v>
@@ -1403,10 +1403,10 @@
     </row>
     <row r="27" spans="1:12">
       <c r="A27">
-        <v>24993</v>
+        <v>46190</v>
       </c>
       <c r="B27">
-        <v>249.93</v>
+        <v>230.95</v>
       </c>
       <c r="C27">
         <v>255</v>
@@ -1415,22 +1415,22 @@
         <v>255</v>
       </c>
       <c r="E27">
-        <v>359.3788888888878</v>
+        <v>4084.871859296466</v>
       </c>
       <c r="F27">
-        <v>18.95729118014723</v>
+        <v>63.91300227102828</v>
       </c>
       <c r="G27">
-        <v>164</v>
+        <v>223</v>
       </c>
       <c r="H27">
-        <v>91</v>
+        <v>32</v>
       </c>
       <c r="I27">
         <v>255</v>
       </c>
       <c r="J27">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="K27">
         <v>255</v>
@@ -1441,10 +1441,10 @@
     </row>
     <row r="28" spans="1:12">
       <c r="A28">
-        <v>24437</v>
+        <v>45954</v>
       </c>
       <c r="B28">
-        <v>244.37</v>
+        <v>229.77</v>
       </c>
       <c r="C28">
         <v>255</v>
@@ -1453,22 +1453,22 @@
         <v>255</v>
       </c>
       <c r="E28">
-        <v>339.7910101010098</v>
+        <v>4355.997085427141</v>
       </c>
       <c r="F28">
-        <v>18.43342100916186</v>
+        <v>65.9999779198989</v>
       </c>
       <c r="G28">
-        <v>140</v>
+        <v>224</v>
       </c>
       <c r="H28">
-        <v>115</v>
+        <v>31</v>
       </c>
       <c r="I28">
         <v>255</v>
       </c>
       <c r="J28">
-        <v>236.75</v>
+        <v>255</v>
       </c>
       <c r="K28">
         <v>255</v>
@@ -1479,37 +1479,37 @@
     </row>
     <row r="29" spans="1:12">
       <c r="A29">
-        <v>24291</v>
+        <v>45799</v>
       </c>
       <c r="B29">
-        <v>242.91</v>
+        <v>228.995</v>
       </c>
       <c r="C29">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D29">
         <v>255</v>
       </c>
       <c r="E29">
-        <v>500.6685858585865</v>
+        <v>4462.597964824105</v>
       </c>
       <c r="F29">
-        <v>22.37562481493168</v>
+        <v>66.80267932369259</v>
       </c>
       <c r="G29">
-        <v>116</v>
+        <v>215</v>
       </c>
       <c r="H29">
-        <v>139</v>
+        <v>40</v>
       </c>
       <c r="I29">
         <v>255</v>
       </c>
       <c r="J29">
-        <v>242.75</v>
+        <v>255</v>
       </c>
       <c r="K29">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L29">
         <v>255</v>
@@ -1517,37 +1517,37 @@
     </row>
     <row r="30" spans="1:12">
       <c r="A30">
-        <v>24428</v>
+        <v>45624</v>
       </c>
       <c r="B30">
-        <v>244.28</v>
+        <v>228.12</v>
       </c>
       <c r="C30">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D30">
         <v>255</v>
       </c>
       <c r="E30">
-        <v>474.9511111111116</v>
+        <v>4633.251859296483</v>
       </c>
       <c r="F30">
-        <v>21.79337310081006</v>
+        <v>68.067994382797</v>
       </c>
       <c r="G30">
-        <v>112</v>
+        <v>221</v>
       </c>
       <c r="H30">
-        <v>143</v>
+        <v>34</v>
       </c>
       <c r="I30">
         <v>255</v>
       </c>
       <c r="J30">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="K30">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L30">
         <v>255</v>
@@ -1555,37 +1555,37 @@
     </row>
     <row r="31" spans="1:12">
       <c r="A31">
-        <v>24174</v>
+        <v>45442</v>
       </c>
       <c r="B31">
-        <v>241.74</v>
+        <v>227.21</v>
       </c>
       <c r="C31">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D31">
         <v>255</v>
       </c>
       <c r="E31">
-        <v>575.6084848484844</v>
+        <v>4833.945628140727</v>
       </c>
       <c r="F31">
-        <v>23.9918420478396</v>
+        <v>69.52658216927341</v>
       </c>
       <c r="G31">
-        <v>114</v>
+        <v>225</v>
       </c>
       <c r="H31">
-        <v>141</v>
+        <v>30</v>
       </c>
       <c r="I31">
         <v>255</v>
       </c>
       <c r="J31">
-        <v>242</v>
+        <v>255</v>
       </c>
       <c r="K31">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="L31">
         <v>255</v>
@@ -1593,37 +1593,37 @@
     </row>
     <row r="32" spans="1:12">
       <c r="A32">
-        <v>24108</v>
+        <v>45276</v>
       </c>
       <c r="B32">
-        <v>241.08</v>
+        <v>226.38</v>
       </c>
       <c r="C32">
-        <v>252.5</v>
+        <v>255</v>
       </c>
       <c r="D32">
         <v>255</v>
       </c>
       <c r="E32">
-        <v>537.5288888888892</v>
+        <v>5002.799597989927</v>
       </c>
       <c r="F32">
-        <v>23.18466926416871</v>
+        <v>70.7304714956003</v>
       </c>
       <c r="G32">
-        <v>107</v>
+        <v>230</v>
       </c>
       <c r="H32">
-        <v>148</v>
+        <v>25</v>
       </c>
       <c r="I32">
         <v>255</v>
       </c>
       <c r="J32">
-        <v>242</v>
+        <v>255</v>
       </c>
       <c r="K32">
-        <v>252.5</v>
+        <v>255</v>
       </c>
       <c r="L32">
         <v>255</v>
@@ -1631,37 +1631,37 @@
     </row>
     <row r="33" spans="1:12">
       <c r="A33">
-        <v>24363</v>
+        <v>45318</v>
       </c>
       <c r="B33">
-        <v>243.63</v>
+        <v>226.59</v>
       </c>
       <c r="C33">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="D33">
         <v>255</v>
       </c>
       <c r="E33">
-        <v>289.1041414141416</v>
+        <v>4706.182814070337</v>
       </c>
       <c r="F33">
-        <v>17.00306270688142</v>
+        <v>68.6016239900364</v>
       </c>
       <c r="G33">
-        <v>93</v>
+        <v>227</v>
       </c>
       <c r="H33">
-        <v>162</v>
+        <v>28</v>
       </c>
       <c r="I33">
         <v>255</v>
       </c>
       <c r="J33">
-        <v>238</v>
+        <v>255</v>
       </c>
       <c r="K33">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="L33">
         <v>255</v>
@@ -1669,37 +1669,37 @@
     </row>
     <row r="34" spans="1:12">
       <c r="A34">
-        <v>24380</v>
+        <v>45120</v>
       </c>
       <c r="B34">
-        <v>243.8</v>
+        <v>225.6</v>
       </c>
       <c r="C34">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="D34">
         <v>255</v>
       </c>
       <c r="E34">
-        <v>189.6565656565655</v>
+        <v>4879.286432160799</v>
       </c>
       <c r="F34">
-        <v>13.77158544455087</v>
+        <v>69.85188925262365</v>
       </c>
       <c r="G34">
-        <v>66</v>
+        <v>234</v>
       </c>
       <c r="H34">
-        <v>189</v>
+        <v>21</v>
       </c>
       <c r="I34">
         <v>255</v>
       </c>
       <c r="J34">
-        <v>233</v>
+        <v>253</v>
       </c>
       <c r="K34">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="L34">
         <v>255</v>
@@ -1707,37 +1707,37 @@
     </row>
     <row r="35" spans="1:12">
       <c r="A35">
-        <v>24300</v>
+        <v>44818</v>
       </c>
       <c r="B35">
-        <v>243</v>
+        <v>224.09</v>
       </c>
       <c r="C35">
-        <v>252.5</v>
+        <v>255</v>
       </c>
       <c r="D35">
         <v>255</v>
       </c>
       <c r="E35">
-        <v>250.4848484848485</v>
+        <v>5173.861206030161</v>
       </c>
       <c r="F35">
-        <v>15.82671312954299</v>
+        <v>71.92955724895128</v>
       </c>
       <c r="G35">
-        <v>51</v>
+        <v>237</v>
       </c>
       <c r="H35">
-        <v>204</v>
+        <v>18</v>
       </c>
       <c r="I35">
         <v>255</v>
       </c>
       <c r="J35">
-        <v>235.75</v>
+        <v>252.75</v>
       </c>
       <c r="K35">
-        <v>252.5</v>
+        <v>255</v>
       </c>
       <c r="L35">
         <v>255</v>
@@ -1745,37 +1745,37 @@
     </row>
     <row r="36" spans="1:12">
       <c r="A36">
-        <v>23895</v>
+        <v>44480</v>
       </c>
       <c r="B36">
-        <v>238.95</v>
+        <v>222.4</v>
       </c>
       <c r="C36">
+        <v>255</v>
+      </c>
+      <c r="D36">
+        <v>255</v>
+      </c>
+      <c r="E36">
+        <v>5433.658291457292</v>
+      </c>
+      <c r="F36">
+        <v>73.71335219251185</v>
+      </c>
+      <c r="G36">
+        <v>244</v>
+      </c>
+      <c r="H36">
+        <v>11</v>
+      </c>
+      <c r="I36">
+        <v>255</v>
+      </c>
+      <c r="J36">
         <v>252</v>
       </c>
-      <c r="D36">
-        <v>255</v>
-      </c>
-      <c r="E36">
-        <v>412.8156565656566</v>
-      </c>
-      <c r="F36">
-        <v>20.31786545298636</v>
-      </c>
-      <c r="G36">
-        <v>59</v>
-      </c>
-      <c r="H36">
-        <v>196</v>
-      </c>
-      <c r="I36">
-        <v>255</v>
-      </c>
-      <c r="J36">
-        <v>221.75</v>
-      </c>
       <c r="K36">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="L36">
         <v>255</v>
@@ -1783,37 +1783,37 @@
     </row>
     <row r="37" spans="1:12">
       <c r="A37">
-        <v>23594</v>
+        <v>44360</v>
       </c>
       <c r="B37">
-        <v>235.94</v>
+        <v>221.8</v>
       </c>
       <c r="C37">
-        <v>249.5</v>
+        <v>255</v>
       </c>
       <c r="D37">
         <v>255</v>
       </c>
       <c r="E37">
-        <v>458.4206060606066</v>
+        <v>5346.98492462311</v>
       </c>
       <c r="F37">
-        <v>21.41075911920468</v>
+        <v>73.12308065599473</v>
       </c>
       <c r="G37">
-        <v>63</v>
+        <v>229</v>
       </c>
       <c r="H37">
-        <v>192</v>
+        <v>26</v>
       </c>
       <c r="I37">
         <v>255</v>
       </c>
       <c r="J37">
-        <v>214.5</v>
+        <v>251</v>
       </c>
       <c r="K37">
-        <v>249.5</v>
+        <v>255</v>
       </c>
       <c r="L37">
         <v>255</v>
@@ -1821,37 +1821,37 @@
     </row>
     <row r="38" spans="1:12">
       <c r="A38">
-        <v>23516</v>
+        <v>44434</v>
       </c>
       <c r="B38">
-        <v>235.16</v>
+        <v>222.17</v>
       </c>
       <c r="C38">
-        <v>240.5</v>
+        <v>255</v>
       </c>
       <c r="D38">
         <v>255</v>
       </c>
       <c r="E38">
-        <v>433.4286868686867</v>
+        <v>5174.614170854246</v>
       </c>
       <c r="F38">
-        <v>20.81895018651725</v>
+        <v>71.93479110176276</v>
       </c>
       <c r="G38">
-        <v>63</v>
+        <v>222</v>
       </c>
       <c r="H38">
-        <v>192</v>
+        <v>33</v>
       </c>
       <c r="I38">
         <v>255</v>
       </c>
       <c r="J38">
-        <v>216</v>
+        <v>251</v>
       </c>
       <c r="K38">
-        <v>240.5</v>
+        <v>255</v>
       </c>
       <c r="L38">
         <v>255</v>
@@ -1859,37 +1859,37 @@
     </row>
     <row r="39" spans="1:12">
       <c r="A39">
-        <v>23574</v>
+        <v>44343</v>
       </c>
       <c r="B39">
-        <v>235.74</v>
+        <v>221.715</v>
       </c>
       <c r="C39">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="D39">
         <v>255</v>
       </c>
       <c r="E39">
-        <v>450.8408080808082</v>
+        <v>4925.611834170865</v>
       </c>
       <c r="F39">
-        <v>21.23301222344131</v>
+        <v>70.18270324069076</v>
       </c>
       <c r="G39">
-        <v>62</v>
+        <v>221</v>
       </c>
       <c r="H39">
-        <v>193</v>
+        <v>34</v>
       </c>
       <c r="I39">
         <v>255</v>
       </c>
       <c r="J39">
-        <v>216.75</v>
+        <v>247.75</v>
       </c>
       <c r="K39">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="L39">
         <v>255</v>
@@ -1897,37 +1897,37 @@
     </row>
     <row r="40" spans="1:12">
       <c r="A40">
-        <v>23694</v>
+        <v>43776</v>
       </c>
       <c r="B40">
-        <v>236.94</v>
+        <v>218.88</v>
       </c>
       <c r="C40">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="D40">
         <v>255</v>
       </c>
       <c r="E40">
-        <v>427.511515151515</v>
+        <v>5428.608643216095</v>
       </c>
       <c r="F40">
-        <v>20.67635159189152</v>
+        <v>73.67909230722169</v>
       </c>
       <c r="G40">
-        <v>72</v>
+        <v>231</v>
       </c>
       <c r="H40">
-        <v>183</v>
+        <v>24</v>
       </c>
       <c r="I40">
         <v>255</v>
       </c>
       <c r="J40">
-        <v>220.5</v>
+        <v>249</v>
       </c>
       <c r="K40">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="L40">
         <v>255</v>
@@ -1935,37 +1935,37 @@
     </row>
     <row r="41" spans="1:12">
       <c r="A41">
-        <v>24013</v>
+        <v>44106</v>
       </c>
       <c r="B41">
-        <v>240.13</v>
+        <v>220.53</v>
       </c>
       <c r="C41">
-        <v>252.5</v>
+        <v>255</v>
       </c>
       <c r="D41">
         <v>255</v>
       </c>
       <c r="E41">
-        <v>451.5081818181816</v>
+        <v>5147.78804020102</v>
       </c>
       <c r="F41">
-        <v>21.24872188669666</v>
+        <v>71.74808736266786</v>
       </c>
       <c r="G41">
-        <v>78</v>
+        <v>236</v>
       </c>
       <c r="H41">
-        <v>177</v>
+        <v>19</v>
       </c>
       <c r="I41">
         <v>255</v>
       </c>
       <c r="J41">
-        <v>232.75</v>
+        <v>250</v>
       </c>
       <c r="K41">
-        <v>252.5</v>
+        <v>255</v>
       </c>
       <c r="L41">
         <v>255</v>
@@ -1973,37 +1973,37 @@
     </row>
     <row r="42" spans="1:12">
       <c r="A42">
-        <v>24007</v>
+        <v>44348</v>
       </c>
       <c r="B42">
-        <v>240.07</v>
+        <v>221.74</v>
       </c>
       <c r="C42">
-        <v>252.5</v>
+        <v>255</v>
       </c>
       <c r="D42">
         <v>255</v>
       </c>
       <c r="E42">
-        <v>501.378888888889</v>
+        <v>5062.303919597983</v>
       </c>
       <c r="F42">
-        <v>22.39149143958234</v>
+        <v>71.14986942783509</v>
       </c>
       <c r="G42">
-        <v>89</v>
+        <v>239</v>
       </c>
       <c r="H42">
-        <v>166</v>
+        <v>16</v>
       </c>
       <c r="I42">
         <v>255</v>
       </c>
       <c r="J42">
-        <v>232.5</v>
+        <v>252</v>
       </c>
       <c r="K42">
-        <v>252.5</v>
+        <v>255</v>
       </c>
       <c r="L42">
         <v>255</v>
@@ -2011,37 +2011,37 @@
     </row>
     <row r="43" spans="1:12">
       <c r="A43">
-        <v>24032</v>
+        <v>44632</v>
       </c>
       <c r="B43">
-        <v>240.32</v>
+        <v>223.16</v>
       </c>
       <c r="C43">
+        <v>255</v>
+      </c>
+      <c r="D43">
+        <v>255</v>
+      </c>
+      <c r="E43">
+        <v>4927.692864321588</v>
+      </c>
+      <c r="F43">
+        <v>70.19752748011562</v>
+      </c>
+      <c r="G43">
+        <v>237</v>
+      </c>
+      <c r="H43">
+        <v>18</v>
+      </c>
+      <c r="I43">
+        <v>255</v>
+      </c>
+      <c r="J43">
         <v>253</v>
       </c>
-      <c r="D43">
-        <v>255</v>
-      </c>
-      <c r="E43">
-        <v>541.6743434343432</v>
-      </c>
-      <c r="F43">
-        <v>23.27389832912276</v>
-      </c>
-      <c r="G43">
-        <v>95</v>
-      </c>
-      <c r="H43">
-        <v>160</v>
-      </c>
-      <c r="I43">
-        <v>255</v>
-      </c>
-      <c r="J43">
-        <v>234.25</v>
-      </c>
       <c r="K43">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="L43">
         <v>255</v>
@@ -2049,37 +2049,37 @@
     </row>
     <row r="44" spans="1:12">
       <c r="A44">
-        <v>23998</v>
+        <v>45187</v>
       </c>
       <c r="B44">
-        <v>239.98</v>
+        <v>225.935</v>
       </c>
       <c r="C44">
-        <v>250.5</v>
+        <v>255</v>
       </c>
       <c r="D44">
         <v>255</v>
       </c>
       <c r="E44">
-        <v>541.6157575757579</v>
+        <v>4507.247010050233</v>
       </c>
       <c r="F44">
-        <v>23.27263967786546</v>
+        <v>67.13603361869268</v>
       </c>
       <c r="G44">
-        <v>90</v>
+        <v>229</v>
       </c>
       <c r="H44">
-        <v>165</v>
+        <v>26</v>
       </c>
       <c r="I44">
         <v>255</v>
       </c>
       <c r="J44">
-        <v>237.5</v>
+        <v>252</v>
       </c>
       <c r="K44">
-        <v>250.5</v>
+        <v>255</v>
       </c>
       <c r="L44">
         <v>255</v>
@@ -2087,37 +2087,37 @@
     </row>
     <row r="45" spans="1:12">
       <c r="A45">
-        <v>24026</v>
+        <v>45634</v>
       </c>
       <c r="B45">
-        <v>240.26</v>
+        <v>228.17</v>
       </c>
       <c r="C45">
-        <v>251.5</v>
+        <v>255</v>
       </c>
       <c r="D45">
         <v>255</v>
       </c>
       <c r="E45">
-        <v>497.8509090909089</v>
+        <v>4020.413165829139</v>
       </c>
       <c r="F45">
-        <v>22.31257289267441</v>
+        <v>63.40672808014256</v>
       </c>
       <c r="G45">
-        <v>84</v>
+        <v>234</v>
       </c>
       <c r="H45">
-        <v>171</v>
+        <v>21</v>
       </c>
       <c r="I45">
         <v>255</v>
       </c>
       <c r="J45">
-        <v>235.5</v>
+        <v>251</v>
       </c>
       <c r="K45">
-        <v>251.5</v>
+        <v>255</v>
       </c>
       <c r="L45">
         <v>255</v>
@@ -2125,37 +2125,37 @@
     </row>
     <row r="46" spans="1:12">
       <c r="A46">
-        <v>24013</v>
+        <v>46087</v>
       </c>
       <c r="B46">
-        <v>240.13</v>
+        <v>230.435</v>
       </c>
       <c r="C46">
-        <v>251.5</v>
+        <v>255</v>
       </c>
       <c r="D46">
         <v>255</v>
       </c>
       <c r="E46">
-        <v>493.6900000000001</v>
+        <v>3622.990728643204</v>
       </c>
       <c r="F46">
-        <v>22.21913589678951</v>
+        <v>60.19128449072343</v>
       </c>
       <c r="G46">
-        <v>83</v>
+        <v>234</v>
       </c>
       <c r="H46">
-        <v>172</v>
+        <v>21</v>
       </c>
       <c r="I46">
         <v>255</v>
       </c>
       <c r="J46">
-        <v>235.5</v>
+        <v>249.75</v>
       </c>
       <c r="K46">
-        <v>251.5</v>
+        <v>255</v>
       </c>
       <c r="L46">
         <v>255</v>
@@ -2163,37 +2163,37 @@
     </row>
     <row r="47" spans="1:12">
       <c r="A47">
-        <v>23944</v>
+        <v>46519</v>
       </c>
       <c r="B47">
-        <v>239.44</v>
+        <v>232.595</v>
       </c>
       <c r="C47">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="D47">
         <v>255</v>
       </c>
       <c r="E47">
-        <v>523.4004040404034</v>
+        <v>3222.272336683421</v>
       </c>
       <c r="F47">
-        <v>22.87794580027681</v>
+        <v>56.76506264141194</v>
       </c>
       <c r="G47">
-        <v>89</v>
+        <v>232</v>
       </c>
       <c r="H47">
-        <v>166</v>
+        <v>23</v>
       </c>
       <c r="I47">
         <v>255</v>
       </c>
       <c r="J47">
-        <v>232.5</v>
+        <v>249</v>
       </c>
       <c r="K47">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="L47">
         <v>255</v>
@@ -2201,37 +2201,37 @@
     </row>
     <row r="48" spans="1:12">
       <c r="A48">
-        <v>23917</v>
+        <v>46895</v>
       </c>
       <c r="B48">
-        <v>239.17</v>
+        <v>234.475</v>
       </c>
       <c r="C48">
-        <v>250.5</v>
+        <v>255</v>
       </c>
       <c r="D48">
         <v>255</v>
       </c>
       <c r="E48">
-        <v>551.4960606060612</v>
+        <v>2732.893844221109</v>
       </c>
       <c r="F48">
-        <v>23.48395325761958</v>
+        <v>52.27708718187261</v>
       </c>
       <c r="G48">
-        <v>106</v>
+        <v>228</v>
       </c>
       <c r="H48">
-        <v>149</v>
+        <v>27</v>
       </c>
       <c r="I48">
         <v>255</v>
       </c>
       <c r="J48">
-        <v>230.5</v>
+        <v>245.75</v>
       </c>
       <c r="K48">
-        <v>250.5</v>
+        <v>255</v>
       </c>
       <c r="L48">
         <v>255</v>
@@ -2239,37 +2239,37 @@
     </row>
     <row r="49" spans="1:12">
       <c r="A49">
-        <v>23899</v>
+        <v>47558</v>
       </c>
       <c r="B49">
-        <v>238.99</v>
+        <v>237.79</v>
       </c>
       <c r="C49">
-        <v>251.5</v>
+        <v>255</v>
       </c>
       <c r="D49">
         <v>255</v>
       </c>
       <c r="E49">
-        <v>557.2423232323227</v>
+        <v>2107.895376884424</v>
       </c>
       <c r="F49">
-        <v>23.6059806666091</v>
+        <v>45.9118217552345</v>
       </c>
       <c r="G49">
-        <v>114</v>
+        <v>209</v>
       </c>
       <c r="H49">
-        <v>141</v>
+        <v>46</v>
       </c>
       <c r="I49">
         <v>255</v>
       </c>
       <c r="J49">
-        <v>227.75</v>
+        <v>247</v>
       </c>
       <c r="K49">
-        <v>251.5</v>
+        <v>255</v>
       </c>
       <c r="L49">
         <v>255</v>
@@ -2277,37 +2277,37 @@
     </row>
     <row r="50" spans="1:12">
       <c r="A50">
-        <v>23882</v>
+        <v>48399</v>
       </c>
       <c r="B50">
-        <v>238.82</v>
+        <v>241.995</v>
       </c>
       <c r="C50">
-        <v>251.5</v>
+        <v>255</v>
       </c>
       <c r="D50">
         <v>255</v>
       </c>
       <c r="E50">
-        <v>550.1086868686863</v>
+        <v>1317.743693467335</v>
       </c>
       <c r="F50">
-        <v>23.45439589647719</v>
+        <v>36.3007395719059</v>
       </c>
       <c r="G50">
-        <v>113</v>
+        <v>171</v>
       </c>
       <c r="H50">
-        <v>142</v>
+        <v>84</v>
       </c>
       <c r="I50">
         <v>255</v>
       </c>
       <c r="J50">
-        <v>227.75</v>
+        <v>249</v>
       </c>
       <c r="K50">
-        <v>251.5</v>
+        <v>255</v>
       </c>
       <c r="L50">
         <v>255</v>
@@ -2315,37 +2315,37 @@
     </row>
     <row r="51" spans="1:12">
       <c r="A51">
-        <v>23811</v>
+        <v>49323</v>
       </c>
       <c r="B51">
-        <v>238.11</v>
+        <v>246.615</v>
       </c>
       <c r="C51">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="D51">
         <v>255</v>
       </c>
       <c r="E51">
-        <v>562.9473737373741</v>
+        <v>677.0419849246199</v>
       </c>
       <c r="F51">
-        <v>23.72651204322654</v>
+        <v>26.02003045587418</v>
       </c>
       <c r="G51">
-        <v>114</v>
+        <v>166</v>
       </c>
       <c r="H51">
-        <v>141</v>
+        <v>89</v>
       </c>
       <c r="I51">
         <v>255</v>
       </c>
       <c r="J51">
-        <v>227.5</v>
+        <v>252</v>
       </c>
       <c r="K51">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="L51">
         <v>255</v>
@@ -2353,37 +2353,37 @@
     </row>
     <row r="52" spans="1:12">
       <c r="A52">
-        <v>23679</v>
+        <v>50011</v>
       </c>
       <c r="B52">
-        <v>236.79</v>
+        <v>250.055</v>
       </c>
       <c r="C52">
-        <v>248.5</v>
+        <v>255</v>
       </c>
       <c r="D52">
         <v>255</v>
       </c>
       <c r="E52">
-        <v>575.7231313131308</v>
+        <v>398.8462060301488</v>
       </c>
       <c r="F52">
-        <v>23.99423120904545</v>
+        <v>19.97113432006677</v>
       </c>
       <c r="G52">
-        <v>107</v>
+        <v>171</v>
       </c>
       <c r="H52">
-        <v>148</v>
+        <v>84</v>
       </c>
       <c r="I52">
         <v>255</v>
       </c>
       <c r="J52">
-        <v>225.75</v>
+        <v>253</v>
       </c>
       <c r="K52">
-        <v>248.5</v>
+        <v>255</v>
       </c>
       <c r="L52">
         <v>255</v>
@@ -2391,37 +2391,37 @@
     </row>
     <row r="53" spans="1:12">
       <c r="A53">
-        <v>23458</v>
+        <v>49795</v>
       </c>
       <c r="B53">
-        <v>234.58</v>
+        <v>248.975</v>
       </c>
       <c r="C53">
-        <v>242.5</v>
+        <v>255</v>
       </c>
       <c r="D53">
         <v>255</v>
       </c>
       <c r="E53">
-        <v>584.1450505050504</v>
+        <v>335.5722361809057</v>
       </c>
       <c r="F53">
-        <v>24.16909287716546</v>
+        <v>18.31863084897192</v>
       </c>
       <c r="G53">
-        <v>98</v>
+        <v>159</v>
       </c>
       <c r="H53">
-        <v>157</v>
+        <v>96</v>
       </c>
       <c r="I53">
         <v>255</v>
       </c>
       <c r="J53">
-        <v>221.75</v>
+        <v>248</v>
       </c>
       <c r="K53">
-        <v>242.5</v>
+        <v>255</v>
       </c>
       <c r="L53">
         <v>255</v>
@@ -2429,37 +2429,37 @@
     </row>
     <row r="54" spans="1:12">
       <c r="A54">
-        <v>23255</v>
+        <v>49222</v>
       </c>
       <c r="B54">
-        <v>232.55</v>
+        <v>246.11</v>
       </c>
       <c r="C54">
-        <v>237.5</v>
+        <v>255</v>
       </c>
       <c r="D54">
         <v>255</v>
       </c>
       <c r="E54">
-        <v>604.876262626263</v>
+        <v>325.8270351758787</v>
       </c>
       <c r="F54">
-        <v>24.59423230406395</v>
+        <v>18.05067963196618</v>
       </c>
       <c r="G54">
-        <v>93</v>
+        <v>150</v>
       </c>
       <c r="H54">
-        <v>162</v>
+        <v>105</v>
       </c>
       <c r="I54">
         <v>255</v>
       </c>
       <c r="J54">
-        <v>218</v>
+        <v>240</v>
       </c>
       <c r="K54">
-        <v>237.5</v>
+        <v>255</v>
       </c>
       <c r="L54">
         <v>255</v>
@@ -2467,37 +2467,37 @@
     </row>
     <row r="55" spans="1:12">
       <c r="A55">
-        <v>23156</v>
+        <v>48562</v>
       </c>
       <c r="B55">
-        <v>231.56</v>
+        <v>242.81</v>
       </c>
       <c r="C55">
-        <v>236.5</v>
+        <v>255</v>
       </c>
       <c r="D55">
         <v>255</v>
       </c>
       <c r="E55">
-        <v>634.3498989898983</v>
+        <v>410.5064321608029</v>
       </c>
       <c r="F55">
-        <v>25.18630379769724</v>
+        <v>20.26095832286328</v>
       </c>
       <c r="G55">
-        <v>89</v>
+        <v>147</v>
       </c>
       <c r="H55">
-        <v>166</v>
+        <v>108</v>
       </c>
       <c r="I55">
         <v>255</v>
       </c>
       <c r="J55">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="K55">
-        <v>236.5</v>
+        <v>255</v>
       </c>
       <c r="L55">
         <v>255</v>
@@ -2505,212 +2505,212 @@
     </row>
     <row r="56" spans="1:12">
       <c r="A56">
-        <v>23038</v>
+        <v>48490</v>
       </c>
       <c r="B56">
-        <v>230.38</v>
+        <v>242.45</v>
       </c>
       <c r="C56">
-        <v>236.5</v>
+        <v>254</v>
       </c>
       <c r="D56">
         <v>255</v>
       </c>
       <c r="E56">
-        <v>705.3288888888882</v>
+        <v>471.4547738693472</v>
       </c>
       <c r="F56">
-        <v>26.5580287086389</v>
+        <v>21.71300932319947</v>
       </c>
       <c r="G56">
-        <v>97</v>
+        <v>120</v>
       </c>
       <c r="H56">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="I56">
         <v>255</v>
       </c>
       <c r="J56">
-        <v>212.5</v>
+        <v>241</v>
       </c>
       <c r="K56">
-        <v>236.5</v>
+        <v>254</v>
       </c>
       <c r="L56">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="57" spans="1:12">
       <c r="A57">
-        <v>23079</v>
+        <v>48736</v>
       </c>
       <c r="B57">
-        <v>230.79</v>
+        <v>243.68</v>
       </c>
       <c r="C57">
-        <v>234.5</v>
+        <v>254</v>
       </c>
       <c r="D57">
         <v>255</v>
       </c>
       <c r="E57">
-        <v>667.9251515151515</v>
+        <v>479.1935678391953</v>
       </c>
       <c r="F57">
-        <v>25.84424793866425</v>
+        <v>21.89049035173025</v>
       </c>
       <c r="G57">
-        <v>88</v>
+        <v>120</v>
       </c>
       <c r="H57">
-        <v>167</v>
+        <v>135</v>
       </c>
       <c r="I57">
         <v>255</v>
       </c>
       <c r="J57">
-        <v>213.75</v>
+        <v>244</v>
       </c>
       <c r="K57">
-        <v>234.5</v>
+        <v>254</v>
       </c>
       <c r="L57">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="58" spans="1:12">
       <c r="A58">
-        <v>23079</v>
+        <v>48887</v>
       </c>
       <c r="B58">
-        <v>230.79</v>
+        <v>244.435</v>
       </c>
       <c r="C58">
-        <v>235</v>
+        <v>254</v>
       </c>
       <c r="D58">
         <v>255</v>
       </c>
       <c r="E58">
-        <v>667.2988888888889</v>
+        <v>468.518366834171</v>
       </c>
       <c r="F58">
-        <v>25.83212900418564</v>
+        <v>21.6452850947769</v>
       </c>
       <c r="G58">
-        <v>93</v>
+        <v>118</v>
       </c>
       <c r="H58">
-        <v>162</v>
+        <v>137</v>
       </c>
       <c r="I58">
         <v>255</v>
       </c>
       <c r="J58">
-        <v>211.75</v>
+        <v>247</v>
       </c>
       <c r="K58">
-        <v>235</v>
+        <v>254</v>
       </c>
       <c r="L58">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="59" spans="1:12">
       <c r="A59">
-        <v>22971</v>
+        <v>48793</v>
       </c>
       <c r="B59">
-        <v>229.71</v>
+        <v>243.965</v>
       </c>
       <c r="C59">
-        <v>233.5</v>
+        <v>254</v>
       </c>
       <c r="D59">
         <v>255</v>
       </c>
       <c r="E59">
-        <v>718.1877777777781</v>
+        <v>490.3455025125637</v>
       </c>
       <c r="F59">
-        <v>26.79902568709874</v>
+        <v>22.143746352245</v>
       </c>
       <c r="G59">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H59">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="I59">
         <v>255</v>
       </c>
       <c r="J59">
-        <v>210.75</v>
+        <v>245</v>
       </c>
       <c r="K59">
-        <v>233.5</v>
+        <v>254</v>
       </c>
       <c r="L59">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="60" spans="1:12">
       <c r="A60">
-        <v>22816</v>
+        <v>48466</v>
       </c>
       <c r="B60">
-        <v>228.16</v>
+        <v>242.33</v>
       </c>
       <c r="C60">
-        <v>231</v>
+        <v>253</v>
       </c>
       <c r="D60">
         <v>255</v>
       </c>
       <c r="E60">
-        <v>796.8024242424233</v>
+        <v>537.0161809045236</v>
       </c>
       <c r="F60">
-        <v>28.22768896389542</v>
+        <v>23.17360957866779</v>
       </c>
       <c r="G60">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="H60">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="I60">
         <v>255</v>
       </c>
       <c r="J60">
-        <v>208</v>
+        <v>242.75</v>
       </c>
       <c r="K60">
-        <v>231</v>
+        <v>253</v>
       </c>
       <c r="L60">
-        <v>253.25</v>
+        <v>255</v>
       </c>
     </row>
     <row r="61" spans="1:12">
       <c r="A61">
-        <v>22564</v>
+        <v>48295</v>
       </c>
       <c r="B61">
-        <v>225.64</v>
+        <v>241.475</v>
       </c>
       <c r="C61">
-        <v>229</v>
+        <v>253</v>
       </c>
       <c r="D61">
         <v>255</v>
       </c>
       <c r="E61">
-        <v>963.2832323232328</v>
+        <v>583.2858040201013</v>
       </c>
       <c r="F61">
-        <v>31.03680447989504</v>
+        <v>24.15131060667519</v>
       </c>
       <c r="G61">
         <v>121</v>
@@ -2722,542 +2722,542 @@
         <v>255</v>
       </c>
       <c r="J61">
-        <v>206.5</v>
+        <v>241.75</v>
       </c>
       <c r="K61">
-        <v>229</v>
+        <v>253</v>
       </c>
       <c r="L61">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="62" spans="1:12">
       <c r="A62">
-        <v>22104</v>
+        <v>48219</v>
       </c>
       <c r="B62">
-        <v>221.04</v>
+        <v>241.095</v>
       </c>
       <c r="C62">
-        <v>228.5</v>
+        <v>252.5</v>
       </c>
       <c r="D62">
         <v>255</v>
       </c>
       <c r="E62">
-        <v>1070.786262626263</v>
+        <v>578.1165577889452</v>
       </c>
       <c r="F62">
-        <v>32.72287063547853</v>
+        <v>24.04405452058669</v>
       </c>
       <c r="G62">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="H62">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="I62">
         <v>255</v>
       </c>
       <c r="J62">
-        <v>199.75</v>
+        <v>241</v>
       </c>
       <c r="K62">
-        <v>228.5</v>
+        <v>252.5</v>
       </c>
       <c r="L62">
-        <v>247</v>
+        <v>255</v>
       </c>
     </row>
     <row r="63" spans="1:12">
       <c r="A63">
-        <v>19752</v>
+        <v>48206</v>
       </c>
       <c r="B63">
-        <v>197.52</v>
+        <v>241.03</v>
       </c>
       <c r="C63">
-        <v>203</v>
+        <v>251.5</v>
       </c>
       <c r="D63">
         <v>255</v>
       </c>
       <c r="E63">
-        <v>2100.817777777778</v>
+        <v>518.9940703517593</v>
       </c>
       <c r="F63">
-        <v>45.83467876813121</v>
+        <v>22.78144135808266</v>
       </c>
       <c r="G63">
+        <v>105</v>
+      </c>
+      <c r="H63">
         <v>150</v>
       </c>
-      <c r="H63">
-        <v>105</v>
-      </c>
       <c r="I63">
         <v>255</v>
       </c>
       <c r="J63">
-        <v>162</v>
+        <v>241.75</v>
       </c>
       <c r="K63">
-        <v>203</v>
+        <v>251.5</v>
       </c>
       <c r="L63">
-        <v>233</v>
+        <v>255</v>
       </c>
     </row>
     <row r="64" spans="1:12">
       <c r="A64">
-        <v>19112</v>
+        <v>48568</v>
       </c>
       <c r="B64">
-        <v>191.12</v>
+        <v>242.84</v>
       </c>
       <c r="C64">
-        <v>201</v>
+        <v>251.5</v>
       </c>
       <c r="D64">
         <v>255</v>
       </c>
       <c r="E64">
-        <v>2854.308686868686</v>
+        <v>336.1451256281404</v>
       </c>
       <c r="F64">
-        <v>53.42573056934913</v>
+        <v>18.33426097851071</v>
       </c>
       <c r="G64">
-        <v>186</v>
+        <v>100</v>
       </c>
       <c r="H64">
-        <v>69</v>
+        <v>155</v>
       </c>
       <c r="I64">
         <v>255</v>
       </c>
       <c r="J64">
-        <v>147.75</v>
+        <v>236.75</v>
       </c>
       <c r="K64">
-        <v>201</v>
+        <v>251.5</v>
       </c>
       <c r="L64">
-        <v>232.25</v>
+        <v>255</v>
       </c>
     </row>
     <row r="65" spans="1:12">
       <c r="A65">
-        <v>19120</v>
+        <v>48822</v>
       </c>
       <c r="B65">
-        <v>191.2</v>
+        <v>244.11</v>
       </c>
       <c r="C65">
-        <v>200</v>
+        <v>251.5</v>
       </c>
       <c r="D65">
         <v>255</v>
       </c>
       <c r="E65">
-        <v>2802.363636363636</v>
+        <v>235.4350753768848</v>
       </c>
       <c r="F65">
-        <v>52.93735577419442</v>
+        <v>15.34389374887889</v>
       </c>
       <c r="G65">
-        <v>188</v>
+        <v>88</v>
       </c>
       <c r="H65">
-        <v>67</v>
+        <v>167</v>
       </c>
       <c r="I65">
         <v>255</v>
       </c>
       <c r="J65">
-        <v>149</v>
+        <v>237</v>
       </c>
       <c r="K65">
-        <v>200</v>
+        <v>251.5</v>
       </c>
       <c r="L65">
-        <v>234</v>
+        <v>255</v>
       </c>
     </row>
     <row r="66" spans="1:12">
       <c r="A66">
-        <v>20164</v>
+        <v>48882</v>
       </c>
       <c r="B66">
-        <v>201.64</v>
+        <v>244.41</v>
       </c>
       <c r="C66">
-        <v>207</v>
+        <v>252</v>
       </c>
       <c r="D66">
         <v>255</v>
       </c>
       <c r="E66">
-        <v>1822.75797979798</v>
+        <v>185.7707537688439</v>
       </c>
       <c r="F66">
-        <v>42.69376980073299</v>
+        <v>13.62977453110813</v>
       </c>
       <c r="G66">
-        <v>174</v>
+        <v>78</v>
       </c>
       <c r="H66">
-        <v>81</v>
+        <v>177</v>
       </c>
       <c r="I66">
         <v>255</v>
       </c>
       <c r="J66">
-        <v>166</v>
+        <v>234</v>
       </c>
       <c r="K66">
-        <v>207</v>
+        <v>252</v>
       </c>
       <c r="L66">
-        <v>240.25</v>
+        <v>255</v>
       </c>
     </row>
     <row r="67" spans="1:12">
       <c r="A67">
-        <v>19746</v>
+        <v>48627</v>
       </c>
       <c r="B67">
-        <v>197.46</v>
+        <v>243.135</v>
       </c>
       <c r="C67">
-        <v>207</v>
+        <v>251</v>
       </c>
       <c r="D67">
         <v>255</v>
       </c>
       <c r="E67">
-        <v>2091.200404040404</v>
+        <v>232.0168592964827</v>
       </c>
       <c r="F67">
-        <v>45.72964469619684</v>
+        <v>15.23209963519418</v>
       </c>
       <c r="G67">
-        <v>172</v>
+        <v>58</v>
       </c>
       <c r="H67">
-        <v>83</v>
+        <v>197</v>
       </c>
       <c r="I67">
         <v>255</v>
       </c>
       <c r="J67">
-        <v>159.25</v>
+        <v>233</v>
       </c>
       <c r="K67">
-        <v>207</v>
+        <v>251</v>
       </c>
       <c r="L67">
-        <v>238.5</v>
+        <v>255</v>
       </c>
     </row>
     <row r="68" spans="1:12">
       <c r="A68">
-        <v>19276</v>
+        <v>48635</v>
       </c>
       <c r="B68">
-        <v>192.76</v>
+        <v>243.175</v>
       </c>
       <c r="C68">
-        <v>203.5</v>
+        <v>250</v>
       </c>
       <c r="D68">
         <v>255</v>
       </c>
       <c r="E68">
-        <v>2742.487272727273</v>
+        <v>217.8837939698498</v>
       </c>
       <c r="F68">
-        <v>52.36876237536336</v>
+        <v>14.76088730293168</v>
       </c>
       <c r="G68">
-        <v>218</v>
+        <v>48</v>
       </c>
       <c r="H68">
-        <v>37</v>
+        <v>207</v>
       </c>
       <c r="I68">
         <v>255</v>
       </c>
       <c r="J68">
-        <v>155.75</v>
+        <v>232.75</v>
       </c>
       <c r="K68">
-        <v>203.5</v>
+        <v>250</v>
       </c>
       <c r="L68">
-        <v>236</v>
+        <v>255</v>
       </c>
     </row>
     <row r="69" spans="1:12">
       <c r="A69">
-        <v>18817</v>
+        <v>48384</v>
       </c>
       <c r="B69">
-        <v>188.17</v>
+        <v>241.92</v>
       </c>
       <c r="C69">
-        <v>196</v>
+        <v>251</v>
       </c>
       <c r="D69">
         <v>255</v>
       </c>
       <c r="E69">
-        <v>3056.708181818181</v>
+        <v>292.9081407035175</v>
       </c>
       <c r="F69">
-        <v>55.28750475304687</v>
+        <v>17.11455931958277</v>
       </c>
       <c r="G69">
+        <v>54</v>
+      </c>
+      <c r="H69">
         <v>201</v>
       </c>
-      <c r="H69">
-        <v>54</v>
-      </c>
       <c r="I69">
         <v>255</v>
       </c>
       <c r="J69">
-        <v>150.75</v>
+        <v>234</v>
       </c>
       <c r="K69">
-        <v>196</v>
+        <v>251</v>
       </c>
       <c r="L69">
-        <v>233</v>
+        <v>255</v>
       </c>
     </row>
     <row r="70" spans="1:12">
       <c r="A70">
-        <v>19208</v>
+        <v>47980</v>
       </c>
       <c r="B70">
-        <v>192.08</v>
+        <v>239.9</v>
       </c>
       <c r="C70">
-        <v>194.5</v>
+        <v>252</v>
       </c>
       <c r="D70">
         <v>255</v>
       </c>
       <c r="E70">
-        <v>2629.549090909091</v>
+        <v>393.7989949748737</v>
       </c>
       <c r="F70">
-        <v>51.27912919413795</v>
+        <v>19.84436935190619</v>
       </c>
       <c r="G70">
-        <v>213</v>
+        <v>59</v>
       </c>
       <c r="H70">
-        <v>42</v>
+        <v>196</v>
       </c>
       <c r="I70">
         <v>255</v>
       </c>
       <c r="J70">
-        <v>158.5</v>
+        <v>225</v>
       </c>
       <c r="K70">
-        <v>194.5</v>
+        <v>252</v>
       </c>
       <c r="L70">
-        <v>247.75</v>
+        <v>255</v>
       </c>
     </row>
     <row r="71" spans="1:12">
       <c r="A71">
-        <v>20326</v>
+        <v>47609</v>
       </c>
       <c r="B71">
-        <v>203.26</v>
+        <v>238.045</v>
       </c>
       <c r="C71">
-        <v>206.5</v>
+        <v>252</v>
       </c>
       <c r="D71">
         <v>255</v>
       </c>
       <c r="E71">
-        <v>1652.982222222223</v>
+        <v>437.5406783919589</v>
       </c>
       <c r="F71">
-        <v>40.65688406927199</v>
+        <v>20.91747304030673</v>
       </c>
       <c r="G71">
-        <v>183</v>
+        <v>59</v>
       </c>
       <c r="H71">
-        <v>72</v>
+        <v>196</v>
       </c>
       <c r="I71">
         <v>255</v>
       </c>
       <c r="J71">
-        <v>174.5</v>
+        <v>215.75</v>
       </c>
       <c r="K71">
-        <v>206.5</v>
+        <v>252</v>
       </c>
       <c r="L71">
-        <v>245.5</v>
+        <v>255</v>
       </c>
     </row>
     <row r="72" spans="1:12">
       <c r="A72">
-        <v>19173</v>
+        <v>47336</v>
       </c>
       <c r="B72">
-        <v>191.73</v>
+        <v>236.68</v>
       </c>
       <c r="C72">
-        <v>198</v>
+        <v>251</v>
       </c>
       <c r="D72">
         <v>255</v>
       </c>
       <c r="E72">
-        <v>2677.613232323233</v>
+        <v>442.0578894472346</v>
       </c>
       <c r="F72">
-        <v>51.74565906743514</v>
+        <v>21.02517275665612</v>
       </c>
       <c r="G72">
-        <v>198</v>
+        <v>62</v>
       </c>
       <c r="H72">
-        <v>57</v>
+        <v>193</v>
       </c>
       <c r="I72">
         <v>255</v>
       </c>
       <c r="J72">
-        <v>152.75</v>
+        <v>215</v>
       </c>
       <c r="K72">
-        <v>198</v>
+        <v>251</v>
       </c>
       <c r="L72">
-        <v>247.25</v>
+        <v>255</v>
       </c>
     </row>
     <row r="73" spans="1:12">
       <c r="A73">
-        <v>19107</v>
+        <v>47143</v>
       </c>
       <c r="B73">
-        <v>191.07</v>
+        <v>235.715</v>
       </c>
       <c r="C73">
-        <v>195</v>
+        <v>249</v>
       </c>
       <c r="D73">
         <v>255</v>
       </c>
       <c r="E73">
-        <v>2666.833434343434</v>
+        <v>443.9535427135685</v>
       </c>
       <c r="F73">
-        <v>51.64139264527473</v>
+        <v>21.07020509424549</v>
       </c>
       <c r="G73">
-        <v>191</v>
+        <v>63</v>
       </c>
       <c r="H73">
-        <v>64</v>
+        <v>192</v>
       </c>
       <c r="I73">
         <v>255</v>
       </c>
       <c r="J73">
-        <v>151.75</v>
+        <v>215.75</v>
       </c>
       <c r="K73">
-        <v>195</v>
+        <v>249</v>
       </c>
       <c r="L73">
-        <v>250.25</v>
+        <v>255</v>
       </c>
     </row>
     <row r="74" spans="1:12">
       <c r="A74">
-        <v>20969</v>
+        <v>47040</v>
       </c>
       <c r="B74">
-        <v>209.69</v>
+        <v>235.2</v>
       </c>
       <c r="C74">
-        <v>209</v>
+        <v>244.5</v>
       </c>
       <c r="D74">
         <v>255</v>
       </c>
       <c r="E74">
-        <v>1302.397878787879</v>
+        <v>441.5477386934658</v>
       </c>
       <c r="F74">
-        <v>36.08875003083204</v>
+        <v>21.01303735049899</v>
       </c>
       <c r="G74">
-        <v>142</v>
+        <v>65</v>
       </c>
       <c r="H74">
-        <v>113</v>
+        <v>190</v>
       </c>
       <c r="I74">
         <v>255</v>
       </c>
       <c r="J74">
-        <v>196.75</v>
+        <v>215</v>
       </c>
       <c r="K74">
-        <v>209</v>
+        <v>244.5</v>
       </c>
       <c r="L74">
-        <v>252</v>
+        <v>255</v>
       </c>
     </row>
     <row r="75" spans="1:12">
       <c r="A75">
-        <v>22614</v>
+        <v>47017</v>
       </c>
       <c r="B75">
-        <v>226.14</v>
+        <v>235.085</v>
       </c>
       <c r="C75">
-        <v>251.5</v>
+        <v>239</v>
       </c>
       <c r="D75">
         <v>255</v>
       </c>
       <c r="E75">
-        <v>1065.293333333334</v>
+        <v>430.9927386934672</v>
       </c>
       <c r="F75">
-        <v>32.63883167843687</v>
+        <v>20.76036460887591</v>
       </c>
       <c r="G75">
-        <v>111</v>
+        <v>64</v>
       </c>
       <c r="H75">
-        <v>144</v>
+        <v>191</v>
       </c>
       <c r="I75">
         <v>255</v>
       </c>
       <c r="J75">
-        <v>197.5</v>
+        <v>215.75</v>
       </c>
       <c r="K75">
-        <v>251.5</v>
+        <v>239</v>
       </c>
       <c r="L75">
         <v>255</v>
@@ -3265,37 +3265,37 @@
     </row>
     <row r="76" spans="1:12">
       <c r="A76">
-        <v>22784</v>
+        <v>47078</v>
       </c>
       <c r="B76">
-        <v>227.84</v>
+        <v>235.39</v>
       </c>
       <c r="C76">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="D76">
         <v>255</v>
       </c>
       <c r="E76">
-        <v>920.4589898989886</v>
+        <v>433.0330653266331</v>
       </c>
       <c r="F76">
-        <v>30.33906705716227</v>
+        <v>20.80944654061307</v>
       </c>
       <c r="G76">
-        <v>106</v>
+        <v>63</v>
       </c>
       <c r="H76">
-        <v>149</v>
+        <v>192</v>
       </c>
       <c r="I76">
         <v>255</v>
       </c>
       <c r="J76">
-        <v>199.75</v>
+        <v>217</v>
       </c>
       <c r="K76">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="L76">
         <v>255</v>
@@ -3303,37 +3303,37 @@
     </row>
     <row r="77" spans="1:12">
       <c r="A77">
-        <v>22834</v>
+        <v>47169</v>
       </c>
       <c r="B77">
-        <v>228.34</v>
+        <v>235.845</v>
       </c>
       <c r="C77">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="D77">
         <v>255</v>
       </c>
       <c r="E77">
-        <v>944.7721212121219</v>
+        <v>414.8351507537697</v>
       </c>
       <c r="F77">
-        <v>30.73714562564523</v>
+        <v>20.36750231996476</v>
       </c>
       <c r="G77">
-        <v>97</v>
+        <v>65</v>
       </c>
       <c r="H77">
-        <v>158</v>
+        <v>190</v>
       </c>
       <c r="I77">
         <v>255</v>
       </c>
       <c r="J77">
-        <v>202.75</v>
+        <v>218</v>
       </c>
       <c r="K77">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="L77">
         <v>255</v>
@@ -3341,37 +3341,37 @@
     </row>
     <row r="78" spans="1:12">
       <c r="A78">
-        <v>22818</v>
+        <v>47303</v>
       </c>
       <c r="B78">
-        <v>228.18</v>
+        <v>236.515</v>
       </c>
       <c r="C78">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="D78">
         <v>255</v>
       </c>
       <c r="E78">
-        <v>1023.037979797978</v>
+        <v>425.7585678391965</v>
       </c>
       <c r="F78">
-        <v>31.98496490224709</v>
+        <v>20.63391789843113</v>
       </c>
       <c r="G78">
-        <v>101</v>
+        <v>72</v>
       </c>
       <c r="H78">
-        <v>154</v>
+        <v>183</v>
       </c>
       <c r="I78">
         <v>255</v>
       </c>
       <c r="J78">
-        <v>197</v>
+        <v>219</v>
       </c>
       <c r="K78">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="L78">
         <v>255</v>
@@ -3379,37 +3379,37 @@
     </row>
     <row r="79" spans="1:12">
       <c r="A79">
-        <v>22784</v>
+        <v>47500</v>
       </c>
       <c r="B79">
-        <v>227.84</v>
+        <v>237.5</v>
       </c>
       <c r="C79">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="D79">
         <v>255</v>
       </c>
       <c r="E79">
-        <v>1115.145858585857</v>
+        <v>421.3969849246231</v>
       </c>
       <c r="F79">
-        <v>33.3937997027271</v>
+        <v>20.52795617991774</v>
       </c>
       <c r="G79">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="H79">
-        <v>162</v>
+        <v>186</v>
       </c>
       <c r="I79">
         <v>255</v>
       </c>
       <c r="J79">
-        <v>193</v>
+        <v>219</v>
       </c>
       <c r="K79">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="L79">
         <v>255</v>
@@ -3417,37 +3417,37 @@
     </row>
     <row r="80" spans="1:12">
       <c r="A80">
-        <v>22792</v>
+        <v>47857</v>
       </c>
       <c r="B80">
-        <v>227.92</v>
+        <v>239.285</v>
       </c>
       <c r="C80">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="D80">
         <v>255</v>
       </c>
       <c r="E80">
-        <v>1139.488484848486</v>
+        <v>410.3656030150763</v>
       </c>
       <c r="F80">
-        <v>33.75631029672061</v>
+        <v>20.25748264259595</v>
       </c>
       <c r="G80">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="H80">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="I80">
         <v>255</v>
       </c>
       <c r="J80">
-        <v>194.75</v>
+        <v>230</v>
       </c>
       <c r="K80">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="L80">
         <v>255</v>
@@ -3455,37 +3455,37 @@
     </row>
     <row r="81" spans="1:12">
       <c r="A81">
-        <v>22842</v>
+        <v>48078</v>
       </c>
       <c r="B81">
-        <v>228.42</v>
+        <v>240.39</v>
       </c>
       <c r="C81">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D81">
         <v>255</v>
       </c>
       <c r="E81">
-        <v>1144.448080808081</v>
+        <v>450.4501507537684</v>
       </c>
       <c r="F81">
-        <v>33.82969229549807</v>
+        <v>21.22381093851357</v>
       </c>
       <c r="G81">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="H81">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="I81">
         <v>255</v>
       </c>
       <c r="J81">
-        <v>192</v>
+        <v>231.75</v>
       </c>
       <c r="K81">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="L81">
         <v>255</v>
@@ -3493,37 +3493,37 @@
     </row>
     <row r="82" spans="1:12">
       <c r="A82">
-        <v>22820</v>
+        <v>48070</v>
       </c>
       <c r="B82">
-        <v>228.2</v>
+        <v>240.35</v>
       </c>
       <c r="C82">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D82">
         <v>255</v>
       </c>
       <c r="E82">
-        <v>1180.929292929294</v>
+        <v>480.8216080402009</v>
       </c>
       <c r="F82">
-        <v>34.36465179409351</v>
+        <v>21.92764483569088</v>
       </c>
       <c r="G82">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="H82">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="I82">
         <v>255</v>
       </c>
       <c r="J82">
-        <v>188.75</v>
+        <v>232</v>
       </c>
       <c r="K82">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="L82">
         <v>255</v>
@@ -3531,37 +3531,37 @@
     </row>
     <row r="83" spans="1:12">
       <c r="A83">
-        <v>22858</v>
+        <v>48010</v>
       </c>
       <c r="B83">
-        <v>228.58</v>
+        <v>240.05</v>
       </c>
       <c r="C83">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D83">
         <v>255</v>
       </c>
       <c r="E83">
-        <v>1272.831919191917</v>
+        <v>503.1834170854274</v>
       </c>
       <c r="F83">
-        <v>35.67677002184919</v>
+        <v>22.43175020111956</v>
       </c>
       <c r="G83">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="H83">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="I83">
         <v>255</v>
       </c>
       <c r="J83">
-        <v>185.75</v>
+        <v>233.75</v>
       </c>
       <c r="K83">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="L83">
         <v>255</v>
@@ -3569,37 +3569,37 @@
     </row>
     <row r="84" spans="1:12">
       <c r="A84">
-        <v>22826</v>
+        <v>48018</v>
       </c>
       <c r="B84">
-        <v>228.26</v>
+        <v>240.09</v>
       </c>
       <c r="C84">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D84">
         <v>255</v>
       </c>
       <c r="E84">
-        <v>1357.85090909091</v>
+        <v>528.9767839195977</v>
       </c>
       <c r="F84">
-        <v>36.84902860444098</v>
+        <v>22.99949529706245</v>
       </c>
       <c r="G84">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="H84">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="I84">
         <v>255</v>
       </c>
       <c r="J84">
-        <v>183</v>
+        <v>234</v>
       </c>
       <c r="K84">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="L84">
         <v>255</v>
@@ -3607,37 +3607,37 @@
     </row>
     <row r="85" spans="1:12">
       <c r="A85">
-        <v>22782</v>
+        <v>47996</v>
       </c>
       <c r="B85">
-        <v>227.82</v>
+        <v>239.98</v>
       </c>
       <c r="C85">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D85">
         <v>255</v>
       </c>
       <c r="E85">
-        <v>1531.644040404039</v>
+        <v>554.5925628140692</v>
       </c>
       <c r="F85">
-        <v>39.13622414597555</v>
+        <v>23.54978901846191</v>
       </c>
       <c r="G85">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="H85">
-        <v>142</v>
+        <v>164</v>
       </c>
       <c r="I85">
         <v>255</v>
       </c>
       <c r="J85">
-        <v>178</v>
+        <v>234.25</v>
       </c>
       <c r="K85">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="L85">
         <v>255</v>
@@ -3645,37 +3645,37 @@
     </row>
     <row r="86" spans="1:12">
       <c r="A86">
-        <v>22814</v>
+        <v>47910</v>
       </c>
       <c r="B86">
-        <v>228.14</v>
+        <v>239.55</v>
       </c>
       <c r="C86">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="D86">
         <v>255</v>
       </c>
       <c r="E86">
-        <v>1640.889292929293</v>
+        <v>565.7964824120601</v>
       </c>
       <c r="F86">
-        <v>40.50789173641715</v>
+        <v>23.786476881036</v>
       </c>
       <c r="G86">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="H86">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="I86">
         <v>255</v>
       </c>
       <c r="J86">
-        <v>175</v>
+        <v>234.5</v>
       </c>
       <c r="K86">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="L86">
         <v>255</v>
@@ -3683,37 +3683,37 @@
     </row>
     <row r="87" spans="1:12">
       <c r="A87">
-        <v>22732</v>
+        <v>48005</v>
       </c>
       <c r="B87">
-        <v>227.32</v>
+        <v>240.025</v>
       </c>
       <c r="C87">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D87">
         <v>255</v>
       </c>
       <c r="E87">
-        <v>1761.755151515149</v>
+        <v>554.3762562814076</v>
       </c>
       <c r="F87">
-        <v>41.97326710556553</v>
+        <v>23.54519603404074</v>
       </c>
       <c r="G87">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="H87">
-        <v>132</v>
+        <v>158</v>
       </c>
       <c r="I87">
         <v>255</v>
       </c>
       <c r="J87">
-        <v>174.75</v>
+        <v>234.5</v>
       </c>
       <c r="K87">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="L87">
         <v>255</v>
@@ -3721,37 +3721,37 @@
     </row>
     <row r="88" spans="1:12">
       <c r="A88">
-        <v>22220</v>
+        <v>48039</v>
       </c>
       <c r="B88">
-        <v>222.2</v>
+        <v>240.195</v>
       </c>
       <c r="C88">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D88">
         <v>255</v>
       </c>
       <c r="E88">
-        <v>2293.636363636362</v>
+        <v>518.8311306532655</v>
       </c>
       <c r="F88">
-        <v>47.89192378299666</v>
+        <v>22.77786492745239</v>
       </c>
       <c r="G88">
-        <v>139</v>
+        <v>95</v>
       </c>
       <c r="H88">
-        <v>116</v>
+        <v>160</v>
       </c>
       <c r="I88">
         <v>255</v>
       </c>
       <c r="J88">
-        <v>184.5</v>
+        <v>234.75</v>
       </c>
       <c r="K88">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="L88">
         <v>255</v>
@@ -3759,37 +3759,37 @@
     </row>
     <row r="89" spans="1:12">
       <c r="A89">
-        <v>21821</v>
+        <v>48062</v>
       </c>
       <c r="B89">
-        <v>218.21</v>
+        <v>240.31</v>
       </c>
       <c r="C89">
-        <v>255</v>
+        <v>252.5</v>
       </c>
       <c r="D89">
         <v>255</v>
       </c>
       <c r="E89">
-        <v>2976.753434343439</v>
+        <v>497.6119597989957</v>
       </c>
       <c r="F89">
-        <v>54.55963191172975</v>
+        <v>22.30721766153268</v>
       </c>
       <c r="G89">
-        <v>167</v>
+        <v>95</v>
       </c>
       <c r="H89">
-        <v>88</v>
+        <v>160</v>
       </c>
       <c r="I89">
         <v>255</v>
       </c>
       <c r="J89">
-        <v>185.75</v>
+        <v>236.25</v>
       </c>
       <c r="K89">
-        <v>255</v>
+        <v>252.5</v>
       </c>
       <c r="L89">
         <v>255</v>
@@ -3797,37 +3797,37 @@
     </row>
     <row r="90" spans="1:12">
       <c r="A90">
-        <v>21988</v>
+        <v>48079</v>
       </c>
       <c r="B90">
-        <v>219.88</v>
+        <v>240.395</v>
       </c>
       <c r="C90">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D90">
         <v>255</v>
       </c>
       <c r="E90">
-        <v>2672.389494949496</v>
+        <v>487.6472110552763</v>
       </c>
       <c r="F90">
-        <v>51.69515929900493</v>
+        <v>22.08273558813029</v>
       </c>
       <c r="G90">
-        <v>146</v>
+        <v>94</v>
       </c>
       <c r="H90">
-        <v>109</v>
+        <v>161</v>
       </c>
       <c r="I90">
         <v>255</v>
       </c>
       <c r="J90">
-        <v>194.75</v>
+        <v>237</v>
       </c>
       <c r="K90">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="L90">
         <v>255</v>
@@ -3835,37 +3835,37 @@
     </row>
     <row r="91" spans="1:12">
       <c r="A91">
-        <v>22511</v>
+        <v>48001</v>
       </c>
       <c r="B91">
-        <v>225.11</v>
+        <v>240.005</v>
       </c>
       <c r="C91">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D91">
         <v>255</v>
       </c>
       <c r="E91">
-        <v>1936.199898989895</v>
+        <v>491.9748492462324</v>
       </c>
       <c r="F91">
-        <v>44.00227152079646</v>
+        <v>22.18050606379919</v>
       </c>
       <c r="G91">
-        <v>123</v>
+        <v>95</v>
       </c>
       <c r="H91">
-        <v>132</v>
+        <v>160</v>
       </c>
       <c r="I91">
         <v>255</v>
       </c>
       <c r="J91">
-        <v>196.5</v>
+        <v>235.25</v>
       </c>
       <c r="K91">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="L91">
         <v>255</v>
@@ -3873,37 +3873,37 @@
     </row>
     <row r="92" spans="1:12">
       <c r="A92">
-        <v>23224</v>
+        <v>47940</v>
       </c>
       <c r="B92">
-        <v>232.24</v>
+        <v>239.7</v>
       </c>
       <c r="C92">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="D92">
         <v>255</v>
       </c>
       <c r="E92">
-        <v>1181.376161616163</v>
+        <v>501.879396984924</v>
       </c>
       <c r="F92">
-        <v>34.37115304461233</v>
+        <v>22.40266495274444</v>
       </c>
       <c r="G92">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="H92">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="I92">
         <v>255</v>
       </c>
       <c r="J92">
-        <v>207.5</v>
+        <v>233</v>
       </c>
       <c r="K92">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="L92">
         <v>255</v>
@@ -3911,37 +3911,37 @@
     </row>
     <row r="93" spans="1:12">
       <c r="A93">
-        <v>23981</v>
+        <v>47898</v>
       </c>
       <c r="B93">
-        <v>239.81</v>
+        <v>239.49</v>
       </c>
       <c r="C93">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="D93">
         <v>255</v>
       </c>
       <c r="E93">
-        <v>525.125151515152</v>
+        <v>507.4873366834176</v>
       </c>
       <c r="F93">
-        <v>22.91560934199988</v>
+        <v>22.52747959012321</v>
       </c>
       <c r="G93">
-        <v>63</v>
+        <v>97</v>
       </c>
       <c r="H93">
-        <v>192</v>
+        <v>158</v>
       </c>
       <c r="I93">
         <v>255</v>
       </c>
       <c r="J93">
-        <v>218.75</v>
+        <v>231</v>
       </c>
       <c r="K93">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="L93">
         <v>255</v>
@@ -3949,37 +3949,37 @@
     </row>
     <row r="94" spans="1:12">
       <c r="A94">
-        <v>24540</v>
+        <v>47880</v>
       </c>
       <c r="B94">
-        <v>245.4</v>
+        <v>239.4</v>
       </c>
       <c r="C94">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D94">
         <v>255</v>
       </c>
       <c r="E94">
-        <v>218.3030303030303</v>
+        <v>517.8994974874379</v>
       </c>
       <c r="F94">
-        <v>14.77508139750947</v>
+        <v>22.75740533293367</v>
       </c>
       <c r="G94">
-        <v>42</v>
+        <v>101</v>
       </c>
       <c r="H94">
-        <v>213</v>
+        <v>154</v>
       </c>
       <c r="I94">
         <v>255</v>
       </c>
       <c r="J94">
-        <v>239</v>
+        <v>229.75</v>
       </c>
       <c r="K94">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="L94">
         <v>255</v>
@@ -3987,37 +3987,37 @@
     </row>
     <row r="95" spans="1:12">
       <c r="A95">
-        <v>25132</v>
+        <v>47863</v>
       </c>
       <c r="B95">
-        <v>251.32</v>
+        <v>239.315</v>
       </c>
       <c r="C95">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D95">
         <v>255</v>
       </c>
       <c r="E95">
-        <v>29.18949494949502</v>
+        <v>523.3525376884419</v>
       </c>
       <c r="F95">
-        <v>5.402730323595193</v>
+        <v>22.8768996520167</v>
       </c>
       <c r="G95">
-        <v>18</v>
+        <v>104</v>
       </c>
       <c r="H95">
-        <v>237</v>
+        <v>151</v>
       </c>
       <c r="I95">
         <v>255</v>
       </c>
       <c r="J95">
-        <v>250</v>
+        <v>228.75</v>
       </c>
       <c r="K95">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="L95">
         <v>255</v>
@@ -4025,37 +4025,37 @@
     </row>
     <row r="96" spans="1:12">
       <c r="A96">
-        <v>25314</v>
+        <v>47859</v>
       </c>
       <c r="B96">
-        <v>253.14</v>
+        <v>239.295</v>
       </c>
       <c r="C96">
-        <v>254</v>
+        <v>251.5</v>
       </c>
       <c r="D96">
         <v>255</v>
       </c>
       <c r="E96">
-        <v>4.404444444444435</v>
+        <v>518.9125376884418</v>
       </c>
       <c r="F96">
-        <v>2.09867683182629</v>
+        <v>22.77965183422349</v>
       </c>
       <c r="G96">
-        <v>7</v>
+        <v>106</v>
       </c>
       <c r="H96">
-        <v>248</v>
+        <v>149</v>
       </c>
       <c r="I96">
         <v>255</v>
       </c>
       <c r="J96">
-        <v>251</v>
+        <v>227.75</v>
       </c>
       <c r="K96">
-        <v>254</v>
+        <v>251.5</v>
       </c>
       <c r="L96">
         <v>255</v>
@@ -4063,37 +4063,37 @@
     </row>
     <row r="97" spans="1:12">
       <c r="A97">
-        <v>25241</v>
+        <v>47857</v>
       </c>
       <c r="B97">
-        <v>252.41</v>
+        <v>239.285</v>
       </c>
       <c r="C97">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D97">
         <v>255</v>
       </c>
       <c r="E97">
-        <v>17.21404040404044</v>
+        <v>512.5063065326643</v>
       </c>
       <c r="F97">
-        <v>4.148980646380559</v>
+        <v>22.63860213292032</v>
       </c>
       <c r="G97">
-        <v>19</v>
+        <v>106</v>
       </c>
       <c r="H97">
-        <v>236</v>
+        <v>149</v>
       </c>
       <c r="I97">
         <v>255</v>
       </c>
       <c r="J97">
+        <v>226.75</v>
+      </c>
+      <c r="K97">
         <v>251</v>
-      </c>
-      <c r="K97">
-        <v>255</v>
       </c>
       <c r="L97">
         <v>255</v>
@@ -4101,37 +4101,37 @@
     </row>
     <row r="98" spans="1:12">
       <c r="A98">
-        <v>24672</v>
+        <v>47863</v>
       </c>
       <c r="B98">
-        <v>246.72</v>
+        <v>239.315</v>
       </c>
       <c r="C98">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D98">
         <v>255</v>
       </c>
       <c r="E98">
-        <v>349.0319191919201</v>
+        <v>509.2620854271352</v>
       </c>
       <c r="F98">
-        <v>18.68239597032244</v>
+        <v>22.56683596402329</v>
       </c>
       <c r="G98">
-        <v>68</v>
+        <v>104</v>
       </c>
       <c r="H98">
-        <v>187</v>
+        <v>151</v>
       </c>
       <c r="I98">
         <v>255</v>
       </c>
       <c r="J98">
+        <v>227</v>
+      </c>
+      <c r="K98">
         <v>252</v>
-      </c>
-      <c r="K98">
-        <v>254</v>
       </c>
       <c r="L98">
         <v>255</v>
@@ -4139,37 +4139,37 @@
     </row>
     <row r="99" spans="1:12">
       <c r="A99">
-        <v>24809</v>
+        <v>47779</v>
       </c>
       <c r="B99">
-        <v>248.09</v>
+        <v>238.895</v>
       </c>
       <c r="C99">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D99">
         <v>255</v>
       </c>
       <c r="E99">
-        <v>262.1635353535361</v>
+        <v>511.6723366834171</v>
       </c>
       <c r="F99">
-        <v>16.19146489214414</v>
+        <v>22.62017543440849</v>
       </c>
       <c r="G99">
-        <v>76</v>
+        <v>103</v>
       </c>
       <c r="H99">
-        <v>179</v>
+        <v>152</v>
       </c>
       <c r="I99">
         <v>255</v>
       </c>
       <c r="J99">
-        <v>253</v>
+        <v>228</v>
       </c>
       <c r="K99">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="L99">
         <v>255</v>
@@ -4177,37 +4177,37 @@
     </row>
     <row r="100" spans="1:12">
       <c r="A100">
-        <v>24696</v>
+        <v>47702</v>
       </c>
       <c r="B100">
-        <v>246.96</v>
+        <v>238.51</v>
       </c>
       <c r="C100">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="D100">
         <v>255</v>
       </c>
       <c r="E100">
-        <v>355.4125252525258</v>
+        <v>517.105427135679</v>
       </c>
       <c r="F100">
-        <v>18.85238778649871</v>
+        <v>22.73995222368945</v>
       </c>
       <c r="G100">
-        <v>61</v>
+        <v>105</v>
       </c>
       <c r="H100">
-        <v>194</v>
+        <v>150</v>
       </c>
       <c r="I100">
         <v>255</v>
       </c>
       <c r="J100">
-        <v>253</v>
+        <v>228</v>
       </c>
       <c r="K100">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="L100">
         <v>255</v>
@@ -4215,39 +4215,3839 @@
     </row>
     <row r="101" spans="1:12">
       <c r="A101">
-        <v>25371</v>
+        <v>47645</v>
       </c>
       <c r="B101">
-        <v>253.71</v>
+        <v>238.225</v>
       </c>
       <c r="C101">
+        <v>250.5</v>
+      </c>
+      <c r="D101">
+        <v>255</v>
+      </c>
+      <c r="E101">
+        <v>525.682788944723</v>
+      </c>
+      <c r="F101">
+        <v>22.92777330978137</v>
+      </c>
+      <c r="G101">
+        <v>105</v>
+      </c>
+      <c r="H101">
+        <v>150</v>
+      </c>
+      <c r="I101">
+        <v>255</v>
+      </c>
+      <c r="J101">
+        <v>227</v>
+      </c>
+      <c r="K101">
+        <v>250.5</v>
+      </c>
+      <c r="L101">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12">
+      <c r="A102">
+        <v>47494</v>
+      </c>
+      <c r="B102">
+        <v>237.47</v>
+      </c>
+      <c r="C102">
+        <v>249</v>
+      </c>
+      <c r="D102">
+        <v>255</v>
+      </c>
+      <c r="E102">
+        <v>537.8784924623121</v>
+      </c>
+      <c r="F102">
+        <v>23.19220758061449</v>
+      </c>
+      <c r="G102">
+        <v>107</v>
+      </c>
+      <c r="H102">
+        <v>148</v>
+      </c>
+      <c r="I102">
+        <v>255</v>
+      </c>
+      <c r="J102">
+        <v>226</v>
+      </c>
+      <c r="K102">
+        <v>249</v>
+      </c>
+      <c r="L102">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12">
+      <c r="A103">
+        <v>47302</v>
+      </c>
+      <c r="B103">
+        <v>236.51</v>
+      </c>
+      <c r="C103">
+        <v>247</v>
+      </c>
+      <c r="D103">
+        <v>255</v>
+      </c>
+      <c r="E103">
+        <v>544.4823115577881</v>
+      </c>
+      <c r="F103">
+        <v>23.33414475736765</v>
+      </c>
+      <c r="G103">
+        <v>105</v>
+      </c>
+      <c r="H103">
+        <v>150</v>
+      </c>
+      <c r="I103">
+        <v>255</v>
+      </c>
+      <c r="J103">
+        <v>225</v>
+      </c>
+      <c r="K103">
+        <v>247</v>
+      </c>
+      <c r="L103">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12">
+      <c r="A104">
+        <v>47077</v>
+      </c>
+      <c r="B104">
+        <v>235.385</v>
+      </c>
+      <c r="C104">
+        <v>245</v>
+      </c>
+      <c r="D104">
+        <v>255</v>
+      </c>
+      <c r="E104">
+        <v>555.6450000000006</v>
+      </c>
+      <c r="F104">
+        <v>23.57212336638345</v>
+      </c>
+      <c r="G104">
+        <v>102</v>
+      </c>
+      <c r="H104">
+        <v>153</v>
+      </c>
+      <c r="I104">
+        <v>255</v>
+      </c>
+      <c r="J104">
+        <v>223</v>
+      </c>
+      <c r="K104">
+        <v>245</v>
+      </c>
+      <c r="L104">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12">
+      <c r="A105">
+        <v>46839</v>
+      </c>
+      <c r="B105">
+        <v>234.195</v>
+      </c>
+      <c r="C105">
+        <v>241</v>
+      </c>
+      <c r="D105">
+        <v>255</v>
+      </c>
+      <c r="E105">
+        <v>569.9266080402011</v>
+      </c>
+      <c r="F105">
+        <v>23.8731356976875</v>
+      </c>
+      <c r="G105">
+        <v>98</v>
+      </c>
+      <c r="H105">
+        <v>157</v>
+      </c>
+      <c r="I105">
+        <v>255</v>
+      </c>
+      <c r="J105">
+        <v>221</v>
+      </c>
+      <c r="K105">
+        <v>241</v>
+      </c>
+      <c r="L105">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12">
+      <c r="A106">
+        <v>46626</v>
+      </c>
+      <c r="B106">
+        <v>233.13</v>
+      </c>
+      <c r="C106">
+        <v>239</v>
+      </c>
+      <c r="D106">
+        <v>255</v>
+      </c>
+      <c r="E106">
+        <v>588.1237185929646</v>
+      </c>
+      <c r="F106">
+        <v>24.25126220618144</v>
+      </c>
+      <c r="G106">
+        <v>95</v>
+      </c>
+      <c r="H106">
+        <v>160</v>
+      </c>
+      <c r="I106">
+        <v>255</v>
+      </c>
+      <c r="J106">
+        <v>219.75</v>
+      </c>
+      <c r="K106">
+        <v>239</v>
+      </c>
+      <c r="L106">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12">
+      <c r="A107">
+        <v>46462</v>
+      </c>
+      <c r="B107">
+        <v>232.31</v>
+      </c>
+      <c r="C107">
+        <v>237</v>
+      </c>
+      <c r="D107">
+        <v>255</v>
+      </c>
+      <c r="E107">
+        <v>605.6823115577889</v>
+      </c>
+      <c r="F107">
+        <v>24.61061379888338</v>
+      </c>
+      <c r="G107">
+        <v>97</v>
+      </c>
+      <c r="H107">
+        <v>158</v>
+      </c>
+      <c r="I107">
+        <v>255</v>
+      </c>
+      <c r="J107">
+        <v>218</v>
+      </c>
+      <c r="K107">
+        <v>237</v>
+      </c>
+      <c r="L107">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12">
+      <c r="A108">
+        <v>46358</v>
+      </c>
+      <c r="B108">
+        <v>231.79</v>
+      </c>
+      <c r="C108">
+        <v>237</v>
+      </c>
+      <c r="D108">
+        <v>255</v>
+      </c>
+      <c r="E108">
+        <v>623.6340703517595</v>
+      </c>
+      <c r="F108">
+        <v>24.97266646459203</v>
+      </c>
+      <c r="G108">
+        <v>99</v>
+      </c>
+      <c r="H108">
+        <v>156</v>
+      </c>
+      <c r="I108">
+        <v>255</v>
+      </c>
+      <c r="J108">
+        <v>216.5</v>
+      </c>
+      <c r="K108">
+        <v>237</v>
+      </c>
+      <c r="L108">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12">
+      <c r="A109">
+        <v>46295</v>
+      </c>
+      <c r="B109">
+        <v>231.475</v>
+      </c>
+      <c r="C109">
+        <v>237</v>
+      </c>
+      <c r="D109">
+        <v>255</v>
+      </c>
+      <c r="E109">
+        <v>648.4013819095485</v>
+      </c>
+      <c r="F109">
+        <v>25.46372678752167</v>
+      </c>
+      <c r="G109">
+        <v>101</v>
+      </c>
+      <c r="H109">
+        <v>154</v>
+      </c>
+      <c r="I109">
+        <v>255</v>
+      </c>
+      <c r="J109">
+        <v>216</v>
+      </c>
+      <c r="K109">
+        <v>237</v>
+      </c>
+      <c r="L109">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12">
+      <c r="A110">
+        <v>46098</v>
+      </c>
+      <c r="B110">
+        <v>230.49</v>
+      </c>
+      <c r="C110">
+        <v>237</v>
+      </c>
+      <c r="D110">
+        <v>255</v>
+      </c>
+      <c r="E110">
+        <v>689.8591959798989</v>
+      </c>
+      <c r="F110">
+        <v>26.26517077766484</v>
+      </c>
+      <c r="G110">
+        <v>102</v>
+      </c>
+      <c r="H110">
+        <v>153</v>
+      </c>
+      <c r="I110">
+        <v>255</v>
+      </c>
+      <c r="J110">
+        <v>213</v>
+      </c>
+      <c r="K110">
+        <v>237</v>
+      </c>
+      <c r="L110">
         <v>254</v>
       </c>
-      <c r="D101">
-        <v>255</v>
-      </c>
-      <c r="E101">
-        <v>4.349393939393924</v>
-      </c>
-      <c r="F101">
-        <v>2.085520064490851</v>
-      </c>
-      <c r="G101">
-        <v>8</v>
-      </c>
-      <c r="H101">
+    </row>
+    <row r="111" spans="1:12">
+      <c r="A111">
+        <v>46069</v>
+      </c>
+      <c r="B111">
+        <v>230.345</v>
+      </c>
+      <c r="C111">
+        <v>236</v>
+      </c>
+      <c r="D111">
+        <v>255</v>
+      </c>
+      <c r="E111">
+        <v>698.9708291457284</v>
+      </c>
+      <c r="F111">
+        <v>26.43805645552881</v>
+      </c>
+      <c r="G111">
+        <v>98</v>
+      </c>
+      <c r="H111">
+        <v>157</v>
+      </c>
+      <c r="I111">
+        <v>255</v>
+      </c>
+      <c r="J111">
+        <v>211.75</v>
+      </c>
+      <c r="K111">
+        <v>236</v>
+      </c>
+      <c r="L111">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12">
+      <c r="A112">
+        <v>46092</v>
+      </c>
+      <c r="B112">
+        <v>230.46</v>
+      </c>
+      <c r="C112">
+        <v>235</v>
+      </c>
+      <c r="D112">
+        <v>255</v>
+      </c>
+      <c r="E112">
+        <v>687.1240201005023</v>
+      </c>
+      <c r="F112">
+        <v>26.21305056838105</v>
+      </c>
+      <c r="G112">
+        <v>95</v>
+      </c>
+      <c r="H112">
+        <v>160</v>
+      </c>
+      <c r="I112">
+        <v>255</v>
+      </c>
+      <c r="J112">
+        <v>211.75</v>
+      </c>
+      <c r="K112">
+        <v>235</v>
+      </c>
+      <c r="L112">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12">
+      <c r="A113">
+        <v>46128</v>
+      </c>
+      <c r="B113">
+        <v>230.64</v>
+      </c>
+      <c r="C113">
+        <v>234</v>
+      </c>
+      <c r="D113">
+        <v>255</v>
+      </c>
+      <c r="E113">
+        <v>671.789346733668</v>
+      </c>
+      <c r="F113">
+        <v>25.91889941208284</v>
+      </c>
+      <c r="G113">
+        <v>96</v>
+      </c>
+      <c r="H113">
+        <v>159</v>
+      </c>
+      <c r="I113">
+        <v>255</v>
+      </c>
+      <c r="J113">
+        <v>212.75</v>
+      </c>
+      <c r="K113">
+        <v>234</v>
+      </c>
+      <c r="L113">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12">
+      <c r="A114">
+        <v>46124</v>
+      </c>
+      <c r="B114">
+        <v>230.62</v>
+      </c>
+      <c r="C114">
+        <v>235</v>
+      </c>
+      <c r="D114">
+        <v>255</v>
+      </c>
+      <c r="E114">
+        <v>675.8146733668343</v>
+      </c>
+      <c r="F114">
+        <v>25.99643578198431</v>
+      </c>
+      <c r="G114">
+        <v>96</v>
+      </c>
+      <c r="H114">
+        <v>159</v>
+      </c>
+      <c r="I114">
+        <v>255</v>
+      </c>
+      <c r="J114">
+        <v>213</v>
+      </c>
+      <c r="K114">
+        <v>235</v>
+      </c>
+      <c r="L114">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12">
+      <c r="A115">
+        <v>46078</v>
+      </c>
+      <c r="B115">
+        <v>230.39</v>
+      </c>
+      <c r="C115">
+        <v>235</v>
+      </c>
+      <c r="D115">
+        <v>255</v>
+      </c>
+      <c r="E115">
+        <v>685.6159798994983</v>
+      </c>
+      <c r="F115">
+        <v>26.18426970338295</v>
+      </c>
+      <c r="G115">
+        <v>99</v>
+      </c>
+      <c r="H115">
+        <v>156</v>
+      </c>
+      <c r="I115">
+        <v>255</v>
+      </c>
+      <c r="J115">
+        <v>212</v>
+      </c>
+      <c r="K115">
+        <v>235</v>
+      </c>
+      <c r="L115">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12">
+      <c r="A116">
+        <v>46002</v>
+      </c>
+      <c r="B116">
+        <v>230.01</v>
+      </c>
+      <c r="C116">
+        <v>234.5</v>
+      </c>
+      <c r="D116">
+        <v>255</v>
+      </c>
+      <c r="E116">
+        <v>700.1305527638195</v>
+      </c>
+      <c r="F116">
+        <v>26.45998021094913</v>
+      </c>
+      <c r="G116">
+        <v>104</v>
+      </c>
+      <c r="H116">
+        <v>151</v>
+      </c>
+      <c r="I116">
+        <v>255</v>
+      </c>
+      <c r="J116">
+        <v>211</v>
+      </c>
+      <c r="K116">
+        <v>234.5</v>
+      </c>
+      <c r="L116">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12">
+      <c r="A117">
+        <v>45913</v>
+      </c>
+      <c r="B117">
+        <v>229.565</v>
+      </c>
+      <c r="C117">
+        <v>233</v>
+      </c>
+      <c r="D117">
+        <v>255</v>
+      </c>
+      <c r="E117">
+        <v>714.7796733668334</v>
+      </c>
+      <c r="F117">
+        <v>26.73536372235907</v>
+      </c>
+      <c r="G117">
+        <v>111</v>
+      </c>
+      <c r="H117">
+        <v>144</v>
+      </c>
+      <c r="I117">
+        <v>255</v>
+      </c>
+      <c r="J117">
+        <v>210.75</v>
+      </c>
+      <c r="K117">
+        <v>233</v>
+      </c>
+      <c r="L117">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12">
+      <c r="A118">
+        <v>45776</v>
+      </c>
+      <c r="B118">
+        <v>228.88</v>
+      </c>
+      <c r="C118">
+        <v>231.5</v>
+      </c>
+      <c r="D118">
+        <v>255</v>
+      </c>
+      <c r="E118">
+        <v>738.0659296482406</v>
+      </c>
+      <c r="F118">
+        <v>27.16736883925715</v>
+      </c>
+      <c r="G118">
+        <v>117</v>
+      </c>
+      <c r="H118">
+        <v>138</v>
+      </c>
+      <c r="I118">
+        <v>255</v>
+      </c>
+      <c r="J118">
+        <v>207.75</v>
+      </c>
+      <c r="K118">
+        <v>231.5</v>
+      </c>
+      <c r="L118">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12">
+      <c r="A119">
+        <v>45551</v>
+      </c>
+      <c r="B119">
+        <v>227.755</v>
+      </c>
+      <c r="C119">
+        <v>230.5</v>
+      </c>
+      <c r="D119">
+        <v>255</v>
+      </c>
+      <c r="E119">
+        <v>792.2361557788963</v>
+      </c>
+      <c r="F119">
+        <v>28.14668996132398</v>
+      </c>
+      <c r="G119">
+        <v>121</v>
+      </c>
+      <c r="H119">
+        <v>134</v>
+      </c>
+      <c r="I119">
+        <v>255</v>
+      </c>
+      <c r="J119">
+        <v>205.75</v>
+      </c>
+      <c r="K119">
+        <v>230.5</v>
+      </c>
+      <c r="L119">
+        <v>253.25</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12">
+      <c r="A120">
+        <v>45304</v>
+      </c>
+      <c r="B120">
+        <v>226.52</v>
+      </c>
+      <c r="C120">
+        <v>229</v>
+      </c>
+      <c r="D120">
+        <v>255</v>
+      </c>
+      <c r="E120">
+        <v>868.0598994974879</v>
+      </c>
+      <c r="F120">
+        <v>29.46285626848639</v>
+      </c>
+      <c r="G120">
+        <v>119</v>
+      </c>
+      <c r="H120">
+        <v>136</v>
+      </c>
+      <c r="I120">
+        <v>255</v>
+      </c>
+      <c r="J120">
+        <v>205.75</v>
+      </c>
+      <c r="K120">
+        <v>229</v>
+      </c>
+      <c r="L120">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12">
+      <c r="A121">
+        <v>45117</v>
+      </c>
+      <c r="B121">
+        <v>225.585</v>
+      </c>
+      <c r="C121">
+        <v>229</v>
+      </c>
+      <c r="D121">
+        <v>255</v>
+      </c>
+      <c r="E121">
+        <v>973.1786683417082</v>
+      </c>
+      <c r="F121">
+        <v>31.19581171153763</v>
+      </c>
+      <c r="G121">
+        <v>114</v>
+      </c>
+      <c r="H121">
+        <v>141</v>
+      </c>
+      <c r="I121">
+        <v>255</v>
+      </c>
+      <c r="J121">
+        <v>205.75</v>
+      </c>
+      <c r="K121">
+        <v>229</v>
+      </c>
+      <c r="L121">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12">
+      <c r="A122">
+        <v>44616</v>
+      </c>
+      <c r="B122">
+        <v>223.08</v>
+      </c>
+      <c r="C122">
+        <v>228.5</v>
+      </c>
+      <c r="D122">
+        <v>255</v>
+      </c>
+      <c r="E122">
+        <v>1030.827738693468</v>
+      </c>
+      <c r="F122">
+        <v>32.10650617388114</v>
+      </c>
+      <c r="G122">
+        <v>121</v>
+      </c>
+      <c r="H122">
+        <v>134</v>
+      </c>
+      <c r="I122">
+        <v>255</v>
+      </c>
+      <c r="J122">
+        <v>198.75</v>
+      </c>
+      <c r="K122">
+        <v>228.5</v>
+      </c>
+      <c r="L122">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12">
+      <c r="A123">
+        <v>42800</v>
+      </c>
+      <c r="B123">
+        <v>214</v>
+      </c>
+      <c r="C123">
+        <v>219</v>
+      </c>
+      <c r="D123">
+        <v>255</v>
+      </c>
+      <c r="E123">
+        <v>1089.56783919598</v>
+      </c>
+      <c r="F123">
+        <v>33.00860250292308</v>
+      </c>
+      <c r="G123">
+        <v>128</v>
+      </c>
+      <c r="H123">
+        <v>127</v>
+      </c>
+      <c r="I123">
+        <v>255</v>
+      </c>
+      <c r="J123">
+        <v>192</v>
+      </c>
+      <c r="K123">
+        <v>219</v>
+      </c>
+      <c r="L123">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12">
+      <c r="A124">
+        <v>40223</v>
+      </c>
+      <c r="B124">
+        <v>201.115</v>
+      </c>
+      <c r="C124">
+        <v>207.5</v>
+      </c>
+      <c r="D124">
+        <v>255</v>
+      </c>
+      <c r="E124">
+        <v>1734.614849246231</v>
+      </c>
+      <c r="F124">
+        <v>41.64870765397447</v>
+      </c>
+      <c r="G124">
+        <v>144</v>
+      </c>
+      <c r="H124">
+        <v>111</v>
+      </c>
+      <c r="I124">
+        <v>255</v>
+      </c>
+      <c r="J124">
+        <v>168</v>
+      </c>
+      <c r="K124">
+        <v>207.5</v>
+      </c>
+      <c r="L124">
+        <v>232.5</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12">
+      <c r="A125">
+        <v>38759</v>
+      </c>
+      <c r="B125">
+        <v>193.795</v>
+      </c>
+      <c r="C125">
+        <v>204</v>
+      </c>
+      <c r="D125">
+        <v>255</v>
+      </c>
+      <c r="E125">
+        <v>2456.354748743718</v>
+      </c>
+      <c r="F125">
+        <v>49.56162576776228</v>
+      </c>
+      <c r="G125">
+        <v>166</v>
+      </c>
+      <c r="H125">
+        <v>89</v>
+      </c>
+      <c r="I125">
+        <v>255</v>
+      </c>
+      <c r="J125">
+        <v>155</v>
+      </c>
+      <c r="K125">
+        <v>204</v>
+      </c>
+      <c r="L125">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12">
+      <c r="A126">
+        <v>38344</v>
+      </c>
+      <c r="B126">
+        <v>191.72</v>
+      </c>
+      <c r="C126">
+        <v>202.5</v>
+      </c>
+      <c r="D126">
+        <v>255</v>
+      </c>
+      <c r="E126">
+        <v>2706.132261306533</v>
+      </c>
+      <c r="F126">
+        <v>52.02049847229968</v>
+      </c>
+      <c r="G126">
+        <v>174</v>
+      </c>
+      <c r="H126">
+        <v>81</v>
+      </c>
+      <c r="I126">
+        <v>255</v>
+      </c>
+      <c r="J126">
+        <v>149</v>
+      </c>
+      <c r="K126">
+        <v>202.5</v>
+      </c>
+      <c r="L126">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12">
+      <c r="A127">
+        <v>37966</v>
+      </c>
+      <c r="B127">
+        <v>189.83</v>
+      </c>
+      <c r="C127">
+        <v>201</v>
+      </c>
+      <c r="D127">
+        <v>255</v>
+      </c>
+      <c r="E127">
+        <v>3026.383015075374</v>
+      </c>
+      <c r="F127">
+        <v>55.01257142758711</v>
+      </c>
+      <c r="G127">
+        <v>190</v>
+      </c>
+      <c r="H127">
+        <v>65</v>
+      </c>
+      <c r="I127">
+        <v>255</v>
+      </c>
+      <c r="J127">
+        <v>145</v>
+      </c>
+      <c r="K127">
+        <v>201</v>
+      </c>
+      <c r="L127">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12">
+      <c r="A128">
+        <v>37704</v>
+      </c>
+      <c r="B128">
+        <v>188.52</v>
+      </c>
+      <c r="C128">
+        <v>202</v>
+      </c>
+      <c r="D128">
+        <v>255</v>
+      </c>
+      <c r="E128">
+        <v>3263.899095477386</v>
+      </c>
+      <c r="F128">
+        <v>57.13054433030886</v>
+      </c>
+      <c r="G128">
+        <v>213</v>
+      </c>
+      <c r="H128">
+        <v>42</v>
+      </c>
+      <c r="I128">
+        <v>255</v>
+      </c>
+      <c r="J128">
+        <v>144.5</v>
+      </c>
+      <c r="K128">
+        <v>202</v>
+      </c>
+      <c r="L128">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12">
+      <c r="A129">
+        <v>38958</v>
+      </c>
+      <c r="B129">
+        <v>194.79</v>
+      </c>
+      <c r="C129">
+        <v>205.5</v>
+      </c>
+      <c r="D129">
+        <v>255</v>
+      </c>
+      <c r="E129">
+        <v>2400.719497487436</v>
+      </c>
+      <c r="F129">
+        <v>48.99713764586087</v>
+      </c>
+      <c r="G129">
+        <v>200</v>
+      </c>
+      <c r="H129">
+        <v>55</v>
+      </c>
+      <c r="I129">
+        <v>255</v>
+      </c>
+      <c r="J129">
+        <v>153.75</v>
+      </c>
+      <c r="K129">
+        <v>205.5</v>
+      </c>
+      <c r="L129">
+        <v>234.75</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12">
+      <c r="A130">
+        <v>39976</v>
+      </c>
+      <c r="B130">
+        <v>199.88</v>
+      </c>
+      <c r="C130">
+        <v>207</v>
+      </c>
+      <c r="D130">
+        <v>255</v>
+      </c>
+      <c r="E130">
+        <v>1837.945326633166</v>
+      </c>
+      <c r="F130">
+        <v>42.87126457935626</v>
+      </c>
+      <c r="G130">
+        <v>161</v>
+      </c>
+      <c r="H130">
+        <v>94</v>
+      </c>
+      <c r="I130">
+        <v>255</v>
+      </c>
+      <c r="J130">
+        <v>165</v>
+      </c>
+      <c r="K130">
+        <v>207</v>
+      </c>
+      <c r="L130">
+        <v>237.75</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12">
+      <c r="A131">
+        <v>40222</v>
+      </c>
+      <c r="B131">
+        <v>201.11</v>
+      </c>
+      <c r="C131">
+        <v>207.5</v>
+      </c>
+      <c r="D131">
+        <v>255</v>
+      </c>
+      <c r="E131">
+        <v>1749.002914572864</v>
+      </c>
+      <c r="F131">
+        <v>41.82108217840452</v>
+      </c>
+      <c r="G131">
+        <v>149</v>
+      </c>
+      <c r="H131">
+        <v>106</v>
+      </c>
+      <c r="I131">
+        <v>255</v>
+      </c>
+      <c r="J131">
+        <v>164.5</v>
+      </c>
+      <c r="K131">
+        <v>207.5</v>
+      </c>
+      <c r="L131">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12">
+      <c r="A132">
+        <v>39663</v>
+      </c>
+      <c r="B132">
+        <v>198.315</v>
+      </c>
+      <c r="C132">
+        <v>208</v>
+      </c>
+      <c r="D132">
+        <v>255</v>
+      </c>
+      <c r="E132">
+        <v>1989.503291457287</v>
+      </c>
+      <c r="F132">
+        <v>44.60384839290537</v>
+      </c>
+      <c r="G132">
+        <v>177</v>
+      </c>
+      <c r="H132">
+        <v>78</v>
+      </c>
+      <c r="I132">
+        <v>255</v>
+      </c>
+      <c r="J132">
+        <v>159.75</v>
+      </c>
+      <c r="K132">
+        <v>208</v>
+      </c>
+      <c r="L132">
+        <v>236.75</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12">
+      <c r="A133">
+        <v>39800</v>
+      </c>
+      <c r="B133">
+        <v>199</v>
+      </c>
+      <c r="C133">
+        <v>207</v>
+      </c>
+      <c r="D133">
+        <v>255</v>
+      </c>
+      <c r="E133">
+        <v>1972.70351758794</v>
+      </c>
+      <c r="F133">
+        <v>44.41512712565326</v>
+      </c>
+      <c r="G133">
+        <v>198</v>
+      </c>
+      <c r="H133">
+        <v>57</v>
+      </c>
+      <c r="I133">
+        <v>255</v>
+      </c>
+      <c r="J133">
+        <v>168.75</v>
+      </c>
+      <c r="K133">
+        <v>207</v>
+      </c>
+      <c r="L133">
+        <v>237.75</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12">
+      <c r="A134">
+        <v>39165</v>
+      </c>
+      <c r="B134">
+        <v>195.825</v>
+      </c>
+      <c r="C134">
+        <v>204</v>
+      </c>
+      <c r="D134">
+        <v>255</v>
+      </c>
+      <c r="E134">
+        <v>2239.501884422114</v>
+      </c>
+      <c r="F134">
+        <v>47.32337566596569</v>
+      </c>
+      <c r="G134">
+        <v>203</v>
+      </c>
+      <c r="H134">
+        <v>52</v>
+      </c>
+      <c r="I134">
+        <v>255</v>
+      </c>
+      <c r="J134">
+        <v>159.75</v>
+      </c>
+      <c r="K134">
+        <v>204</v>
+      </c>
+      <c r="L134">
+        <v>236.25</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12">
+      <c r="A135">
+        <v>38372</v>
+      </c>
+      <c r="B135">
+        <v>191.86</v>
+      </c>
+      <c r="C135">
+        <v>201</v>
+      </c>
+      <c r="D135">
+        <v>255</v>
+      </c>
+      <c r="E135">
+        <v>2688.372261306532</v>
+      </c>
+      <c r="F135">
+        <v>51.84951553589033</v>
+      </c>
+      <c r="G135">
+        <v>201</v>
+      </c>
+      <c r="H135">
+        <v>54</v>
+      </c>
+      <c r="I135">
+        <v>255</v>
+      </c>
+      <c r="J135">
+        <v>152.75</v>
+      </c>
+      <c r="K135">
+        <v>201</v>
+      </c>
+      <c r="L135">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12">
+      <c r="A136">
+        <v>37764</v>
+      </c>
+      <c r="B136">
+        <v>188.82</v>
+      </c>
+      <c r="C136">
+        <v>196</v>
+      </c>
+      <c r="D136">
+        <v>255</v>
+      </c>
+      <c r="E136">
+        <v>2990.02773869347</v>
+      </c>
+      <c r="F136">
+        <v>54.68114609893862</v>
+      </c>
+      <c r="G136">
+        <v>200</v>
+      </c>
+      <c r="H136">
+        <v>55</v>
+      </c>
+      <c r="I136">
+        <v>255</v>
+      </c>
+      <c r="J136">
+        <v>151.75</v>
+      </c>
+      <c r="K136">
+        <v>196</v>
+      </c>
+      <c r="L136">
+        <v>248.25</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12">
+      <c r="A137">
+        <v>37614</v>
+      </c>
+      <c r="B137">
+        <v>188.07</v>
+      </c>
+      <c r="C137">
+        <v>194</v>
+      </c>
+      <c r="D137">
+        <v>255</v>
+      </c>
+      <c r="E137">
+        <v>3090.366934673368</v>
+      </c>
+      <c r="F137">
+        <v>55.59106883909832</v>
+      </c>
+      <c r="G137">
+        <v>206</v>
+      </c>
+      <c r="H137">
+        <v>49</v>
+      </c>
+      <c r="I137">
+        <v>255</v>
+      </c>
+      <c r="J137">
+        <v>151.5</v>
+      </c>
+      <c r="K137">
+        <v>194</v>
+      </c>
+      <c r="L137">
+        <v>249.25</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12">
+      <c r="A138">
+        <v>38128</v>
+      </c>
+      <c r="B138">
+        <v>190.64</v>
+      </c>
+      <c r="C138">
+        <v>192.5</v>
+      </c>
+      <c r="D138">
+        <v>255</v>
+      </c>
+      <c r="E138">
+        <v>2720.392361809046</v>
+      </c>
+      <c r="F138">
+        <v>52.15738070310898</v>
+      </c>
+      <c r="G138">
+        <v>216</v>
+      </c>
+      <c r="H138">
+        <v>39</v>
+      </c>
+      <c r="I138">
+        <v>255</v>
+      </c>
+      <c r="J138">
+        <v>156</v>
+      </c>
+      <c r="K138">
+        <v>192.5</v>
+      </c>
+      <c r="L138">
+        <v>248.25</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12">
+      <c r="A139">
+        <v>39251</v>
+      </c>
+      <c r="B139">
+        <v>196.255</v>
+      </c>
+      <c r="C139">
+        <v>196</v>
+      </c>
+      <c r="D139">
+        <v>255</v>
+      </c>
+      <c r="E139">
+        <v>2034.542688442211</v>
+      </c>
+      <c r="F139">
+        <v>45.10590525022428</v>
+      </c>
+      <c r="G139">
+        <v>184</v>
+      </c>
+      <c r="H139">
+        <v>71</v>
+      </c>
+      <c r="I139">
+        <v>255</v>
+      </c>
+      <c r="J139">
+        <v>161</v>
+      </c>
+      <c r="K139">
+        <v>196</v>
+      </c>
+      <c r="L139">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12">
+      <c r="A140">
+        <v>40972</v>
+      </c>
+      <c r="B140">
+        <v>204.86</v>
+      </c>
+      <c r="C140">
+        <v>208</v>
+      </c>
+      <c r="D140">
+        <v>255</v>
+      </c>
+      <c r="E140">
+        <v>1561.316984924624</v>
+      </c>
+      <c r="F140">
+        <v>39.51350383001517</v>
+      </c>
+      <c r="G140">
+        <v>150</v>
+      </c>
+      <c r="H140">
+        <v>105</v>
+      </c>
+      <c r="I140">
+        <v>255</v>
+      </c>
+      <c r="J140">
+        <v>174.25</v>
+      </c>
+      <c r="K140">
+        <v>208</v>
+      </c>
+      <c r="L140">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12">
+      <c r="A141">
+        <v>40576</v>
+      </c>
+      <c r="B141">
+        <v>202.88</v>
+      </c>
+      <c r="C141">
+        <v>205</v>
+      </c>
+      <c r="D141">
+        <v>255</v>
+      </c>
+      <c r="E141">
+        <v>1599.452864321606</v>
+      </c>
+      <c r="F141">
+        <v>39.99316021923757</v>
+      </c>
+      <c r="G141">
+        <v>176</v>
+      </c>
+      <c r="H141">
+        <v>79</v>
+      </c>
+      <c r="I141">
+        <v>255</v>
+      </c>
+      <c r="J141">
+        <v>173</v>
+      </c>
+      <c r="K141">
+        <v>205</v>
+      </c>
+      <c r="L141">
+        <v>245.5</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12">
+      <c r="A142">
+        <v>39294</v>
+      </c>
+      <c r="B142">
+        <v>196.47</v>
+      </c>
+      <c r="C142">
+        <v>198</v>
+      </c>
+      <c r="D142">
+        <v>255</v>
+      </c>
+      <c r="E142">
+        <v>1981.416180904522</v>
+      </c>
+      <c r="F142">
+        <v>44.51310122766692</v>
+      </c>
+      <c r="G142">
+        <v>186</v>
+      </c>
+      <c r="H142">
+        <v>69</v>
+      </c>
+      <c r="I142">
+        <v>255</v>
+      </c>
+      <c r="J142">
+        <v>163.25</v>
+      </c>
+      <c r="K142">
+        <v>198</v>
+      </c>
+      <c r="L142">
+        <v>246.5</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12">
+      <c r="A143">
+        <v>38058</v>
+      </c>
+      <c r="B143">
+        <v>190.29</v>
+      </c>
+      <c r="C143">
+        <v>197</v>
+      </c>
+      <c r="D143">
+        <v>255</v>
+      </c>
+      <c r="E143">
+        <v>2875.191859296482</v>
+      </c>
+      <c r="F143">
+        <v>53.62081554113553</v>
+      </c>
+      <c r="G143">
+        <v>208</v>
+      </c>
+      <c r="H143">
+        <v>47</v>
+      </c>
+      <c r="I143">
+        <v>255</v>
+      </c>
+      <c r="J143">
+        <v>153</v>
+      </c>
+      <c r="K143">
+        <v>197</v>
+      </c>
+      <c r="L143">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12">
+      <c r="A144">
+        <v>38206</v>
+      </c>
+      <c r="B144">
+        <v>191.03</v>
+      </c>
+      <c r="C144">
+        <v>196</v>
+      </c>
+      <c r="D144">
+        <v>255</v>
+      </c>
+      <c r="E144">
+        <v>2726.602110552762</v>
+      </c>
+      <c r="F144">
+        <v>52.21687572569583</v>
+      </c>
+      <c r="G144">
+        <v>199</v>
+      </c>
+      <c r="H144">
+        <v>56</v>
+      </c>
+      <c r="I144">
+        <v>255</v>
+      </c>
+      <c r="J144">
+        <v>155.75</v>
+      </c>
+      <c r="K144">
+        <v>196</v>
+      </c>
+      <c r="L144">
+        <v>249.25</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12">
+      <c r="A145">
+        <v>38324</v>
+      </c>
+      <c r="B145">
+        <v>191.62</v>
+      </c>
+      <c r="C145">
+        <v>195.5</v>
+      </c>
+      <c r="D145">
+        <v>255</v>
+      </c>
+      <c r="E145">
+        <v>2540.849849246229</v>
+      </c>
+      <c r="F145">
+        <v>50.40684327793429</v>
+      </c>
+      <c r="G145">
+        <v>191</v>
+      </c>
+      <c r="H145">
+        <v>64</v>
+      </c>
+      <c r="I145">
+        <v>255</v>
+      </c>
+      <c r="J145">
+        <v>151</v>
+      </c>
+      <c r="K145">
+        <v>195.5</v>
+      </c>
+      <c r="L145">
+        <v>250.25</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12">
+      <c r="A146">
+        <v>40270</v>
+      </c>
+      <c r="B146">
+        <v>201.35</v>
+      </c>
+      <c r="C146">
+        <v>198.5</v>
+      </c>
+      <c r="D146">
+        <v>255</v>
+      </c>
+      <c r="E146">
+        <v>1704.198492462308</v>
+      </c>
+      <c r="F146">
+        <v>41.28193905889485</v>
+      </c>
+      <c r="G146">
+        <v>168</v>
+      </c>
+      <c r="H146">
+        <v>87</v>
+      </c>
+      <c r="I146">
+        <v>255</v>
+      </c>
+      <c r="J146">
+        <v>175</v>
+      </c>
+      <c r="K146">
+        <v>198.5</v>
+      </c>
+      <c r="L146">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12">
+      <c r="A147">
+        <v>43189</v>
+      </c>
+      <c r="B147">
+        <v>215.945</v>
+      </c>
+      <c r="C147">
+        <v>224.5</v>
+      </c>
+      <c r="D147">
+        <v>255</v>
+      </c>
+      <c r="E147">
+        <v>1153.27836683417</v>
+      </c>
+      <c r="F147">
+        <v>33.95995239740731</v>
+      </c>
+      <c r="G147">
+        <v>134</v>
+      </c>
+      <c r="H147">
+        <v>121</v>
+      </c>
+      <c r="I147">
+        <v>255</v>
+      </c>
+      <c r="J147">
+        <v>198.75</v>
+      </c>
+      <c r="K147">
+        <v>224.5</v>
+      </c>
+      <c r="L147">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12">
+      <c r="A148">
+        <v>44961</v>
+      </c>
+      <c r="B148">
+        <v>224.805</v>
+      </c>
+      <c r="C148">
+        <v>250</v>
+      </c>
+      <c r="D148">
+        <v>255</v>
+      </c>
+      <c r="E148">
+        <v>1081.142688442208</v>
+      </c>
+      <c r="F148">
+        <v>32.88073430509434</v>
+      </c>
+      <c r="G148">
+        <v>114</v>
+      </c>
+      <c r="H148">
+        <v>141</v>
+      </c>
+      <c r="I148">
+        <v>255</v>
+      </c>
+      <c r="J148">
+        <v>198.75</v>
+      </c>
+      <c r="K148">
+        <v>250</v>
+      </c>
+      <c r="L148">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12">
+      <c r="A149">
+        <v>45311</v>
+      </c>
+      <c r="B149">
+        <v>226.555</v>
+      </c>
+      <c r="C149">
+        <v>250.5</v>
+      </c>
+      <c r="D149">
+        <v>255</v>
+      </c>
+      <c r="E149">
+        <v>1028.931633165828</v>
+      </c>
+      <c r="F149">
+        <v>32.07696421368188</v>
+      </c>
+      <c r="G149">
+        <v>123</v>
+      </c>
+      <c r="H149">
+        <v>132</v>
+      </c>
+      <c r="I149">
+        <v>255</v>
+      </c>
+      <c r="J149">
+        <v>197</v>
+      </c>
+      <c r="K149">
+        <v>250.5</v>
+      </c>
+      <c r="L149">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12">
+      <c r="A150">
+        <v>45479</v>
+      </c>
+      <c r="B150">
+        <v>227.395</v>
+      </c>
+      <c r="C150">
+        <v>251.5</v>
+      </c>
+      <c r="D150">
+        <v>255</v>
+      </c>
+      <c r="E150">
+        <v>954.0592713567836</v>
+      </c>
+      <c r="F150">
+        <v>30.88784989857312</v>
+      </c>
+      <c r="G150">
+        <v>123</v>
+      </c>
+      <c r="H150">
+        <v>132</v>
+      </c>
+      <c r="I150">
+        <v>255</v>
+      </c>
+      <c r="J150">
+        <v>198.75</v>
+      </c>
+      <c r="K150">
+        <v>251.5</v>
+      </c>
+      <c r="L150">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12">
+      <c r="A151">
+        <v>45639</v>
+      </c>
+      <c r="B151">
+        <v>228.195</v>
+      </c>
+      <c r="C151">
+        <v>251</v>
+      </c>
+      <c r="D151">
+        <v>255</v>
+      </c>
+      <c r="E151">
+        <v>908.4693216080385</v>
+      </c>
+      <c r="F151">
+        <v>30.14082483290792</v>
+      </c>
+      <c r="G151">
+        <v>106</v>
+      </c>
+      <c r="H151">
+        <v>149</v>
+      </c>
+      <c r="I151">
+        <v>255</v>
+      </c>
+      <c r="J151">
+        <v>199</v>
+      </c>
+      <c r="K151">
+        <v>251</v>
+      </c>
+      <c r="L151">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12">
+      <c r="A152">
+        <v>45600</v>
+      </c>
+      <c r="B152">
+        <v>228</v>
+      </c>
+      <c r="C152">
+        <v>252</v>
+      </c>
+      <c r="D152">
+        <v>255</v>
+      </c>
+      <c r="E152">
+        <v>948.0201005025126</v>
+      </c>
+      <c r="F152">
+        <v>30.78993505193722</v>
+      </c>
+      <c r="G152">
+        <v>104</v>
+      </c>
+      <c r="H152">
+        <v>151</v>
+      </c>
+      <c r="I152">
+        <v>255</v>
+      </c>
+      <c r="J152">
+        <v>202</v>
+      </c>
+      <c r="K152">
+        <v>252</v>
+      </c>
+      <c r="L152">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12">
+      <c r="A153">
+        <v>45668</v>
+      </c>
+      <c r="B153">
+        <v>228.34</v>
+      </c>
+      <c r="C153">
+        <v>253</v>
+      </c>
+      <c r="D153">
+        <v>255</v>
+      </c>
+      <c r="E153">
+        <v>956.5772864321606</v>
+      </c>
+      <c r="F153">
+        <v>30.92858364736673</v>
+      </c>
+      <c r="G153">
+        <v>97</v>
+      </c>
+      <c r="H153">
+        <v>158</v>
+      </c>
+      <c r="I153">
+        <v>255</v>
+      </c>
+      <c r="J153">
+        <v>201</v>
+      </c>
+      <c r="K153">
+        <v>253</v>
+      </c>
+      <c r="L153">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12">
+      <c r="A154">
+        <v>45672</v>
+      </c>
+      <c r="B154">
+        <v>228.36</v>
+      </c>
+      <c r="C154">
+        <v>254</v>
+      </c>
+      <c r="D154">
+        <v>255</v>
+      </c>
+      <c r="E154">
+        <v>998.5029145728677</v>
+      </c>
+      <c r="F154">
+        <v>31.59909673666112</v>
+      </c>
+      <c r="G154">
+        <v>97</v>
+      </c>
+      <c r="H154">
+        <v>158</v>
+      </c>
+      <c r="I154">
+        <v>255</v>
+      </c>
+      <c r="J154">
+        <v>197.75</v>
+      </c>
+      <c r="K154">
+        <v>254</v>
+      </c>
+      <c r="L154">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12">
+      <c r="A155">
+        <v>45611</v>
+      </c>
+      <c r="B155">
+        <v>228.055</v>
+      </c>
+      <c r="C155">
+        <v>255</v>
+      </c>
+      <c r="D155">
+        <v>255</v>
+      </c>
+      <c r="E155">
+        <v>1056.243190954777</v>
+      </c>
+      <c r="F155">
+        <v>32.49989524528928</v>
+      </c>
+      <c r="G155">
+        <v>106</v>
+      </c>
+      <c r="H155">
+        <v>149</v>
+      </c>
+      <c r="I155">
+        <v>255</v>
+      </c>
+      <c r="J155">
+        <v>196</v>
+      </c>
+      <c r="K155">
+        <v>255</v>
+      </c>
+      <c r="L155">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12">
+      <c r="A156">
+        <v>45577</v>
+      </c>
+      <c r="B156">
+        <v>227.885</v>
+      </c>
+      <c r="C156">
+        <v>255</v>
+      </c>
+      <c r="D156">
+        <v>255</v>
+      </c>
+      <c r="E156">
+        <v>1096.61484924623</v>
+      </c>
+      <c r="F156">
+        <v>33.11517551284048</v>
+      </c>
+      <c r="G156">
+        <v>112</v>
+      </c>
+      <c r="H156">
+        <v>143</v>
+      </c>
+      <c r="I156">
+        <v>255</v>
+      </c>
+      <c r="J156">
+        <v>194</v>
+      </c>
+      <c r="K156">
+        <v>255</v>
+      </c>
+      <c r="L156">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12">
+      <c r="A157">
+        <v>45571</v>
+      </c>
+      <c r="B157">
+        <v>227.855</v>
+      </c>
+      <c r="C157">
+        <v>255</v>
+      </c>
+      <c r="D157">
+        <v>255</v>
+      </c>
+      <c r="E157">
+        <v>1111.933643216083</v>
+      </c>
+      <c r="F157">
+        <v>33.34566903236585</v>
+      </c>
+      <c r="G157">
+        <v>97</v>
+      </c>
+      <c r="H157">
+        <v>158</v>
+      </c>
+      <c r="I157">
+        <v>255</v>
+      </c>
+      <c r="J157">
+        <v>192</v>
+      </c>
+      <c r="K157">
+        <v>255</v>
+      </c>
+      <c r="L157">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12">
+      <c r="A158">
+        <v>45583</v>
+      </c>
+      <c r="B158">
+        <v>227.915</v>
+      </c>
+      <c r="C158">
+        <v>255</v>
+      </c>
+      <c r="D158">
+        <v>255</v>
+      </c>
+      <c r="E158">
+        <v>1129.47515075377</v>
+      </c>
+      <c r="F158">
+        <v>33.60766505953321</v>
+      </c>
+      <c r="G158">
+        <v>99</v>
+      </c>
+      <c r="H158">
+        <v>156</v>
+      </c>
+      <c r="I158">
+        <v>255</v>
+      </c>
+      <c r="J158">
+        <v>192.75</v>
+      </c>
+      <c r="K158">
+        <v>255</v>
+      </c>
+      <c r="L158">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12">
+      <c r="A159">
+        <v>45606</v>
+      </c>
+      <c r="B159">
+        <v>228.03</v>
+      </c>
+      <c r="C159">
+        <v>255</v>
+      </c>
+      <c r="D159">
+        <v>255</v>
+      </c>
+      <c r="E159">
+        <v>1134.923718592962</v>
+      </c>
+      <c r="F159">
+        <v>33.68862892123931</v>
+      </c>
+      <c r="G159">
+        <v>95</v>
+      </c>
+      <c r="H159">
+        <v>160</v>
+      </c>
+      <c r="I159">
+        <v>255</v>
+      </c>
+      <c r="J159">
+        <v>193.75</v>
+      </c>
+      <c r="K159">
+        <v>255</v>
+      </c>
+      <c r="L159">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12">
+      <c r="A160">
+        <v>45644</v>
+      </c>
+      <c r="B160">
+        <v>228.22</v>
+      </c>
+      <c r="C160">
+        <v>255</v>
+      </c>
+      <c r="D160">
+        <v>255</v>
+      </c>
+      <c r="E160">
+        <v>1139.870954773868</v>
+      </c>
+      <c r="F160">
+        <v>33.76197498331322</v>
+      </c>
+      <c r="G160">
+        <v>104</v>
+      </c>
+      <c r="H160">
+        <v>151</v>
+      </c>
+      <c r="I160">
+        <v>255</v>
+      </c>
+      <c r="J160">
+        <v>192.75</v>
+      </c>
+      <c r="K160">
+        <v>255</v>
+      </c>
+      <c r="L160">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12">
+      <c r="A161">
+        <v>45672</v>
+      </c>
+      <c r="B161">
+        <v>228.36</v>
+      </c>
+      <c r="C161">
+        <v>255</v>
+      </c>
+      <c r="D161">
+        <v>255</v>
+      </c>
+      <c r="E161">
+        <v>1135.437587939702</v>
+      </c>
+      <c r="F161">
+        <v>33.69625480583417</v>
+      </c>
+      <c r="G161">
+        <v>95</v>
+      </c>
+      <c r="H161">
+        <v>160</v>
+      </c>
+      <c r="I161">
+        <v>255</v>
+      </c>
+      <c r="J161">
+        <v>191</v>
+      </c>
+      <c r="K161">
+        <v>255</v>
+      </c>
+      <c r="L161">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12">
+      <c r="A162">
+        <v>45666</v>
+      </c>
+      <c r="B162">
+        <v>228.33</v>
+      </c>
+      <c r="C162">
+        <v>255</v>
+      </c>
+      <c r="D162">
+        <v>255</v>
+      </c>
+      <c r="E162">
+        <v>1145.25738693467</v>
+      </c>
+      <c r="F162">
+        <v>33.84165165790036</v>
+      </c>
+      <c r="G162">
+        <v>96</v>
+      </c>
+      <c r="H162">
+        <v>159</v>
+      </c>
+      <c r="I162">
+        <v>255</v>
+      </c>
+      <c r="J162">
+        <v>189</v>
+      </c>
+      <c r="K162">
+        <v>255</v>
+      </c>
+      <c r="L162">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12">
+      <c r="A163">
+        <v>45638</v>
+      </c>
+      <c r="B163">
+        <v>228.19</v>
+      </c>
+      <c r="C163">
+        <v>255</v>
+      </c>
+      <c r="D163">
+        <v>255</v>
+      </c>
+      <c r="E163">
+        <v>1195.441105527635</v>
+      </c>
+      <c r="F163">
+        <v>34.57515156188958</v>
+      </c>
+      <c r="G163">
+        <v>106</v>
+      </c>
+      <c r="H163">
+        <v>149</v>
+      </c>
+      <c r="I163">
+        <v>255</v>
+      </c>
+      <c r="J163">
+        <v>187.75</v>
+      </c>
+      <c r="K163">
+        <v>255</v>
+      </c>
+      <c r="L163">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12">
+      <c r="A164">
+        <v>45670</v>
+      </c>
+      <c r="B164">
+        <v>228.35</v>
+      </c>
+      <c r="C164">
+        <v>255</v>
+      </c>
+      <c r="D164">
+        <v>255</v>
+      </c>
+      <c r="E164">
+        <v>1230.500000000001</v>
+      </c>
+      <c r="F164">
+        <v>35.07848343358077</v>
+      </c>
+      <c r="G164">
+        <v>107</v>
+      </c>
+      <c r="H164">
+        <v>148</v>
+      </c>
+      <c r="I164">
+        <v>255</v>
+      </c>
+      <c r="J164">
+        <v>187</v>
+      </c>
+      <c r="K164">
+        <v>255</v>
+      </c>
+      <c r="L164">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12">
+      <c r="A165">
+        <v>45664</v>
+      </c>
+      <c r="B165">
+        <v>228.32</v>
+      </c>
+      <c r="C165">
+        <v>255</v>
+      </c>
+      <c r="D165">
+        <v>255</v>
+      </c>
+      <c r="E165">
+        <v>1281.826733668343</v>
+      </c>
+      <c r="F165">
+        <v>35.80260791713842</v>
+      </c>
+      <c r="G165">
+        <v>103</v>
+      </c>
+      <c r="H165">
+        <v>152</v>
+      </c>
+      <c r="I165">
+        <v>255</v>
+      </c>
+      <c r="J165">
+        <v>184.75</v>
+      </c>
+      <c r="K165">
+        <v>255</v>
+      </c>
+      <c r="L165">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12">
+      <c r="A166">
+        <v>45645</v>
+      </c>
+      <c r="B166">
+        <v>228.225</v>
+      </c>
+      <c r="C166">
+        <v>255</v>
+      </c>
+      <c r="D166">
+        <v>255</v>
+      </c>
+      <c r="E166">
+        <v>1333.743090452264</v>
+      </c>
+      <c r="F166">
+        <v>36.52044756642864</v>
+      </c>
+      <c r="G166">
+        <v>108</v>
+      </c>
+      <c r="H166">
+        <v>147</v>
+      </c>
+      <c r="I166">
+        <v>255</v>
+      </c>
+      <c r="J166">
+        <v>184</v>
+      </c>
+      <c r="K166">
+        <v>255</v>
+      </c>
+      <c r="L166">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12">
+      <c r="A167">
+        <v>45629</v>
+      </c>
+      <c r="B167">
+        <v>228.145</v>
+      </c>
+      <c r="C167">
+        <v>255</v>
+      </c>
+      <c r="D167">
+        <v>255</v>
+      </c>
+      <c r="E167">
+        <v>1401.903492462314</v>
+      </c>
+      <c r="F167">
+        <v>37.4420017154841</v>
+      </c>
+      <c r="G167">
+        <v>115</v>
+      </c>
+      <c r="H167">
+        <v>140</v>
+      </c>
+      <c r="I167">
+        <v>255</v>
+      </c>
+      <c r="J167">
+        <v>181.75</v>
+      </c>
+      <c r="K167">
+        <v>255</v>
+      </c>
+      <c r="L167">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12">
+      <c r="A168">
+        <v>45584</v>
+      </c>
+      <c r="B168">
+        <v>227.92</v>
+      </c>
+      <c r="C168">
+        <v>255</v>
+      </c>
+      <c r="D168">
+        <v>255</v>
+      </c>
+      <c r="E168">
+        <v>1468.214673366838</v>
+      </c>
+      <c r="F168">
+        <v>38.3172894835587</v>
+      </c>
+      <c r="G168">
+        <v>109</v>
+      </c>
+      <c r="H168">
+        <v>146</v>
+      </c>
+      <c r="I168">
+        <v>255</v>
+      </c>
+      <c r="J168">
+        <v>179</v>
+      </c>
+      <c r="K168">
+        <v>255</v>
+      </c>
+      <c r="L168">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12">
+      <c r="A169">
+        <v>45591</v>
+      </c>
+      <c r="B169">
+        <v>227.955</v>
+      </c>
+      <c r="C169">
+        <v>255</v>
+      </c>
+      <c r="D169">
+        <v>255</v>
+      </c>
+      <c r="E169">
+        <v>1546.997964824118</v>
+      </c>
+      <c r="F169">
+        <v>39.33189500677685</v>
+      </c>
+      <c r="G169">
+        <v>111</v>
+      </c>
+      <c r="H169">
+        <v>144</v>
+      </c>
+      <c r="I169">
+        <v>255</v>
+      </c>
+      <c r="J169">
+        <v>178</v>
+      </c>
+      <c r="K169">
+        <v>255</v>
+      </c>
+      <c r="L169">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12">
+      <c r="A170">
+        <v>45617</v>
+      </c>
+      <c r="B170">
+        <v>228.085</v>
+      </c>
+      <c r="C170">
+        <v>255</v>
+      </c>
+      <c r="D170">
+        <v>255</v>
+      </c>
+      <c r="E170">
+        <v>1621.40479899497</v>
+      </c>
+      <c r="F170">
+        <v>40.26667106919779</v>
+      </c>
+      <c r="G170">
+        <v>114</v>
+      </c>
+      <c r="H170">
+        <v>141</v>
+      </c>
+      <c r="I170">
+        <v>255</v>
+      </c>
+      <c r="J170">
+        <v>177</v>
+      </c>
+      <c r="K170">
+        <v>255</v>
+      </c>
+      <c r="L170">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12">
+      <c r="A171">
+        <v>45648</v>
+      </c>
+      <c r="B171">
+        <v>228.24</v>
+      </c>
+      <c r="C171">
+        <v>255</v>
+      </c>
+      <c r="D171">
+        <v>255</v>
+      </c>
+      <c r="E171">
+        <v>1668.605427135672</v>
+      </c>
+      <c r="F171">
+        <v>40.84856701447032</v>
+      </c>
+      <c r="G171">
+        <v>123</v>
+      </c>
+      <c r="H171">
+        <v>132</v>
+      </c>
+      <c r="I171">
+        <v>255</v>
+      </c>
+      <c r="J171">
+        <v>175.75</v>
+      </c>
+      <c r="K171">
+        <v>255</v>
+      </c>
+      <c r="L171">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12">
+      <c r="A172">
+        <v>45535</v>
+      </c>
+      <c r="B172">
+        <v>227.675</v>
+      </c>
+      <c r="C172">
+        <v>255</v>
+      </c>
+      <c r="D172">
+        <v>255</v>
+      </c>
+      <c r="E172">
+        <v>1712.722989949754</v>
+      </c>
+      <c r="F172">
+        <v>41.38505756852047</v>
+      </c>
+      <c r="G172">
+        <v>121</v>
+      </c>
+      <c r="H172">
+        <v>134</v>
+      </c>
+      <c r="I172">
+        <v>255</v>
+      </c>
+      <c r="J172">
+        <v>176.75</v>
+      </c>
+      <c r="K172">
+        <v>255</v>
+      </c>
+      <c r="L172">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="173" spans="1:12">
+      <c r="A173">
+        <v>45237</v>
+      </c>
+      <c r="B173">
+        <v>226.185</v>
+      </c>
+      <c r="C173">
+        <v>255</v>
+      </c>
+      <c r="D173">
+        <v>255</v>
+      </c>
+      <c r="E173">
+        <v>1831.508316582907</v>
+      </c>
+      <c r="F173">
+        <v>42.79612501831103</v>
+      </c>
+      <c r="G173">
+        <v>128</v>
+      </c>
+      <c r="H173">
+        <v>127</v>
+      </c>
+      <c r="I173">
+        <v>255</v>
+      </c>
+      <c r="J173">
+        <v>178.25</v>
+      </c>
+      <c r="K173">
+        <v>255</v>
+      </c>
+      <c r="L173">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="174" spans="1:12">
+      <c r="A174">
+        <v>44753</v>
+      </c>
+      <c r="B174">
+        <v>223.765</v>
+      </c>
+      <c r="C174">
+        <v>255</v>
+      </c>
+      <c r="D174">
+        <v>255</v>
+      </c>
+      <c r="E174">
+        <v>2084.763592964832</v>
+      </c>
+      <c r="F174">
+        <v>45.65921147988468</v>
+      </c>
+      <c r="G174">
+        <v>135</v>
+      </c>
+      <c r="H174">
+        <v>120</v>
+      </c>
+      <c r="I174">
+        <v>255</v>
+      </c>
+      <c r="J174">
+        <v>182.75</v>
+      </c>
+      <c r="K174">
+        <v>255</v>
+      </c>
+      <c r="L174">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="175" spans="1:12">
+      <c r="A175">
+        <v>44160</v>
+      </c>
+      <c r="B175">
+        <v>220.8</v>
+      </c>
+      <c r="C175">
+        <v>255</v>
+      </c>
+      <c r="D175">
+        <v>255</v>
+      </c>
+      <c r="E175">
+        <v>2490.783919597995</v>
+      </c>
+      <c r="F175">
+        <v>49.90775410292467</v>
+      </c>
+      <c r="G175">
+        <v>148</v>
+      </c>
+      <c r="H175">
+        <v>107</v>
+      </c>
+      <c r="I175">
+        <v>255</v>
+      </c>
+      <c r="J175">
+        <v>177.25</v>
+      </c>
+      <c r="K175">
+        <v>255</v>
+      </c>
+      <c r="L175">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="176" spans="1:12">
+      <c r="A176">
+        <v>43797</v>
+      </c>
+      <c r="B176">
+        <v>218.985</v>
+      </c>
+      <c r="C176">
+        <v>255</v>
+      </c>
+      <c r="D176">
+        <v>255</v>
+      </c>
+      <c r="E176">
+        <v>2806.989723618094</v>
+      </c>
+      <c r="F176">
+        <v>52.9810317341791</v>
+      </c>
+      <c r="G176">
+        <v>162</v>
+      </c>
+      <c r="H176">
+        <v>93</v>
+      </c>
+      <c r="I176">
+        <v>255</v>
+      </c>
+      <c r="J176">
+        <v>181.5</v>
+      </c>
+      <c r="K176">
+        <v>255</v>
+      </c>
+      <c r="L176">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="177" spans="1:12">
+      <c r="A177">
+        <v>43669</v>
+      </c>
+      <c r="B177">
+        <v>218.345</v>
+      </c>
+      <c r="C177">
+        <v>255</v>
+      </c>
+      <c r="D177">
+        <v>255</v>
+      </c>
+      <c r="E177">
+        <v>2927.985904522611</v>
+      </c>
+      <c r="F177">
+        <v>54.1108667877591</v>
+      </c>
+      <c r="G177">
+        <v>162</v>
+      </c>
+      <c r="H177">
+        <v>93</v>
+      </c>
+      <c r="I177">
+        <v>255</v>
+      </c>
+      <c r="J177">
+        <v>187.5</v>
+      </c>
+      <c r="K177">
+        <v>255</v>
+      </c>
+      <c r="L177">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="178" spans="1:12">
+      <c r="A178">
+        <v>43783</v>
+      </c>
+      <c r="B178">
+        <v>218.915</v>
+      </c>
+      <c r="C178">
+        <v>255</v>
+      </c>
+      <c r="D178">
+        <v>255</v>
+      </c>
+      <c r="E178">
+        <v>2830.027914572856</v>
+      </c>
+      <c r="F178">
+        <v>53.19800667856698</v>
+      </c>
+      <c r="G178">
+        <v>154</v>
+      </c>
+      <c r="H178">
+        <v>101</v>
+      </c>
+      <c r="I178">
+        <v>255</v>
+      </c>
+      <c r="J178">
+        <v>195</v>
+      </c>
+      <c r="K178">
+        <v>255</v>
+      </c>
+      <c r="L178">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="179" spans="1:12">
+      <c r="A179">
+        <v>44169</v>
+      </c>
+      <c r="B179">
+        <v>220.845</v>
+      </c>
+      <c r="C179">
+        <v>255</v>
+      </c>
+      <c r="D179">
+        <v>255</v>
+      </c>
+      <c r="E179">
+        <v>2506.955753768851</v>
+      </c>
+      <c r="F179">
+        <v>50.06950922236857</v>
+      </c>
+      <c r="G179">
+        <v>145</v>
+      </c>
+      <c r="H179">
+        <v>110</v>
+      </c>
+      <c r="I179">
+        <v>255</v>
+      </c>
+      <c r="J179">
+        <v>192</v>
+      </c>
+      <c r="K179">
+        <v>255</v>
+      </c>
+      <c r="L179">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="180" spans="1:12">
+      <c r="A180">
+        <v>44727</v>
+      </c>
+      <c r="B180">
+        <v>223.635</v>
+      </c>
+      <c r="C180">
+        <v>255</v>
+      </c>
+      <c r="D180">
+        <v>255</v>
+      </c>
+      <c r="E180">
+        <v>2112.3233919598</v>
+      </c>
+      <c r="F180">
+        <v>45.96001949477176</v>
+      </c>
+      <c r="G180">
+        <v>129</v>
+      </c>
+      <c r="H180">
+        <v>126</v>
+      </c>
+      <c r="I180">
+        <v>255</v>
+      </c>
+      <c r="J180">
+        <v>196.75</v>
+      </c>
+      <c r="K180">
+        <v>255</v>
+      </c>
+      <c r="L180">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="181" spans="1:12">
+      <c r="A181">
+        <v>45355</v>
+      </c>
+      <c r="B181">
+        <v>226.775</v>
+      </c>
+      <c r="C181">
+        <v>255</v>
+      </c>
+      <c r="D181">
+        <v>255</v>
+      </c>
+      <c r="E181">
+        <v>1734.848618090454</v>
+      </c>
+      <c r="F181">
+        <v>41.65151399517734</v>
+      </c>
+      <c r="G181">
+        <v>118</v>
+      </c>
+      <c r="H181">
+        <v>137</v>
+      </c>
+      <c r="I181">
+        <v>255</v>
+      </c>
+      <c r="J181">
+        <v>198.75</v>
+      </c>
+      <c r="K181">
+        <v>255</v>
+      </c>
+      <c r="L181">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="182" spans="1:12">
+      <c r="A182">
+        <v>46036</v>
+      </c>
+      <c r="B182">
+        <v>230.18</v>
+      </c>
+      <c r="C182">
+        <v>255</v>
+      </c>
+      <c r="D182">
+        <v>255</v>
+      </c>
+      <c r="E182">
+        <v>1385.123216080405</v>
+      </c>
+      <c r="F182">
+        <v>37.21724353146542</v>
+      </c>
+      <c r="G182">
+        <v>108</v>
+      </c>
+      <c r="H182">
+        <v>147</v>
+      </c>
+      <c r="I182">
+        <v>255</v>
+      </c>
+      <c r="J182">
+        <v>204</v>
+      </c>
+      <c r="K182">
+        <v>255</v>
+      </c>
+      <c r="L182">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="183" spans="1:12">
+      <c r="A183">
+        <v>46870</v>
+      </c>
+      <c r="B183">
+        <v>234.35</v>
+      </c>
+      <c r="C183">
+        <v>255</v>
+      </c>
+      <c r="D183">
+        <v>255</v>
+      </c>
+      <c r="E183">
+        <v>983.5552763819052</v>
+      </c>
+      <c r="F183">
+        <v>31.36168484603315</v>
+      </c>
+      <c r="G183">
+        <v>91</v>
+      </c>
+      <c r="H183">
+        <v>164</v>
+      </c>
+      <c r="I183">
+        <v>255</v>
+      </c>
+      <c r="J183">
+        <v>210</v>
+      </c>
+      <c r="K183">
+        <v>255</v>
+      </c>
+      <c r="L183">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="184" spans="1:12">
+      <c r="A184">
+        <v>47603</v>
+      </c>
+      <c r="B184">
+        <v>238.015</v>
+      </c>
+      <c r="C184">
+        <v>255</v>
+      </c>
+      <c r="D184">
+        <v>255</v>
+      </c>
+      <c r="E184">
+        <v>659.0299246231157</v>
+      </c>
+      <c r="F184">
+        <v>25.67157814827744</v>
+      </c>
+      <c r="G184">
+        <v>72</v>
+      </c>
+      <c r="H184">
+        <v>183</v>
+      </c>
+      <c r="I184">
+        <v>255</v>
+      </c>
+      <c r="J184">
+        <v>215.75</v>
+      </c>
+      <c r="K184">
+        <v>255</v>
+      </c>
+      <c r="L184">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="185" spans="1:12">
+      <c r="A185">
+        <v>48255</v>
+      </c>
+      <c r="B185">
+        <v>241.275</v>
+      </c>
+      <c r="C185">
+        <v>255</v>
+      </c>
+      <c r="D185">
+        <v>255</v>
+      </c>
+      <c r="E185">
+        <v>430.2606783919603</v>
+      </c>
+      <c r="F185">
+        <v>20.74272591517229</v>
+      </c>
+      <c r="G185">
+        <v>57</v>
+      </c>
+      <c r="H185">
+        <v>198</v>
+      </c>
+      <c r="I185">
+        <v>255</v>
+      </c>
+      <c r="J185">
+        <v>223.75</v>
+      </c>
+      <c r="K185">
+        <v>255</v>
+      </c>
+      <c r="L185">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="186" spans="1:12">
+      <c r="A186">
+        <v>48802</v>
+      </c>
+      <c r="B186">
+        <v>244.01</v>
+      </c>
+      <c r="C186">
+        <v>255</v>
+      </c>
+      <c r="D186">
+        <v>255</v>
+      </c>
+      <c r="E186">
+        <v>289.0049246231166</v>
+      </c>
+      <c r="F186">
+        <v>17.00014484123934</v>
+      </c>
+      <c r="G186">
+        <v>48</v>
+      </c>
+      <c r="H186">
+        <v>207</v>
+      </c>
+      <c r="I186">
+        <v>255</v>
+      </c>
+      <c r="J186">
+        <v>234.75</v>
+      </c>
+      <c r="K186">
+        <v>255</v>
+      </c>
+      <c r="L186">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="187" spans="1:12">
+      <c r="A187">
+        <v>49348</v>
+      </c>
+      <c r="B187">
+        <v>246.74</v>
+      </c>
+      <c r="C187">
+        <v>254</v>
+      </c>
+      <c r="D187">
+        <v>255</v>
+      </c>
+      <c r="E187">
+        <v>159.9722613065323</v>
+      </c>
+      <c r="F187">
+        <v>12.64801412501316</v>
+      </c>
+      <c r="G187">
+        <v>38</v>
+      </c>
+      <c r="H187">
+        <v>217</v>
+      </c>
+      <c r="I187">
+        <v>255</v>
+      </c>
+      <c r="J187">
+        <v>241.75</v>
+      </c>
+      <c r="K187">
+        <v>254</v>
+      </c>
+      <c r="L187">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="188" spans="1:12">
+      <c r="A188">
+        <v>49946</v>
+      </c>
+      <c r="B188">
+        <v>249.73</v>
+      </c>
+      <c r="C188">
+        <v>254</v>
+      </c>
+      <c r="D188">
+        <v>255</v>
+      </c>
+      <c r="E188">
+        <v>60.61015075376882</v>
+      </c>
+      <c r="F188">
+        <v>7.7852521316762</v>
+      </c>
+      <c r="G188">
+        <v>25</v>
+      </c>
+      <c r="H188">
+        <v>230</v>
+      </c>
+      <c r="I188">
+        <v>255</v>
+      </c>
+      <c r="J188">
         <v>247</v>
       </c>
-      <c r="I101">
-        <v>255</v>
-      </c>
-      <c r="J101">
+      <c r="K188">
         <v>254</v>
       </c>
-      <c r="K101">
+      <c r="L188">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="189" spans="1:12">
+      <c r="A189">
+        <v>50431</v>
+      </c>
+      <c r="B189">
+        <v>252.155</v>
+      </c>
+      <c r="C189">
         <v>254</v>
       </c>
-      <c r="L101">
+      <c r="D189">
+        <v>255</v>
+      </c>
+      <c r="E189">
+        <v>14.39293969849244</v>
+      </c>
+      <c r="F189">
+        <v>3.793802801740285</v>
+      </c>
+      <c r="G189">
+        <v>13</v>
+      </c>
+      <c r="H189">
+        <v>242</v>
+      </c>
+      <c r="I189">
+        <v>255</v>
+      </c>
+      <c r="J189">
+        <v>250</v>
+      </c>
+      <c r="K189">
+        <v>254</v>
+      </c>
+      <c r="L189">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="190" spans="1:12">
+      <c r="A190">
+        <v>50599</v>
+      </c>
+      <c r="B190">
+        <v>252.995</v>
+      </c>
+      <c r="C190">
+        <v>255</v>
+      </c>
+      <c r="D190">
+        <v>255</v>
+      </c>
+      <c r="E190">
+        <v>5.401984924623138</v>
+      </c>
+      <c r="F190">
+        <v>2.324217056262848</v>
+      </c>
+      <c r="G190">
+        <v>7</v>
+      </c>
+      <c r="H190">
+        <v>248</v>
+      </c>
+      <c r="I190">
+        <v>255</v>
+      </c>
+      <c r="J190">
+        <v>251</v>
+      </c>
+      <c r="K190">
+        <v>255</v>
+      </c>
+      <c r="L190">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="191" spans="1:12">
+      <c r="A191">
+        <v>50659</v>
+      </c>
+      <c r="B191">
+        <v>253.295</v>
+      </c>
+      <c r="C191">
+        <v>254</v>
+      </c>
+      <c r="D191">
+        <v>255</v>
+      </c>
+      <c r="E191">
+        <v>4.209020100502526</v>
+      </c>
+      <c r="F191">
+        <v>2.051589652075319</v>
+      </c>
+      <c r="G191">
+        <v>7</v>
+      </c>
+      <c r="H191">
+        <v>248</v>
+      </c>
+      <c r="I191">
+        <v>255</v>
+      </c>
+      <c r="J191">
+        <v>252</v>
+      </c>
+      <c r="K191">
+        <v>254</v>
+      </c>
+      <c r="L191">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="192" spans="1:12">
+      <c r="A192">
+        <v>50563</v>
+      </c>
+      <c r="B192">
+        <v>252.815</v>
+      </c>
+      <c r="C192">
+        <v>255</v>
+      </c>
+      <c r="D192">
+        <v>255</v>
+      </c>
+      <c r="E192">
+        <v>7.508316582914611</v>
+      </c>
+      <c r="F192">
+        <v>2.740130760185472</v>
+      </c>
+      <c r="G192">
+        <v>10</v>
+      </c>
+      <c r="H192">
+        <v>245</v>
+      </c>
+      <c r="I192">
+        <v>255</v>
+      </c>
+      <c r="J192">
+        <v>251</v>
+      </c>
+      <c r="K192">
+        <v>255</v>
+      </c>
+      <c r="L192">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="193" spans="1:12">
+      <c r="A193">
+        <v>50184</v>
+      </c>
+      <c r="B193">
+        <v>250.92</v>
+      </c>
+      <c r="C193">
+        <v>255</v>
+      </c>
+      <c r="D193">
+        <v>255</v>
+      </c>
+      <c r="E193">
+        <v>60.52623115577866</v>
+      </c>
+      <c r="F193">
+        <v>7.779860612875957</v>
+      </c>
+      <c r="G193">
+        <v>30</v>
+      </c>
+      <c r="H193">
+        <v>225</v>
+      </c>
+      <c r="I193">
+        <v>255</v>
+      </c>
+      <c r="J193">
+        <v>251</v>
+      </c>
+      <c r="K193">
+        <v>255</v>
+      </c>
+      <c r="L193">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="194" spans="1:12">
+      <c r="A194">
+        <v>49331</v>
+      </c>
+      <c r="B194">
+        <v>246.655</v>
+      </c>
+      <c r="C194">
+        <v>255</v>
+      </c>
+      <c r="D194">
+        <v>255</v>
+      </c>
+      <c r="E194">
+        <v>369.6039949748732</v>
+      </c>
+      <c r="F194">
+        <v>19.22508764544061</v>
+      </c>
+      <c r="G194">
+        <v>63</v>
+      </c>
+      <c r="H194">
+        <v>192</v>
+      </c>
+      <c r="I194">
+        <v>255</v>
+      </c>
+      <c r="J194">
+        <v>252</v>
+      </c>
+      <c r="K194">
+        <v>255</v>
+      </c>
+      <c r="L194">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="195" spans="1:12">
+      <c r="A195">
+        <v>49462</v>
+      </c>
+      <c r="B195">
+        <v>247.31</v>
+      </c>
+      <c r="C195">
+        <v>255</v>
+      </c>
+      <c r="D195">
+        <v>255</v>
+      </c>
+      <c r="E195">
+        <v>295.5717587939712</v>
+      </c>
+      <c r="F195">
+        <v>17.19220052215455</v>
+      </c>
+      <c r="G195">
+        <v>74</v>
+      </c>
+      <c r="H195">
+        <v>181</v>
+      </c>
+      <c r="I195">
+        <v>255</v>
+      </c>
+      <c r="J195">
+        <v>252</v>
+      </c>
+      <c r="K195">
+        <v>255</v>
+      </c>
+      <c r="L195">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="196" spans="1:12">
+      <c r="A196">
+        <v>49605</v>
+      </c>
+      <c r="B196">
+        <v>248.025</v>
+      </c>
+      <c r="C196">
+        <v>254</v>
+      </c>
+      <c r="D196">
+        <v>255</v>
+      </c>
+      <c r="E196">
+        <v>254.3059045226143</v>
+      </c>
+      <c r="F196">
+        <v>15.94697164111777</v>
+      </c>
+      <c r="G196">
+        <v>80</v>
+      </c>
+      <c r="H196">
+        <v>175</v>
+      </c>
+      <c r="I196">
+        <v>255</v>
+      </c>
+      <c r="J196">
+        <v>252</v>
+      </c>
+      <c r="K196">
+        <v>254</v>
+      </c>
+      <c r="L196">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="197" spans="1:12">
+      <c r="A197">
+        <v>49574</v>
+      </c>
+      <c r="B197">
+        <v>247.87</v>
+      </c>
+      <c r="C197">
+        <v>254</v>
+      </c>
+      <c r="D197">
+        <v>255</v>
+      </c>
+      <c r="E197">
+        <v>284.2342713567846</v>
+      </c>
+      <c r="F197">
+        <v>16.85924883726391</v>
+      </c>
+      <c r="G197">
+        <v>82</v>
+      </c>
+      <c r="H197">
+        <v>173</v>
+      </c>
+      <c r="I197">
+        <v>255</v>
+      </c>
+      <c r="J197">
+        <v>253</v>
+      </c>
+      <c r="K197">
+        <v>254</v>
+      </c>
+      <c r="L197">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="198" spans="1:12">
+      <c r="A198">
+        <v>49152</v>
+      </c>
+      <c r="B198">
+        <v>245.76</v>
+      </c>
+      <c r="C198">
+        <v>254</v>
+      </c>
+      <c r="D198">
+        <v>255</v>
+      </c>
+      <c r="E198">
+        <v>481.7813065326661</v>
+      </c>
+      <c r="F198">
+        <v>21.94951722778125</v>
+      </c>
+      <c r="G198">
+        <v>76</v>
+      </c>
+      <c r="H198">
+        <v>179</v>
+      </c>
+      <c r="I198">
+        <v>255</v>
+      </c>
+      <c r="J198">
+        <v>253</v>
+      </c>
+      <c r="K198">
+        <v>254</v>
+      </c>
+      <c r="L198">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="199" spans="1:12">
+      <c r="A199">
+        <v>49820</v>
+      </c>
+      <c r="B199">
+        <v>249.1</v>
+      </c>
+      <c r="C199">
+        <v>254</v>
+      </c>
+      <c r="D199">
+        <v>255</v>
+      </c>
+      <c r="E199">
+        <v>176.7035175879387</v>
+      </c>
+      <c r="F199">
+        <v>13.29298753433323</v>
+      </c>
+      <c r="G199">
+        <v>45</v>
+      </c>
+      <c r="H199">
+        <v>210</v>
+      </c>
+      <c r="I199">
+        <v>255</v>
+      </c>
+      <c r="J199">
+        <v>253</v>
+      </c>
+      <c r="K199">
+        <v>254</v>
+      </c>
+      <c r="L199">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="200" spans="1:12">
+      <c r="A200">
+        <v>50456</v>
+      </c>
+      <c r="B200">
+        <v>252.28</v>
+      </c>
+      <c r="C200">
+        <v>254</v>
+      </c>
+      <c r="D200">
+        <v>255</v>
+      </c>
+      <c r="E200">
+        <v>25.64984924623123</v>
+      </c>
+      <c r="F200">
+        <v>5.064568021680746</v>
+      </c>
+      <c r="G200">
+        <v>19</v>
+      </c>
+      <c r="H200">
+        <v>236</v>
+      </c>
+      <c r="I200">
+        <v>255</v>
+      </c>
+      <c r="J200">
+        <v>253</v>
+      </c>
+      <c r="K200">
+        <v>254</v>
+      </c>
+      <c r="L200">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="201" spans="1:12">
+      <c r="A201">
+        <v>50896</v>
+      </c>
+      <c r="B201">
+        <v>254.48</v>
+      </c>
+      <c r="C201">
+        <v>255</v>
+      </c>
+      <c r="D201">
+        <v>255</v>
+      </c>
+      <c r="E201">
+        <v>0.3815075376884409</v>
+      </c>
+      <c r="F201">
+        <v>0.6176629644785584</v>
+      </c>
+      <c r="G201">
+        <v>3</v>
+      </c>
+      <c r="H201">
+        <v>252</v>
+      </c>
+      <c r="I201">
+        <v>255</v>
+      </c>
+      <c r="J201">
+        <v>254</v>
+      </c>
+      <c r="K201">
+        <v>255</v>
+      </c>
+      <c r="L201">
         <v>255</v>
       </c>
     </row>
